--- a/Gestion Stock 2025/Gestion de Stock Berrouaghia/Suivie pose Compteur 2025.xlsx
+++ b/Gestion Stock 2025/Gestion de Stock Berrouaghia/Suivie pose Compteur 2025.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="252">
   <si>
     <t>Algérienne des Eaux</t>
   </si>
@@ -880,6 +880,18 @@
   </si>
   <si>
     <t>Sabour abdenour</t>
+  </si>
+  <si>
+    <t>2025012541</t>
+  </si>
+  <si>
+    <t>Kefaifi naçer</t>
+  </si>
+  <si>
+    <t>djenane toubal</t>
+  </si>
+  <si>
+    <t>NB(654/2024)</t>
   </si>
 </sst>
 </file>
@@ -6072,7 +6084,7 @@
   <dimension ref="A1:K68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6144,7 +6156,7 @@
       <c r="J3" s="27"/>
       <c r="K3" s="6">
         <f>SUMIF(F7:F364,"NB*",G7:G364)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.25">
@@ -6184,7 +6196,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="8">
         <f>SUM(K2:K4)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6481,16 +6493,30 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
+      <c r="B16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="E16" s="16">
+        <v>45769</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>251</v>
+      </c>
       <c r="G16" s="18">
         <v>1</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="22"/>
+      <c r="H16" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>250</v>
+      </c>
       <c r="J16" s="22"/>
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/Gestion Stock 2025/Gestion de Stock Berrouaghia/Suivie pose Compteur 2025.xlsx
+++ b/Gestion Stock 2025/Gestion de Stock Berrouaghia/Suivie pose Compteur 2025.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="319">
   <si>
     <t>Algérienne des Eaux</t>
   </si>
@@ -888,10 +888,211 @@
     <t>Kefaifi naçer</t>
   </si>
   <si>
-    <t>djenane toubal</t>
-  </si>
-  <si>
     <t>NB(654/2024)</t>
+  </si>
+  <si>
+    <t>2025011719</t>
+  </si>
+  <si>
+    <t>B10031</t>
+  </si>
+  <si>
+    <t>B10149</t>
+  </si>
+  <si>
+    <t>2025011718</t>
+  </si>
+  <si>
+    <t>B11307</t>
+  </si>
+  <si>
+    <t>2025011720</t>
+  </si>
+  <si>
+    <t>BC0451</t>
+  </si>
+  <si>
+    <t>2025011713</t>
+  </si>
+  <si>
+    <t>B10355</t>
+  </si>
+  <si>
+    <t>2025011716</t>
+  </si>
+  <si>
+    <t>B10400</t>
+  </si>
+  <si>
+    <t>2025011711</t>
+  </si>
+  <si>
+    <t>B10492</t>
+  </si>
+  <si>
+    <t>2025011777</t>
+  </si>
+  <si>
+    <t>B10514</t>
+  </si>
+  <si>
+    <t>2025011771</t>
+  </si>
+  <si>
+    <t>B10528</t>
+  </si>
+  <si>
+    <t>2025011772</t>
+  </si>
+  <si>
+    <t>B10678</t>
+  </si>
+  <si>
+    <t>2025011778</t>
+  </si>
+  <si>
+    <t>B11711</t>
+  </si>
+  <si>
+    <t>2025011774</t>
+  </si>
+  <si>
+    <t>B11773</t>
+  </si>
+  <si>
+    <t>2025011776</t>
+  </si>
+  <si>
+    <t>B12111</t>
+  </si>
+  <si>
+    <t>2025011773</t>
+  </si>
+  <si>
+    <t>B12257</t>
+  </si>
+  <si>
+    <t>2025011779</t>
+  </si>
+  <si>
+    <t>B10723</t>
+  </si>
+  <si>
+    <t>2025011775</t>
+  </si>
+  <si>
+    <t>B11719</t>
+  </si>
+  <si>
+    <t>2025011780</t>
+  </si>
+  <si>
+    <t>B40922</t>
+  </si>
+  <si>
+    <t>2025011877</t>
+  </si>
+  <si>
+    <t>B41951</t>
+  </si>
+  <si>
+    <t>2025011878</t>
+  </si>
+  <si>
+    <t>B42083</t>
+  </si>
+  <si>
+    <t>2025011880</t>
+  </si>
+  <si>
+    <t>B42150</t>
+  </si>
+  <si>
+    <t>2025011876</t>
+  </si>
+  <si>
+    <t>B41806</t>
+  </si>
+  <si>
+    <t>2025011873</t>
+  </si>
+  <si>
+    <t>B41852</t>
+  </si>
+  <si>
+    <t>2025011872</t>
+  </si>
+  <si>
+    <t>B41856</t>
+  </si>
+  <si>
+    <t>2025011871</t>
+  </si>
+  <si>
+    <t>B41868</t>
+  </si>
+  <si>
+    <t>2025011875</t>
+  </si>
+  <si>
+    <t>B40975</t>
+  </si>
+  <si>
+    <t>2025011874</t>
+  </si>
+  <si>
+    <t>B40985</t>
+  </si>
+  <si>
+    <t>2025011879</t>
+  </si>
+  <si>
+    <t>B10570</t>
+  </si>
+  <si>
+    <t>2025011712</t>
+  </si>
+  <si>
+    <t>B10640</t>
+  </si>
+  <si>
+    <t>2025011717</t>
+  </si>
+  <si>
+    <t>B11229</t>
+  </si>
+  <si>
+    <t>2025012545</t>
+  </si>
+  <si>
+    <t>2025012544</t>
+  </si>
+  <si>
+    <t>B11263</t>
+  </si>
+  <si>
+    <t>B10742</t>
+  </si>
+  <si>
+    <t>2025012543</t>
+  </si>
+  <si>
+    <t>B11297</t>
+  </si>
+  <si>
+    <t>2025011715</t>
+  </si>
+  <si>
+    <t>B11331</t>
+  </si>
+  <si>
+    <t>2025011714</t>
+  </si>
+  <si>
+    <t>2025012542</t>
+  </si>
+  <si>
+    <t>B21253</t>
   </si>
 </sst>
 </file>
@@ -1297,15 +1498,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1209675</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1314,8 +1515,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="609600" y="11658600"/>
-          <a:ext cx="4438650" cy="1438275"/>
+          <a:off x="609601" y="9791700"/>
+          <a:ext cx="4438649" cy="1238250"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1607,7 +1808,7 @@
   <dimension ref="A1:K68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F46" sqref="A1:F46"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2925,8 +3126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6081,10 +6282,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K68"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6133,8 +6334,8 @@
       </c>
       <c r="J2" s="27"/>
       <c r="K2" s="6">
-        <f>SUMIF(F7:F364,"Elimination*",G7:G364)</f>
-        <v>4</v>
+        <f>SUMIF(F7:F353,"Elimination*",G7:G353)</f>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -6155,7 +6356,7 @@
       </c>
       <c r="J3" s="27"/>
       <c r="K3" s="6">
-        <f>SUMIF(F7:F364,"NB*",G7:G364)</f>
+        <f>SUMIF(F7:F353,"NB*",G7:G353)</f>
         <v>6</v>
       </c>
     </row>
@@ -6175,7 +6376,7 @@
       </c>
       <c r="J4" s="27"/>
       <c r="K4" s="6">
-        <f>SUMIF(F7:F364,"Ve*",G7:G364)</f>
+        <f>SUMIF(F7:F353,"Ve*",G7:G353)</f>
         <v>0</v>
       </c>
     </row>
@@ -6196,7 +6397,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="8">
         <f>SUM(K2:K4)</f>
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6287,7 +6488,7 @@
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
-        <f t="shared" ref="A9:A68" si="0">+A8+1</f>
+        <f t="shared" ref="A9:A57" si="0">+A8+1</f>
         <v>3</v>
       </c>
       <c r="B9" s="13" t="s">
@@ -6506,7 +6707,7 @@
         <v>45769</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G16" s="18">
         <v>1</v>
@@ -6514,9 +6715,7 @@
       <c r="H16" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="I16" s="22" t="s">
-        <v>250</v>
-      </c>
+      <c r="I16" s="22"/>
       <c r="J16" s="22"/>
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6524,11 +6723,21 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17"/>
+      <c r="B17" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="E17" s="16">
+        <v>45771</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="G17" s="18">
         <v>1</v>
       </c>
@@ -6541,15 +6750,25 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17"/>
+      <c r="B18" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="E18" s="16">
+        <v>45771</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="G18" s="18">
         <v>1</v>
       </c>
-      <c r="H18" s="19"/>
+      <c r="H18" s="23"/>
       <c r="I18" s="22"/>
       <c r="J18" s="22"/>
     </row>
@@ -6558,11 +6777,21 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="17"/>
+      <c r="B19" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="E19" s="16">
+        <v>45771</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="G19" s="18">
         <v>1</v>
       </c>
@@ -6575,15 +6804,25 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="17"/>
+      <c r="B20" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="E20" s="16">
+        <v>45771</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="G20" s="18">
         <v>1</v>
       </c>
-      <c r="H20" s="23"/>
+      <c r="H20" s="19"/>
       <c r="I20" s="22"/>
       <c r="J20" s="22"/>
     </row>
@@ -6592,11 +6831,21 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="17"/>
+      <c r="B21" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="E21" s="16">
+        <v>45771</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="G21" s="18">
         <v>1</v>
       </c>
@@ -6609,11 +6858,21 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="17"/>
+      <c r="B22" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E22" s="16">
+        <v>45771</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="G22" s="18">
         <v>1</v>
       </c>
@@ -6626,15 +6885,25 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="17"/>
+      <c r="B23" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E23" s="16">
+        <v>45771</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="G23" s="18">
         <v>1</v>
       </c>
-      <c r="H23" s="19"/>
+      <c r="H23" s="23"/>
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
     </row>
@@ -6643,15 +6912,25 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="17"/>
+      <c r="B24" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="E24" s="16">
+        <v>45771</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="G24" s="18">
         <v>1</v>
       </c>
-      <c r="H24" s="23"/>
+      <c r="H24" s="19"/>
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
     </row>
@@ -6660,15 +6939,25 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="17"/>
+      <c r="B25" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="E25" s="16">
+        <v>45771</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="G25" s="18">
         <v>1</v>
       </c>
-      <c r="H25" s="19"/>
+      <c r="H25" s="23"/>
       <c r="I25" s="22"/>
       <c r="J25" s="22"/>
     </row>
@@ -6677,11 +6966,21 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="17"/>
+      <c r="B26" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="E26" s="16">
+        <v>45771</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="G26" s="18">
         <v>1</v>
       </c>
@@ -6694,16 +6993,26 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="17"/>
+      <c r="B27" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E27" s="16">
+        <v>45771</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="G27" s="18">
         <v>1</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="22"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="4"/>
       <c r="J27" s="22"/>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6711,11 +7020,21 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="17"/>
+      <c r="B28" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="E28" s="16">
+        <v>45771</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="G28" s="18">
         <v>1</v>
       </c>
@@ -6728,15 +7047,25 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="17"/>
+      <c r="B29" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="E29" s="16">
+        <v>45771</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="G29" s="18">
         <v>1</v>
       </c>
-      <c r="H29" s="23"/>
+      <c r="H29" s="19"/>
       <c r="I29" s="22"/>
       <c r="J29" s="22"/>
     </row>
@@ -6745,16 +7074,26 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="17"/>
+      <c r="B30" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="E30" s="16">
+        <v>45771</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="G30" s="18">
         <v>1</v>
       </c>
-      <c r="H30" s="23"/>
-      <c r="I30" s="4"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="22"/>
       <c r="J30" s="4"/>
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6762,15 +7101,25 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="17"/>
+      <c r="B31" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="E31" s="16">
+        <v>45771</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="G31" s="18">
         <v>1</v>
       </c>
-      <c r="H31" s="24"/>
+      <c r="H31" s="23"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
     </row>
@@ -6779,11 +7128,21 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="17"/>
+      <c r="B32" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="E32" s="16">
+        <v>45771</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="G32" s="18">
         <v>1</v>
       </c>
@@ -6796,16 +7155,25 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="17"/>
+      <c r="B33" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="E33" s="16">
+        <v>45771</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="G33" s="18">
         <v>1</v>
       </c>
-      <c r="H33" s="23"/>
-      <c r="I33" s="4"/>
+      <c r="H33" s="24"/>
       <c r="J33" s="4"/>
     </row>
     <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6813,11 +7181,21 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="17"/>
+      <c r="B34" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E34" s="16">
+        <v>45771</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="G34" s="18">
         <v>1</v>
       </c>
@@ -6830,15 +7208,25 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="17"/>
+      <c r="B35" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="E35" s="16">
+        <v>45771</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="G35" s="18">
         <v>1</v>
       </c>
-      <c r="H35" s="4"/>
+      <c r="H35" s="24"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
     </row>
@@ -6847,16 +7235,25 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="17"/>
+      <c r="B36" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="E36" s="16">
+        <v>45771</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="G36" s="18">
         <v>1</v>
       </c>
-      <c r="H36" s="23"/>
-      <c r="I36" s="4"/>
+      <c r="H36" s="24"/>
       <c r="J36" s="4"/>
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6864,16 +7261,25 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="17"/>
+      <c r="B37" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="E37" s="16">
+        <v>45771</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="G37" s="18">
         <v>1</v>
       </c>
-      <c r="H37" s="24"/>
-      <c r="I37" s="4"/>
+      <c r="H37" s="4"/>
       <c r="J37" s="4"/>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6881,15 +7287,25 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="17"/>
+      <c r="B38" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="E38" s="16">
+        <v>45771</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="G38" s="18">
         <v>1</v>
       </c>
-      <c r="H38" s="4"/>
+      <c r="H38" s="23"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
     </row>
@@ -6898,41 +7314,73 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="17"/>
+      <c r="B39" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="E39" s="16">
+        <v>45771</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="G39" s="18">
         <v>1</v>
       </c>
-      <c r="H39" s="24"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="4"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <f>+A39+1</f>
         <v>34</v>
       </c>
-      <c r="B40" s="16"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="17"/>
+      <c r="B40" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="E40" s="16">
+        <v>45771</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="G40" s="18">
         <v>1</v>
       </c>
       <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="17"/>
+      <c r="B41" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="E41" s="16">
+        <v>45771</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="G41" s="18">
         <v>1</v>
       </c>
@@ -6943,26 +7391,47 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B42" s="16"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="17"/>
+      <c r="B42" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="E42" s="16">
+        <v>45771</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="G42" s="18">
         <v>1</v>
       </c>
-      <c r="H42" s="24"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="17"/>
+      <c r="B43" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="E43" s="16">
+        <v>45775</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="G43" s="18">
         <v>1</v>
       </c>
@@ -6973,11 +7442,21 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="17"/>
+      <c r="B44" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="E44" s="16">
+        <v>45775</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="G44" s="18">
         <v>1</v>
       </c>
@@ -6988,11 +7467,21 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B45" s="16"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="17"/>
+      <c r="B45" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="E45" s="16">
+        <v>45775</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="G45" s="18">
         <v>1</v>
       </c>
@@ -7003,11 +7492,21 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="17"/>
+      <c r="B46" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="E46" s="16">
+        <v>45775</v>
+      </c>
+      <c r="F46" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="G46" s="18">
         <v>1</v>
       </c>
@@ -7018,11 +7517,21 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B47" s="16"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="17"/>
+      <c r="B47" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="E47" s="16">
+        <v>45775</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="G47" s="18">
         <v>1</v>
       </c>
@@ -7033,11 +7542,21 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B48" s="16"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="17"/>
+      <c r="B48" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="E48" s="16">
+        <v>45775</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="G48" s="18">
         <v>1</v>
       </c>
@@ -7048,11 +7567,21 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B49" s="16"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="17"/>
+      <c r="B49" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="E49" s="16">
+        <v>45775</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="G49" s="18">
         <v>1</v>
       </c>
@@ -7063,11 +7592,21 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B50" s="16"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="17"/>
+      <c r="B50" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="E50" s="16">
+        <v>45775</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="G50" s="18">
         <v>1</v>
       </c>
@@ -7178,175 +7717,10 @@
       </c>
       <c r="H57" s="24"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="12">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="B58" s="16"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="18">
-        <v>1</v>
-      </c>
-      <c r="H58" s="24"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="12">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="B59" s="16"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="18">
-        <v>1</v>
-      </c>
-      <c r="H59" s="24"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="12">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="B60" s="16"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="18">
-        <v>1</v>
-      </c>
-      <c r="H60" s="24"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="12">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="B61" s="16"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="18">
-        <v>1</v>
-      </c>
-      <c r="H61" s="24"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="12">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="B62" s="16"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="18">
-        <v>1</v>
-      </c>
-      <c r="H62" s="24"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="12">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="B63" s="16"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="18">
-        <v>1</v>
-      </c>
-      <c r="H63" s="24"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="12">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="B64" s="16"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="18">
-        <v>1</v>
-      </c>
-      <c r="H64" s="24"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="12">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="B65" s="16"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="18">
-        <v>1</v>
-      </c>
-      <c r="H65" s="24"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="12">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="B66" s="16"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="18">
-        <v>1</v>
-      </c>
-      <c r="H66" s="24"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="12">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="B67" s="16"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="18">
-        <v>1</v>
-      </c>
-      <c r="H67" s="24"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="12">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="B68" s="16"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="17"/>
-      <c r="G68" s="18">
-        <v>1</v>
-      </c>
-      <c r="H68" s="24"/>
-    </row>
   </sheetData>
-  <sortState ref="B7:I15">
-    <sortCondition ref="E7:E15"/>
-    <sortCondition ref="D7:D15"/>
+  <sortState ref="B7:H50">
+    <sortCondition ref="E7:E50"/>
+    <sortCondition ref="D7:D50"/>
   </sortState>
   <mergeCells count="9">
     <mergeCell ref="A5:F5"/>

--- a/Gestion Stock 2025/Gestion de Stock Berrouaghia/Suivie pose Compteur 2025.xlsx
+++ b/Gestion Stock 2025/Gestion de Stock Berrouaghia/Suivie pose Compteur 2025.xlsx
@@ -9,18 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16530" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16530" windowHeight="7755" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Janvier 2025" sheetId="1" r:id="rId1"/>
     <sheet name="Fevrier 2025" sheetId="2" r:id="rId2"/>
     <sheet name="Mars 2025" sheetId="3" r:id="rId3"/>
     <sheet name="Avril 2025" sheetId="4" r:id="rId4"/>
+    <sheet name="MAI 2025" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'Avril 2025'!$1:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Fevrier 2025'!$1:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Janvier 2025'!$1:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'MAI 2025'!$1:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'Mars 2025'!$1:$6</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="355">
   <si>
     <t>Algérienne des Eaux</t>
   </si>
@@ -1093,6 +1095,135 @@
   </si>
   <si>
     <t>B21253</t>
+  </si>
+  <si>
+    <r>
+      <t>Mois de Mai</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2025</t>
+    </r>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>2025012401</t>
+  </si>
+  <si>
+    <t>2025012402</t>
+  </si>
+  <si>
+    <t>B10228</t>
+  </si>
+  <si>
+    <t>2025012409</t>
+  </si>
+  <si>
+    <t>B10753</t>
+  </si>
+  <si>
+    <t>2025012408</t>
+  </si>
+  <si>
+    <t>B10853</t>
+  </si>
+  <si>
+    <t>2025012406</t>
+  </si>
+  <si>
+    <t>B11193</t>
+  </si>
+  <si>
+    <t>2025012410</t>
+  </si>
+  <si>
+    <t>2025012407</t>
+  </si>
+  <si>
+    <t>NB(663/2024)</t>
+  </si>
+  <si>
+    <t>Nadji med-cherif</t>
+  </si>
+  <si>
+    <t>Rahmani rabah</t>
+  </si>
+  <si>
+    <t>B41694</t>
+  </si>
+  <si>
+    <t>2025011654</t>
+  </si>
+  <si>
+    <t>B41971</t>
+  </si>
+  <si>
+    <t>2025011659</t>
+  </si>
+  <si>
+    <t>B41697</t>
+  </si>
+  <si>
+    <t>2025011653</t>
+  </si>
+  <si>
+    <t>B41707</t>
+  </si>
+  <si>
+    <t>2025011651</t>
+  </si>
+  <si>
+    <t>B41718</t>
+  </si>
+  <si>
+    <t>2025011660</t>
+  </si>
+  <si>
+    <t>B41875</t>
+  </si>
+  <si>
+    <t>2025011655</t>
+  </si>
+  <si>
+    <t>B42000</t>
+  </si>
+  <si>
+    <t>2025011652</t>
+  </si>
+  <si>
+    <t>B22194</t>
+  </si>
+  <si>
+    <t>NB(667/2024)</t>
+  </si>
+  <si>
+    <t>B10296</t>
+  </si>
+  <si>
+    <t>2025012404</t>
+  </si>
+  <si>
+    <t>2024004685</t>
+  </si>
+  <si>
+    <t>BC0012</t>
   </si>
 </sst>
 </file>
@@ -1542,6 +1673,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1209675</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Connecteur droit 1"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="609601" y="9791700"/>
+          <a:ext cx="4438649" cy="1238250"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
@@ -6284,8 +6464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7740,4 +7920,1178 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="29.85546875" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="27"/>
+      <c r="K2" s="6">
+        <f>SUMIF(F7:F353,"Elimination*",G7:G353)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="27"/>
+      <c r="K3" s="6">
+        <f>SUMIF(F7:F353,"NB*",G7:G353)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="27"/>
+      <c r="K4" s="6">
+        <f>SUMIF(F7:F353,"Ve*",G7:G353)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="27"/>
+      <c r="K5" s="8">
+        <f>SUM(K2:K4)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="11"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>1</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="E7" s="16">
+        <v>45781</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="G7" s="18">
+        <v>1</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="I7" s="22"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <f>+A7+1</f>
+        <v>2</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="E8" s="16">
+        <v>45781</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="G8" s="18">
+        <v>1</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <f t="shared" ref="A9:A57" si="0">+A8+1</f>
+        <v>3</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="E9" s="16">
+        <v>45781</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="18">
+        <v>1</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="E10" s="16">
+        <v>45781</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="18">
+        <v>1</v>
+      </c>
+      <c r="H10" s="19"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="E11" s="16">
+        <v>45781</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="18">
+        <v>1</v>
+      </c>
+      <c r="H11" s="19"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="E12" s="16">
+        <v>45781</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="18">
+        <v>1</v>
+      </c>
+      <c r="H12" s="19"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="E13" s="16">
+        <v>45781</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="18">
+        <v>1</v>
+      </c>
+      <c r="H13" s="19"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="E14" s="16">
+        <v>45782</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="18">
+        <v>1</v>
+      </c>
+      <c r="H14" s="19"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="E15" s="16">
+        <v>45782</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="18">
+        <v>1</v>
+      </c>
+      <c r="H15" s="19"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="E16" s="16">
+        <v>45782</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="18">
+        <v>1</v>
+      </c>
+      <c r="H16" s="19"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="E17" s="16">
+        <v>45782</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="18">
+        <v>1</v>
+      </c>
+      <c r="H17" s="19"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="E18" s="16">
+        <v>45782</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="18">
+        <v>1</v>
+      </c>
+      <c r="H18" s="23"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+    </row>
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="E19" s="16">
+        <v>45782</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="18">
+        <v>1</v>
+      </c>
+      <c r="H19" s="19"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+    </row>
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="E20" s="16">
+        <v>45782</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="18">
+        <v>1</v>
+      </c>
+      <c r="H20" s="19"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+    </row>
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="E21" s="16">
+        <v>45783</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="18">
+        <v>1</v>
+      </c>
+      <c r="H21" s="19"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+    </row>
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="E22" s="16">
+        <v>45783</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="18">
+        <v>1</v>
+      </c>
+      <c r="H22" s="19"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+    </row>
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="18">
+        <v>1</v>
+      </c>
+      <c r="H23" s="23"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+    </row>
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="18">
+        <v>1</v>
+      </c>
+      <c r="H24" s="19"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+    </row>
+    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="18">
+        <v>1</v>
+      </c>
+      <c r="H25" s="23"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+    </row>
+    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="18">
+        <v>1</v>
+      </c>
+      <c r="H26" s="19"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+    </row>
+    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B27" s="16"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="18">
+        <v>1</v>
+      </c>
+      <c r="H27" s="24"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="22"/>
+    </row>
+    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B28" s="16"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="18">
+        <v>1</v>
+      </c>
+      <c r="H28" s="23"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+    </row>
+    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B29" s="16"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="18">
+        <v>1</v>
+      </c>
+      <c r="H29" s="19"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+    </row>
+    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="18">
+        <v>1</v>
+      </c>
+      <c r="H30" s="19"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B31" s="16"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="18">
+        <v>1</v>
+      </c>
+      <c r="H31" s="23"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="18">
+        <v>1</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B33" s="16"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="18">
+        <v>1</v>
+      </c>
+      <c r="H33" s="24"/>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="12">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B34" s="16"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="18">
+        <v>1</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B35" s="16"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="18">
+        <v>1</v>
+      </c>
+      <c r="H35" s="24"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B36" s="16"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="18">
+        <v>1</v>
+      </c>
+      <c r="H36" s="24"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="12">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B37" s="16"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="18">
+        <v>1</v>
+      </c>
+      <c r="H37" s="4"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B38" s="16"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="18">
+        <v>1</v>
+      </c>
+      <c r="H38" s="23"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="12">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B39" s="16"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="18">
+        <v>1</v>
+      </c>
+      <c r="H39" s="23"/>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="12">
+        <f>+A39+1</f>
+        <v>34</v>
+      </c>
+      <c r="B40" s="16"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="18">
+        <v>1</v>
+      </c>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="12">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B41" s="16"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="18">
+        <v>1</v>
+      </c>
+      <c r="H41" s="24"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="12">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B42" s="16"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="18">
+        <v>1</v>
+      </c>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="12">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B43" s="16"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="18">
+        <v>1</v>
+      </c>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="12">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B44" s="16"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="18">
+        <v>1</v>
+      </c>
+      <c r="H44" s="24"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="12">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B45" s="16"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="18">
+        <v>1</v>
+      </c>
+      <c r="H45" s="24"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="12">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B46" s="16"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="18">
+        <v>1</v>
+      </c>
+      <c r="H46" s="24"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="12">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B47" s="16"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="18">
+        <v>1</v>
+      </c>
+      <c r="H47" s="24"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="12">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B48" s="16"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="18">
+        <v>1</v>
+      </c>
+      <c r="H48" s="24"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="12">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B49" s="16"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="18">
+        <v>1</v>
+      </c>
+      <c r="H49" s="24"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="12">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B50" s="16"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="18">
+        <v>1</v>
+      </c>
+      <c r="H50" s="24"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="12">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B51" s="16"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="18">
+        <v>1</v>
+      </c>
+      <c r="H51" s="24"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="12">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B52" s="16"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="18">
+        <v>1</v>
+      </c>
+      <c r="H52" s="24"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="12">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B53" s="16"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="18">
+        <v>1</v>
+      </c>
+      <c r="H53" s="24"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="12">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B54" s="16"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="18">
+        <v>1</v>
+      </c>
+      <c r="H54" s="24"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="12">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B55" s="16"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="18">
+        <v>1</v>
+      </c>
+      <c r="H55" s="24"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="12">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B56" s="16"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="18">
+        <v>1</v>
+      </c>
+      <c r="H56" s="24"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="12">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B57" s="16"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="18">
+        <v>1</v>
+      </c>
+      <c r="H57" s="24"/>
+    </row>
+  </sheetData>
+  <sortState ref="B7:F20">
+    <sortCondition ref="E7:E20"/>
+    <sortCondition ref="D7:D20"/>
+  </sortState>
+  <mergeCells count="9">
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="I4:J4"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0.45" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="180" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Gestion Stock 2025/Gestion de Stock Berrouaghia/Suivie pose Compteur 2025.xlsx
+++ b/Gestion Stock 2025/Gestion de Stock Berrouaghia/Suivie pose Compteur 2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Suivie Pose Compteurs\Gestion Stock 2025\Gestion de Stock Berrouaghia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C222355D-8D98-4D79-B360-13AFF8AF4DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A561A904-8131-48E1-988E-30032E064269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janvier 2025" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3065" uniqueCount="1633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3137" uniqueCount="1673">
   <si>
     <t>Algérienne des Eaux</t>
   </si>
@@ -3040,9 +3040,6 @@
     <t>NB(016/2025)</t>
   </si>
   <si>
-    <t>BR</t>
-  </si>
-  <si>
     <t>Bettache med</t>
   </si>
   <si>
@@ -5098,9 +5095,6 @@
     <t>NB(689/2025)</t>
   </si>
   <si>
-    <t>residence chorfi B 15</t>
-  </si>
-  <si>
     <t>2025177572</t>
   </si>
   <si>
@@ -5125,18 +5119,12 @@
     <t>Bouchenafa med</t>
   </si>
   <si>
-    <t>720 aadl bt 4 n13</t>
-  </si>
-  <si>
     <t>NB(532/2025)</t>
   </si>
   <si>
     <t>Ferhat med</t>
   </si>
   <si>
-    <t>720 aadl bt 11 n135</t>
-  </si>
-  <si>
     <t>NB(692/2025)</t>
   </si>
   <si>
@@ -5146,42 +5134,27 @@
     <t>NB(508/2025)</t>
   </si>
   <si>
-    <t>720 aadl bt 16 n4</t>
-  </si>
-  <si>
     <t>Houaoura belkacem</t>
   </si>
   <si>
-    <t>720 aadl bt 19 n35</t>
-  </si>
-  <si>
     <t>NB(664/2025)</t>
   </si>
   <si>
     <t>Tchblaou radouane</t>
   </si>
   <si>
-    <t>720 aadl bt 10 n5</t>
-  </si>
-  <si>
     <t>NB(676/2025)</t>
   </si>
   <si>
     <t>Makhloufi mustapha</t>
   </si>
   <si>
-    <t>720 aadl bt 6 n5</t>
-  </si>
-  <si>
     <t>NB(564/2025)</t>
   </si>
   <si>
     <t>Fergani hemida</t>
   </si>
   <si>
-    <t>720 aadl bt 7 n10</t>
-  </si>
-  <si>
     <t>NB(546/2025)</t>
   </si>
   <si>
@@ -5194,18 +5167,12 @@
     <t>Selaihi mustapha</t>
   </si>
   <si>
-    <t>720 aadl bt 18 n28</t>
-  </si>
-  <si>
     <t>2025177822</t>
   </si>
   <si>
     <t>Kebaili soufiane</t>
   </si>
   <si>
-    <t>720 aadl bt 19 n04</t>
-  </si>
-  <si>
     <t>NB(675/2025)</t>
   </si>
   <si>
@@ -5215,9 +5182,6 @@
     <t>Ghellabi med</t>
   </si>
   <si>
-    <t>720 aadl bt 13 n05</t>
-  </si>
-  <si>
     <t>NB(557/2025)</t>
   </si>
   <si>
@@ -5227,10 +5191,166 @@
     <t>Badaoui redhouane</t>
   </si>
   <si>
-    <t>720 aadl bt 13 n37</t>
-  </si>
-  <si>
     <t>NB(693/2025)</t>
+  </si>
+  <si>
+    <t>B41623</t>
+  </si>
+  <si>
+    <t>2025177824</t>
+  </si>
+  <si>
+    <t>2025177127</t>
+  </si>
+  <si>
+    <t>NB(695/2025)</t>
+  </si>
+  <si>
+    <t>Sayah nadir</t>
+  </si>
+  <si>
+    <t>Hachache karim</t>
+  </si>
+  <si>
+    <t>NB(608/2025)</t>
+  </si>
+  <si>
+    <t>NB(699/2025)</t>
+  </si>
+  <si>
+    <t>Gharnaouti rabea</t>
+  </si>
+  <si>
+    <t>NB(502/2025)</t>
+  </si>
+  <si>
+    <t>Sahraoui imen</t>
+  </si>
+  <si>
+    <t>Kares med</t>
+  </si>
+  <si>
+    <t>NB(694/2025)</t>
+  </si>
+  <si>
+    <t>NB(579/2025)</t>
+  </si>
+  <si>
+    <t>Kaddi hocine</t>
+  </si>
+  <si>
+    <t>NB(527/2025)</t>
+  </si>
+  <si>
+    <t>Benabdelouahab khaled</t>
+  </si>
+  <si>
+    <t>2025177122</t>
+  </si>
+  <si>
+    <t>NB(682/2025)</t>
+  </si>
+  <si>
+    <t>Hamedi abir</t>
+  </si>
+  <si>
+    <t>2025177121</t>
+  </si>
+  <si>
+    <t>NB(645/2025)</t>
+  </si>
+  <si>
+    <t>Boukatem mustapha</t>
+  </si>
+  <si>
+    <t>2025177825</t>
+  </si>
+  <si>
+    <t>2025177826</t>
+  </si>
+  <si>
+    <t>2025177827</t>
+  </si>
+  <si>
+    <t>2025177828</t>
+  </si>
+  <si>
+    <t>2025177829</t>
+  </si>
+  <si>
+    <t>2025177830</t>
+  </si>
+  <si>
+    <t>2025177126</t>
+  </si>
+  <si>
+    <t>NB(360/2025)</t>
+  </si>
+  <si>
+    <t>Araibia nassreddine</t>
+  </si>
+  <si>
+    <t>djenane tebbal</t>
+  </si>
+  <si>
+    <t>2025177123</t>
+  </si>
+  <si>
+    <t>Bourekba aek</t>
+  </si>
+  <si>
+    <t>720 aadl bt 15 n5</t>
+  </si>
+  <si>
+    <t>NB(361/2025)</t>
+  </si>
+  <si>
+    <t>2025177124</t>
+  </si>
+  <si>
+    <t>NB(670/2025)</t>
+  </si>
+  <si>
+    <t>Benslimane med</t>
+  </si>
+  <si>
+    <t>720 aadl bt 9 n20</t>
+  </si>
+  <si>
+    <t>2025177125</t>
+  </si>
+  <si>
+    <t>Mekki djamel</t>
+  </si>
+  <si>
+    <t>720 aadl bt 8 n9</t>
+  </si>
+  <si>
+    <t>NB(700/2025)</t>
+  </si>
+  <si>
+    <t>2025177129</t>
+  </si>
+  <si>
+    <t>Benhizia nabil</t>
+  </si>
+  <si>
+    <t>720 aadl bt 11 n19</t>
+  </si>
+  <si>
+    <t>NB(537/2025)</t>
+  </si>
+  <si>
+    <t>2025177130</t>
+  </si>
+  <si>
+    <t>NB(642/2025)</t>
+  </si>
+  <si>
+    <t>Fekir wassila</t>
+  </si>
+  <si>
+    <t>720 aadl bt 5 n29</t>
   </si>
 </sst>
 </file>
@@ -7588,8 +7708,8 @@
   <sheetPr codeName="Feuil10"/>
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7687,7 +7807,7 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="26"/>
@@ -7707,7 +7827,7 @@
     </row>
     <row r="6" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>12</v>
@@ -7745,7 +7865,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="E7" s="15">
         <v>45932</v>
@@ -7757,7 +7877,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="19"/>
@@ -7775,19 +7895,19 @@
         <v>18</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="E8" s="15">
         <v>45932</v>
       </c>
       <c r="F8" s="16" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G8" s="17">
+        <v>1</v>
+      </c>
+      <c r="H8" s="18" t="s">
         <v>1052</v>
-      </c>
-      <c r="G8" s="17">
-        <v>1</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>1053</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
@@ -7805,19 +7925,19 @@
         <v>18</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E9" s="15">
         <v>45932</v>
       </c>
       <c r="F9" s="16" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G9" s="17">
+        <v>1</v>
+      </c>
+      <c r="H9" s="18" t="s">
         <v>1059</v>
-      </c>
-      <c r="G9" s="17">
-        <v>1</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>1060</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
@@ -7835,19 +7955,19 @@
         <v>18</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="E10" s="15">
         <v>45932</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="G10" s="17">
         <v>1</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
@@ -7865,19 +7985,19 @@
         <v>18</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="E11" s="15">
         <v>45932</v>
       </c>
       <c r="F11" s="16" t="s">
+        <v>1055</v>
+      </c>
+      <c r="G11" s="17">
+        <v>1</v>
+      </c>
+      <c r="H11" s="18" t="s">
         <v>1056</v>
-      </c>
-      <c r="G11" s="17">
-        <v>1</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>1057</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
@@ -7895,19 +8015,19 @@
         <v>18</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E12" s="15">
         <v>45935</v>
       </c>
       <c r="F12" s="16" t="s">
+        <v>1063</v>
+      </c>
+      <c r="G12" s="17">
+        <v>1</v>
+      </c>
+      <c r="H12" s="18" t="s">
         <v>1064</v>
-      </c>
-      <c r="G12" s="17">
-        <v>1</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>1065</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
@@ -7925,19 +8045,19 @@
         <v>18</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E13" s="15">
         <v>45935</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="G13" s="17">
         <v>1</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
@@ -7955,19 +8075,19 @@
         <v>18</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E14" s="15">
         <v>45937</v>
       </c>
       <c r="F14" s="16" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G14" s="17">
+        <v>1</v>
+      </c>
+      <c r="H14" s="18" t="s">
         <v>1078</v>
-      </c>
-      <c r="G14" s="17">
-        <v>1</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>1079</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
@@ -7985,19 +8105,19 @@
         <v>18</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="E15" s="15">
         <v>45937</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="G15" s="17">
         <v>1</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
@@ -8014,19 +8134,19 @@
         <v>18</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E16" s="15">
         <v>45937</v>
       </c>
       <c r="F16" s="16" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G16" s="17">
+        <v>1</v>
+      </c>
+      <c r="H16" s="18" t="s">
         <v>1072</v>
-      </c>
-      <c r="G16" s="17">
-        <v>1</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>1073</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
@@ -8043,19 +8163,19 @@
         <v>18</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="E17" s="15">
         <v>45938</v>
       </c>
       <c r="F17" s="16" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G17" s="17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>1069</v>
-      </c>
-      <c r="G17" s="17">
-        <v>1</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>1070</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
@@ -8072,19 +8192,19 @@
         <v>18</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="E18" s="15">
         <v>45939</v>
       </c>
       <c r="F18" s="16" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G18" s="17">
+        <v>1</v>
+      </c>
+      <c r="H18" s="18" t="s">
         <v>1081</v>
-      </c>
-      <c r="G18" s="17">
-        <v>1</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>1082</v>
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
@@ -8101,19 +8221,19 @@
         <v>18</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E19" s="15">
         <v>45942</v>
       </c>
       <c r="F19" s="16" t="s">
+        <v>1086</v>
+      </c>
+      <c r="G19" s="17">
+        <v>1</v>
+      </c>
+      <c r="H19" s="18" t="s">
         <v>1087</v>
-      </c>
-      <c r="G19" s="17">
-        <v>1</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>1088</v>
       </c>
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
@@ -8130,19 +8250,19 @@
         <v>18</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E20" s="15">
         <v>45942</v>
       </c>
       <c r="F20" s="16" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G20" s="17">
+        <v>1</v>
+      </c>
+      <c r="H20" s="18" t="s">
         <v>1084</v>
-      </c>
-      <c r="G20" s="17">
-        <v>1</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>1085</v>
       </c>
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
@@ -8159,19 +8279,19 @@
         <v>18</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E21" s="15">
         <v>45943</v>
       </c>
       <c r="F21" s="16" t="s">
+        <v>1113</v>
+      </c>
+      <c r="G21" s="17">
+        <v>1</v>
+      </c>
+      <c r="H21" s="18" t="s">
         <v>1114</v>
-      </c>
-      <c r="G21" s="17">
-        <v>1</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>1115</v>
       </c>
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
@@ -8188,19 +8308,19 @@
         <v>18</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E22" s="15">
         <v>45944</v>
       </c>
       <c r="F22" s="16" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G22" s="17">
+        <v>1</v>
+      </c>
+      <c r="H22" s="18" t="s">
         <v>1092</v>
-      </c>
-      <c r="G22" s="17">
-        <v>1</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>1093</v>
       </c>
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
@@ -8211,13 +8331,13 @@
         <v>17</v>
       </c>
       <c r="B23" s="13" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>1089</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>1090</v>
       </c>
       <c r="E23" s="15">
         <v>45944</v>
@@ -8238,25 +8358,25 @@
         <v>18</v>
       </c>
       <c r="B24" s="13" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>1097</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>1098</v>
       </c>
       <c r="E24" s="15">
         <v>45945</v>
       </c>
       <c r="F24" s="16" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G24" s="17">
+        <v>1</v>
+      </c>
+      <c r="H24" s="18" t="s">
         <v>1099</v>
-      </c>
-      <c r="G24" s="17">
-        <v>1</v>
-      </c>
-      <c r="H24" s="18" t="s">
-        <v>1100</v>
       </c>
       <c r="I24" s="20"/>
       <c r="J24" s="20"/>
@@ -8273,19 +8393,19 @@
         <v>30</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E25" s="15">
         <v>45945</v>
       </c>
       <c r="F25" s="16" t="s">
+        <v>1094</v>
+      </c>
+      <c r="G25" s="17">
+        <v>1</v>
+      </c>
+      <c r="H25" s="18" t="s">
         <v>1095</v>
-      </c>
-      <c r="G25" s="17">
-        <v>1</v>
-      </c>
-      <c r="H25" s="18" t="s">
-        <v>1096</v>
       </c>
       <c r="I25" s="20"/>
       <c r="J25" s="20"/>
@@ -8296,13 +8416,13 @@
         <v>20</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C26" s="13">
         <v>65</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E26" s="15">
         <v>45946</v>
@@ -8329,19 +8449,19 @@
         <v>18</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E27" s="15">
         <v>45949</v>
       </c>
       <c r="F27" s="16" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G27" s="17">
+        <v>1</v>
+      </c>
+      <c r="H27" s="18" t="s">
         <v>1104</v>
-      </c>
-      <c r="G27" s="17">
-        <v>1</v>
-      </c>
-      <c r="H27" s="18" t="s">
-        <v>1105</v>
       </c>
       <c r="I27" s="20"/>
       <c r="J27" s="20"/>
@@ -8358,19 +8478,19 @@
         <v>18</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E28" s="15">
         <v>45949</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="G28" s="17">
         <v>1</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="20"/>
@@ -8387,19 +8507,19 @@
         <v>18</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E29" s="15">
         <v>45951</v>
       </c>
       <c r="F29" s="16" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G29" s="17">
+        <v>1</v>
+      </c>
+      <c r="H29" s="4" t="s">
         <v>1112</v>
-      </c>
-      <c r="G29" s="17">
-        <v>1</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>1113</v>
       </c>
       <c r="I29" s="20"/>
       <c r="J29" s="20"/>
@@ -8416,19 +8536,19 @@
         <v>18</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E30" s="15">
         <v>45951</v>
       </c>
       <c r="F30" s="16" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G30" s="17">
+        <v>1</v>
+      </c>
+      <c r="H30" s="4" t="s">
         <v>1109</v>
-      </c>
-      <c r="G30" s="17">
-        <v>1</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>1110</v>
       </c>
       <c r="I30" s="20"/>
       <c r="J30" s="4"/>
@@ -8445,19 +8565,19 @@
         <v>18</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E31" s="15">
         <v>45953</v>
       </c>
       <c r="F31" s="16" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G31" s="17">
+        <v>1</v>
+      </c>
+      <c r="H31" s="4" t="s">
         <v>1155</v>
-      </c>
-      <c r="G31" s="17">
-        <v>1</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>1156</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -8474,19 +8594,19 @@
         <v>18</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="E32" s="15">
         <v>45956</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="G32" s="17">
         <v>1</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -8497,13 +8617,13 @@
         <v>27</v>
       </c>
       <c r="B33" s="15" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="14" t="s">
         <v>1123</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>1124</v>
       </c>
       <c r="E33" s="15">
         <v>45956</v>
@@ -8530,19 +8650,19 @@
         <v>18</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E34" s="15">
         <v>45956</v>
       </c>
       <c r="F34" s="16" t="s">
+        <v>1125</v>
+      </c>
+      <c r="G34" s="17">
+        <v>1</v>
+      </c>
+      <c r="H34" s="18" t="s">
         <v>1126</v>
-      </c>
-      <c r="G34" s="17">
-        <v>1</v>
-      </c>
-      <c r="H34" s="18" t="s">
-        <v>1127</v>
       </c>
       <c r="I34" s="20"/>
       <c r="J34" s="4"/>
@@ -8559,19 +8679,19 @@
         <v>18</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E35" s="15">
         <v>45956</v>
       </c>
       <c r="F35" s="16" t="s">
+        <v>1117</v>
+      </c>
+      <c r="G35" s="17">
+        <v>1</v>
+      </c>
+      <c r="H35" s="4" t="s">
         <v>1118</v>
-      </c>
-      <c r="G35" s="17">
-        <v>1</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>1119</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -8588,19 +8708,19 @@
         <v>18</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E36" s="15">
         <v>45957</v>
       </c>
       <c r="F36" s="16" t="s">
+        <v>1140</v>
+      </c>
+      <c r="G36" s="17">
+        <v>1</v>
+      </c>
+      <c r="H36" s="4" t="s">
         <v>1141</v>
-      </c>
-      <c r="G36" s="17">
-        <v>1</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>1142</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
@@ -8617,19 +8737,19 @@
         <v>18</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="E37" s="15">
         <v>45957</v>
       </c>
       <c r="F37" s="16" t="s">
+        <v>1137</v>
+      </c>
+      <c r="G37" s="17">
+        <v>1</v>
+      </c>
+      <c r="H37" s="18" t="s">
         <v>1138</v>
-      </c>
-      <c r="G37" s="17">
-        <v>1</v>
-      </c>
-      <c r="H37" s="18" t="s">
-        <v>1139</v>
       </c>
       <c r="I37" s="20"/>
       <c r="J37" s="4"/>
@@ -8640,13 +8760,13 @@
         <v>32</v>
       </c>
       <c r="B38" s="15" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="14" t="s">
         <v>1143</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>1144</v>
       </c>
       <c r="E38" s="15">
         <v>45960</v>
@@ -8673,19 +8793,19 @@
         <v>18</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E39" s="15">
         <v>45960</v>
       </c>
       <c r="F39" s="16" t="s">
+        <v>1128</v>
+      </c>
+      <c r="G39" s="17">
+        <v>1</v>
+      </c>
+      <c r="H39" s="4" t="s">
         <v>1129</v>
-      </c>
-      <c r="G39" s="17">
-        <v>1</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>1130</v>
       </c>
       <c r="I39" s="4"/>
     </row>
@@ -8701,19 +8821,19 @@
         <v>18</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="E40" s="15">
         <v>45960</v>
       </c>
       <c r="F40" s="16" t="s">
+        <v>1134</v>
+      </c>
+      <c r="G40" s="17">
+        <v>1</v>
+      </c>
+      <c r="H40" s="4" t="s">
         <v>1135</v>
-      </c>
-      <c r="G40" s="17">
-        <v>1</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>1136</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -8728,19 +8848,19 @@
         <v>18</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="E41" s="15">
         <v>45960</v>
       </c>
       <c r="F41" s="16" t="s">
+        <v>1131</v>
+      </c>
+      <c r="G41" s="17">
+        <v>1</v>
+      </c>
+      <c r="H41" s="4" t="s">
         <v>1132</v>
-      </c>
-      <c r="G41" s="17">
-        <v>1</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>1133</v>
       </c>
       <c r="I41" s="4"/>
     </row>
@@ -9676,8 +9796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:K148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="I146" sqref="I146"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B155" sqref="B155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9775,7 +9895,7 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="26"/>
@@ -9833,19 +9953,19 @@
         <v>18</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="E7" s="15">
         <v>45964</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G7" s="17">
         <v>1</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="19"/>
@@ -9857,13 +9977,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="E8" s="15">
         <v>45964</v>
@@ -9885,13 +10005,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E9" s="15">
         <v>45964</v>
@@ -9919,19 +10039,19 @@
         <v>18</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E10" s="15">
         <v>45965</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G10" s="17">
         <v>1</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
@@ -9943,13 +10063,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C11" s="13">
         <v>40</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="E11" s="15">
         <v>45971</v>
@@ -9971,13 +10091,13 @@
         <v>6</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C12" s="13">
         <v>30</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="E12" s="15">
         <v>45971</v>
@@ -10005,19 +10125,19 @@
         <v>18</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E13" s="15">
         <v>45971</v>
       </c>
       <c r="F13" s="16" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G13" s="17">
+        <v>1</v>
+      </c>
+      <c r="H13" s="18" t="s">
         <v>1160</v>
-      </c>
-      <c r="G13" s="17">
-        <v>1</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>1161</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
@@ -10029,13 +10149,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="15" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>1168</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>1169</v>
       </c>
       <c r="E14" s="15">
         <v>45971</v>
@@ -10063,19 +10183,19 @@
         <v>18</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="E15" s="15">
         <v>45971</v>
       </c>
       <c r="F15" s="16" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G15" s="17">
+        <v>1</v>
+      </c>
+      <c r="H15" s="18" t="s">
         <v>1163</v>
-      </c>
-      <c r="G15" s="17">
-        <v>1</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>1164</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
@@ -10086,13 +10206,13 @@
         <v>10</v>
       </c>
       <c r="B16" s="15" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>1170</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>1171</v>
       </c>
       <c r="E16" s="15">
         <v>45972</v>
@@ -10119,13 +10239,13 @@
         <v>18</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="E17" s="15">
         <v>45973</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="G17" s="17">
         <v>1</v>
@@ -10142,13 +10262,13 @@
         <v>12</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C18" s="13">
         <v>65</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="E18" s="15">
         <v>45974</v>
@@ -10169,13 +10289,13 @@
         <v>13</v>
       </c>
       <c r="B19" s="13" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="14" t="s">
         <v>1174</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>1175</v>
       </c>
       <c r="E19" s="15">
         <v>45977</v>
@@ -10202,19 +10322,19 @@
         <v>18</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="E20" s="15">
         <v>45980</v>
       </c>
       <c r="F20" s="16" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G20" s="17">
+        <v>1</v>
+      </c>
+      <c r="H20" s="18" t="s">
         <v>1179</v>
-      </c>
-      <c r="G20" s="17">
-        <v>1</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>1180</v>
       </c>
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
@@ -10231,19 +10351,19 @@
         <v>18</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="E21" s="15">
         <v>45981</v>
       </c>
       <c r="F21" s="16" t="s">
+        <v>1190</v>
+      </c>
+      <c r="G21" s="17">
+        <v>1</v>
+      </c>
+      <c r="H21" s="18" t="s">
         <v>1191</v>
-      </c>
-      <c r="G21" s="17">
-        <v>1</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>1192</v>
       </c>
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
@@ -10260,19 +10380,19 @@
         <v>18</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="E22" s="15">
         <v>45981</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="G22" s="17">
         <v>1</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
@@ -10289,19 +10409,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="E23" s="15">
         <v>45981</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="G23" s="17">
         <v>1</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
@@ -10318,19 +10438,19 @@
         <v>18</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="E24" s="15">
         <v>45981</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="G24" s="17">
         <v>1</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="I24" s="20"/>
       <c r="J24" s="20"/>
@@ -10347,19 +10467,19 @@
         <v>18</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="E25" s="15">
         <v>45981</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="G25" s="17">
         <v>1</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="I25" s="20"/>
       <c r="J25" s="20"/>
@@ -10376,19 +10496,19 @@
         <v>18</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="E26" s="15">
         <v>45981</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="G26" s="17">
         <v>1</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="I26" s="20"/>
       <c r="J26" s="20"/>
@@ -10405,19 +10525,19 @@
         <v>18</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="E27" s="15">
         <v>45981</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="G27" s="17">
         <v>1</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="I27" s="20"/>
       <c r="J27" s="20"/>
@@ -10434,19 +10554,19 @@
         <v>18</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="E28" s="15">
         <v>45981</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="G28" s="17">
         <v>1</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="I28" s="20"/>
       <c r="J28" s="20"/>
@@ -10463,19 +10583,19 @@
         <v>18</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="E29" s="15">
         <v>45981</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="G29" s="17">
         <v>1</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="I29" s="20"/>
       <c r="J29" s="20"/>
@@ -10492,19 +10612,19 @@
         <v>18</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="E30" s="15">
         <v>45981</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="G30" s="17">
         <v>1</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="I30" s="20"/>
       <c r="J30" s="4"/>
@@ -10521,19 +10641,19 @@
         <v>18</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="E31" s="15">
         <v>45981</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="G31" s="17">
         <v>1</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="I31" s="20"/>
       <c r="J31" s="4"/>
@@ -10550,19 +10670,19 @@
         <v>18</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="E32" s="15">
         <v>45981</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="G32" s="17">
         <v>1</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="I32" s="20"/>
       <c r="J32" s="4"/>
@@ -10579,19 +10699,19 @@
         <v>18</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="E33" s="15">
         <v>45981</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="G33" s="17">
         <v>1</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="I33" s="20"/>
       <c r="J33" s="4"/>
@@ -10608,19 +10728,19 @@
         <v>18</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="E34" s="15">
         <v>45981</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="G34" s="17">
         <v>1</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="I34" s="20"/>
       <c r="J34" s="4"/>
@@ -10637,19 +10757,19 @@
         <v>18</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="E35" s="15">
         <v>45981</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="G35" s="17">
         <v>1</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="I35" s="20"/>
       <c r="J35" s="4"/>
@@ -10666,19 +10786,19 @@
         <v>18</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="E36" s="15">
         <v>45981</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="G36" s="17">
         <v>1</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="I36" s="20"/>
       <c r="J36" s="4"/>
@@ -10695,19 +10815,19 @@
         <v>18</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E37" s="15">
         <v>45981</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="G37" s="17">
         <v>1</v>
       </c>
       <c r="H37" s="18" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="I37" s="20"/>
       <c r="J37" s="4"/>
@@ -10724,19 +10844,19 @@
         <v>18</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="E38" s="15">
         <v>45981</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="G38" s="17">
         <v>1</v>
       </c>
       <c r="H38" s="18" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="I38" s="20"/>
       <c r="J38" s="4"/>
@@ -10753,19 +10873,19 @@
         <v>18</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="E39" s="15">
         <v>45981</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="G39" s="17">
         <v>1</v>
       </c>
       <c r="H39" s="18" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="I39" s="20"/>
     </row>
@@ -10781,19 +10901,19 @@
         <v>18</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="E40" s="15">
         <v>45981</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="G40" s="17">
         <v>1</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="I40" s="20"/>
     </row>
@@ -10809,19 +10929,19 @@
         <v>18</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E41" s="15">
         <v>45981</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="G41" s="17">
         <v>1</v>
       </c>
       <c r="H41" s="18" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="I41" s="20"/>
     </row>
@@ -10837,19 +10957,19 @@
         <v>18</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="E42" s="15">
         <v>45981</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="G42" s="17">
         <v>1</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="I42" s="20"/>
     </row>
@@ -10865,19 +10985,19 @@
         <v>18</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E43" s="15">
         <v>45981</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="G43" s="17">
         <v>1</v>
       </c>
       <c r="H43" s="18" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="I43" s="20"/>
     </row>
@@ -10893,19 +11013,19 @@
         <v>18</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E44" s="15">
         <v>45981</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="G44" s="17">
         <v>1</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="I44" s="20"/>
     </row>
@@ -10921,19 +11041,19 @@
         <v>18</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E45" s="15">
         <v>45981</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="G45" s="17">
         <v>1</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="I45" s="20"/>
     </row>
@@ -10949,19 +11069,19 @@
         <v>18</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E46" s="15">
         <v>45981</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="G46" s="17">
         <v>1</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="I46" s="20"/>
     </row>
@@ -10977,19 +11097,19 @@
         <v>18</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="E47" s="15">
         <v>45981</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="G47" s="17">
         <v>1</v>
       </c>
       <c r="H47" s="18" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="I47" s="20"/>
     </row>
@@ -11005,19 +11125,19 @@
         <v>18</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E48" s="15">
         <v>45981</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="G48" s="17">
         <v>1</v>
       </c>
       <c r="H48" s="18" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="I48" s="20"/>
     </row>
@@ -11033,19 +11153,19 @@
         <v>18</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E49" s="15">
         <v>45981</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="G49" s="17">
         <v>1</v>
       </c>
       <c r="H49" s="18" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="I49" s="20"/>
     </row>
@@ -11061,19 +11181,19 @@
         <v>18</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E50" s="15">
         <v>45981</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="G50" s="17">
         <v>1</v>
       </c>
       <c r="H50" s="18" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="I50" s="20"/>
     </row>
@@ -11089,19 +11209,19 @@
         <v>18</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="E51" s="15">
         <v>45981</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="G51" s="17">
         <v>1</v>
       </c>
       <c r="H51" s="18" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="I51" s="20"/>
     </row>
@@ -11117,19 +11237,19 @@
         <v>18</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="E52" s="15">
         <v>45981</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="G52" s="17">
         <v>1</v>
       </c>
       <c r="H52" s="18" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="I52" s="20"/>
     </row>
@@ -11145,19 +11265,19 @@
         <v>18</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="E53" s="15">
         <v>45981</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="G53" s="17">
         <v>1</v>
       </c>
       <c r="H53" s="18" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I53" s="20"/>
     </row>
@@ -11173,19 +11293,19 @@
         <v>18</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="E54" s="15">
         <v>45981</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="G54" s="17">
         <v>1</v>
       </c>
       <c r="H54" s="18" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="I54" s="20"/>
     </row>
@@ -11201,19 +11321,19 @@
         <v>18</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="E55" s="15">
         <v>45981</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="G55" s="17">
         <v>1</v>
       </c>
       <c r="H55" s="18" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="I55" s="20"/>
     </row>
@@ -11229,19 +11349,19 @@
         <v>18</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="E56" s="15">
         <v>45981</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="G56" s="17">
         <v>1</v>
       </c>
       <c r="H56" s="18" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="I56" s="20"/>
     </row>
@@ -11257,19 +11377,19 @@
         <v>18</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="E57" s="15">
         <v>45981</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="G57" s="17">
         <v>1</v>
       </c>
       <c r="H57" s="18" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="I57" s="20"/>
     </row>
@@ -11285,19 +11405,19 @@
         <v>18</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="E58" s="15">
         <v>45981</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="G58" s="17">
         <v>1</v>
       </c>
       <c r="H58" s="18" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I58" s="20"/>
     </row>
@@ -11313,19 +11433,19 @@
         <v>18</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="E59" s="15">
         <v>45981</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="G59" s="17">
         <v>1</v>
       </c>
       <c r="H59" s="18" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="I59" s="20"/>
     </row>
@@ -11341,19 +11461,19 @@
         <v>18</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="E60" s="15">
         <v>45981</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="G60" s="17">
         <v>1</v>
       </c>
       <c r="H60" s="18" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="I60" s="20"/>
     </row>
@@ -11369,19 +11489,19 @@
         <v>18</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="E61" s="15">
         <v>45984</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="G61" s="17">
         <v>1</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="I61" s="20"/>
     </row>
@@ -11397,19 +11517,19 @@
         <v>18</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="E62" s="15">
         <v>45984</v>
       </c>
       <c r="F62" s="16" t="s">
+        <v>1386</v>
+      </c>
+      <c r="G62" s="17">
+        <v>1</v>
+      </c>
+      <c r="H62" s="4" t="s">
         <v>1387</v>
-      </c>
-      <c r="G62" s="17">
-        <v>1</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>1388</v>
       </c>
       <c r="I62" s="20"/>
     </row>
@@ -11425,19 +11545,19 @@
         <v>18</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="E63" s="15">
         <v>45984</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="G63" s="17">
         <v>1</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="I63" s="20"/>
     </row>
@@ -11453,19 +11573,19 @@
         <v>18</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="E64" s="15">
         <v>45984</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="G64" s="17">
         <v>1</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I64" s="20"/>
     </row>
@@ -11481,19 +11601,19 @@
         <v>18</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="E65" s="15">
         <v>45984</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="G65" s="17">
         <v>1</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="I65" s="20"/>
     </row>
@@ -11509,19 +11629,19 @@
         <v>18</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="E66" s="15">
         <v>45984</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="G66" s="17">
         <v>1</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="I66" s="20"/>
     </row>
@@ -11537,19 +11657,19 @@
         <v>18</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="E67" s="15">
         <v>45984</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="G67" s="17">
         <v>1</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="I67" s="20"/>
     </row>
@@ -11565,19 +11685,19 @@
         <v>18</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="E68" s="15">
         <v>45984</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="G68" s="17">
         <v>1</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="I68" s="20"/>
     </row>
@@ -11593,19 +11713,19 @@
         <v>18</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="E69" s="15">
         <v>45984</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="G69" s="17">
         <v>1</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I69" s="20"/>
     </row>
@@ -11621,19 +11741,19 @@
         <v>18</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="E70" s="15">
         <v>45984</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="G70" s="17">
         <v>1</v>
       </c>
       <c r="H70" s="18" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I70" s="20"/>
     </row>
@@ -11649,19 +11769,19 @@
         <v>18</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="E71" s="15">
         <v>45984</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="G71" s="17">
         <v>1</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="I71" s="20"/>
     </row>
@@ -11677,19 +11797,19 @@
         <v>18</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="E72" s="15">
         <v>45984</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="G72" s="17">
         <v>1</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I72" s="20"/>
     </row>
@@ -11705,19 +11825,19 @@
         <v>18</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="E73" s="15">
         <v>45984</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="G73" s="17">
         <v>1</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="I73" s="20"/>
     </row>
@@ -11733,19 +11853,19 @@
         <v>18</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="E74" s="15">
         <v>45984</v>
       </c>
       <c r="F74" s="16" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="G74" s="17">
         <v>1</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="I74" s="20"/>
     </row>
@@ -11761,19 +11881,19 @@
         <v>18</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E75" s="15">
         <v>45984</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="G75" s="17">
         <v>1</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="I75" s="20"/>
     </row>
@@ -11789,19 +11909,19 @@
         <v>18</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E76" s="15">
         <v>45984</v>
       </c>
       <c r="F76" s="16" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="G76" s="17">
         <v>1</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="I76" s="20"/>
     </row>
@@ -11817,19 +11937,19 @@
         <v>18</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E77" s="15">
         <v>45984</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="G77" s="17">
         <v>1</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="I77" s="20"/>
     </row>
@@ -11845,19 +11965,19 @@
         <v>18</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="E78" s="15">
         <v>45984</v>
       </c>
       <c r="F78" s="16" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="G78" s="17">
         <v>1</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="I78" s="20"/>
     </row>
@@ -11873,19 +11993,19 @@
         <v>18</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E79" s="15">
         <v>45984</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="G79" s="17">
         <v>1</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="I79" s="20"/>
     </row>
@@ -11901,19 +12021,19 @@
         <v>18</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="E80" s="15">
         <v>45984</v>
       </c>
       <c r="F80" s="16" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G80" s="17">
         <v>1</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="I80" s="20"/>
     </row>
@@ -11929,19 +12049,19 @@
         <v>18</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E81" s="15">
         <v>45984</v>
       </c>
       <c r="F81" s="16" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="G81" s="17">
         <v>1</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="I81" s="20"/>
     </row>
@@ -11957,19 +12077,19 @@
         <v>18</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="E82" s="15">
         <v>45984</v>
       </c>
       <c r="F82" s="16" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="G82" s="17">
         <v>1</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="I82" s="20"/>
     </row>
@@ -11985,19 +12105,19 @@
         <v>18</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="E83" s="15">
         <v>45984</v>
       </c>
       <c r="F83" s="16" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="G83" s="17">
         <v>1</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="I83" s="20"/>
     </row>
@@ -12013,19 +12133,19 @@
         <v>18</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="E84" s="15">
         <v>45984</v>
       </c>
       <c r="F84" s="16" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G84" s="17">
         <v>1</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="I84" s="20"/>
     </row>
@@ -12041,19 +12161,19 @@
         <v>18</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E85" s="15">
         <v>45984</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="G85" s="17">
         <v>1</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="I85" s="20"/>
     </row>
@@ -12069,19 +12189,19 @@
         <v>18</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E86" s="15">
         <v>45984</v>
       </c>
       <c r="F86" s="16" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="G86" s="17">
         <v>1</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="I86" s="20"/>
     </row>
@@ -12097,19 +12217,19 @@
         <v>18</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="E87" s="15">
         <v>45984</v>
       </c>
       <c r="F87" s="16" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="G87" s="17">
         <v>1</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="I87" s="20"/>
     </row>
@@ -12125,19 +12245,19 @@
         <v>18</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="E88" s="15">
         <v>45984</v>
       </c>
       <c r="F88" s="16" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="G88" s="17">
         <v>1</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="I88" s="20"/>
     </row>
@@ -12153,19 +12273,19 @@
         <v>18</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="E89" s="15">
         <v>45984</v>
       </c>
       <c r="F89" s="16" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="G89" s="17">
         <v>1</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="I89" s="20"/>
     </row>
@@ -12181,19 +12301,19 @@
         <v>18</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="E90" s="15">
         <v>45984</v>
       </c>
       <c r="F90" s="16" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="G90" s="17">
         <v>1</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="I90" s="20"/>
     </row>
@@ -12209,19 +12329,19 @@
         <v>18</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="E91" s="15">
         <v>45984</v>
       </c>
       <c r="F91" s="16" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="G91" s="17">
         <v>1</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="I91" s="20"/>
     </row>
@@ -12237,19 +12357,19 @@
         <v>18</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="E92" s="15">
         <v>45984</v>
       </c>
       <c r="F92" s="16" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="G92" s="17">
         <v>1</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="I92" s="20"/>
     </row>
@@ -12265,19 +12385,19 @@
         <v>18</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="E93" s="15">
         <v>45984</v>
       </c>
       <c r="F93" s="16" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="G93" s="17">
         <v>1</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="I93" s="20"/>
     </row>
@@ -12293,19 +12413,19 @@
         <v>18</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="E94" s="15">
         <v>45984</v>
       </c>
       <c r="F94" s="16" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="G94" s="17">
         <v>1</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="I94" s="20"/>
     </row>
@@ -12321,19 +12441,19 @@
         <v>18</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="E95" s="15">
         <v>45985</v>
       </c>
       <c r="F95" s="16" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="G95" s="17">
         <v>1</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="I95" s="20"/>
     </row>
@@ -12349,19 +12469,19 @@
         <v>18</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="E96" s="15">
         <v>45985</v>
       </c>
       <c r="F96" s="16" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G96" s="17">
+        <v>1</v>
+      </c>
+      <c r="H96" s="4" t="s">
         <v>1412</v>
-      </c>
-      <c r="G96" s="17">
-        <v>1</v>
-      </c>
-      <c r="H96" s="4" t="s">
-        <v>1413</v>
       </c>
       <c r="I96" s="20"/>
     </row>
@@ -12377,19 +12497,19 @@
         <v>18</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="E97" s="15">
         <v>45985</v>
       </c>
       <c r="F97" s="16" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="G97" s="17">
         <v>1</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="I97" s="20"/>
     </row>
@@ -12405,19 +12525,19 @@
         <v>18</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="E98" s="15">
         <v>45985</v>
       </c>
       <c r="F98" s="16" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="G98" s="17">
         <v>1</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="I98" s="20"/>
     </row>
@@ -12433,19 +12553,19 @@
         <v>18</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="E99" s="15">
         <v>45985</v>
       </c>
       <c r="F99" s="16" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="G99" s="17">
         <v>1</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="I99" s="20"/>
     </row>
@@ -12461,19 +12581,19 @@
         <v>18</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="E100" s="15">
         <v>45985</v>
       </c>
       <c r="F100" s="16" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G100" s="17">
         <v>1</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="I100" s="20"/>
     </row>
@@ -12489,19 +12609,19 @@
         <v>18</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="E101" s="15">
         <v>45985</v>
       </c>
       <c r="F101" s="16" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="G101" s="17">
         <v>1</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="I101" s="20"/>
     </row>
@@ -12517,19 +12637,19 @@
         <v>18</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="E102" s="15">
         <v>45985</v>
       </c>
       <c r="F102" s="16" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="G102" s="17">
         <v>1</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="I102" s="20"/>
     </row>
@@ -12545,19 +12665,19 @@
         <v>18</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="E103" s="15">
         <v>45985</v>
       </c>
       <c r="F103" s="16" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="G103" s="17">
         <v>1</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="I103" s="20"/>
     </row>
@@ -12573,19 +12693,19 @@
         <v>18</v>
       </c>
       <c r="D104" s="14" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="E104" s="15">
         <v>45985</v>
       </c>
       <c r="F104" s="16" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="G104" s="17">
         <v>1</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="I104" s="20"/>
     </row>
@@ -12601,19 +12721,19 @@
         <v>18</v>
       </c>
       <c r="D105" s="14" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="E105" s="15">
         <v>45985</v>
       </c>
       <c r="F105" s="16" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="G105" s="17">
         <v>1</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="I105" s="20"/>
     </row>
@@ -12629,19 +12749,19 @@
         <v>18</v>
       </c>
       <c r="D106" s="14" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="E106" s="15">
         <v>45986</v>
       </c>
       <c r="F106" s="16" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="G106" s="17">
         <v>1</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="I106" s="20"/>
     </row>
@@ -12657,19 +12777,19 @@
         <v>18</v>
       </c>
       <c r="D107" s="14" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="E107" s="15">
         <v>45986</v>
       </c>
       <c r="F107" s="16" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="G107" s="17">
         <v>1</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="I107" s="20"/>
     </row>
@@ -12685,19 +12805,19 @@
         <v>18</v>
       </c>
       <c r="D108" s="14" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="E108" s="15">
         <v>45986</v>
       </c>
       <c r="F108" s="16" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="G108" s="17">
         <v>1</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="I108" s="20"/>
     </row>
@@ -12713,19 +12833,19 @@
         <v>18</v>
       </c>
       <c r="D109" s="14" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="E109" s="15">
         <v>45986</v>
       </c>
       <c r="F109" s="16" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="G109" s="17">
         <v>1</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="I109" s="20"/>
     </row>
@@ -12741,19 +12861,19 @@
         <v>18</v>
       </c>
       <c r="D110" s="14" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="E110" s="15">
         <v>45986</v>
       </c>
       <c r="F110" s="16" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="G110" s="17">
         <v>1</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="I110" s="20"/>
     </row>
@@ -12769,19 +12889,19 @@
         <v>18</v>
       </c>
       <c r="D111" s="14" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="E111" s="15">
         <v>45986</v>
       </c>
       <c r="F111" s="16" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="G111" s="17">
         <v>1</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="I111" s="20"/>
     </row>
@@ -12797,19 +12917,19 @@
         <v>18</v>
       </c>
       <c r="D112" s="14" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="E112" s="15">
         <v>45986</v>
       </c>
       <c r="F112" s="16" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="G112" s="17">
         <v>1</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="I112" s="20"/>
     </row>
@@ -12825,19 +12945,19 @@
         <v>18</v>
       </c>
       <c r="D113" s="14" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="E113" s="15">
         <v>45986</v>
       </c>
       <c r="F113" s="16" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G113" s="17">
         <v>1</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="I113" s="20"/>
     </row>
@@ -12853,19 +12973,19 @@
         <v>18</v>
       </c>
       <c r="D114" s="14" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="E114" s="15">
         <v>45986</v>
       </c>
       <c r="F114" s="16" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="G114" s="17">
         <v>1</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="I114" s="20"/>
     </row>
@@ -12881,19 +13001,19 @@
         <v>18</v>
       </c>
       <c r="D115" s="14" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="E115" s="15">
         <v>45987</v>
       </c>
       <c r="F115" s="16" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G115" s="17">
         <v>1</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="I115" s="20"/>
     </row>
@@ -12909,19 +13029,19 @@
         <v>18</v>
       </c>
       <c r="D116" s="14" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="E116" s="15">
         <v>45987</v>
       </c>
       <c r="F116" s="16" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="G116" s="17">
         <v>1</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="I116" s="20"/>
     </row>
@@ -12937,19 +13057,19 @@
         <v>18</v>
       </c>
       <c r="D117" s="14" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="E117" s="15">
         <v>45987</v>
       </c>
       <c r="F117" s="16" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="G117" s="17">
         <v>1</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="I117" s="20"/>
     </row>
@@ -12965,19 +13085,19 @@
         <v>18</v>
       </c>
       <c r="D118" s="14" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="E118" s="15">
         <v>45987</v>
       </c>
       <c r="F118" s="16" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="G118" s="17">
         <v>1</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="I118" s="20"/>
     </row>
@@ -12987,13 +13107,13 @@
         <v>113</v>
       </c>
       <c r="B119" s="13" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C119" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D119" s="14" t="s">
         <v>1482</v>
-      </c>
-      <c r="C119" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D119" s="14" t="s">
-        <v>1483</v>
       </c>
       <c r="E119" s="15">
         <v>45987</v>
@@ -13018,19 +13138,19 @@
         <v>18</v>
       </c>
       <c r="D120" s="14" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="E120" s="15">
         <v>45987</v>
       </c>
       <c r="F120" s="16" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="G120" s="17">
         <v>1</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="I120" s="20"/>
     </row>
@@ -13046,19 +13166,19 @@
         <v>18</v>
       </c>
       <c r="D121" s="14" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="E121" s="15">
         <v>45987</v>
       </c>
       <c r="F121" s="16" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="G121" s="17">
         <v>1</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="I121" s="20"/>
     </row>
@@ -13074,19 +13194,19 @@
         <v>18</v>
       </c>
       <c r="D122" s="14" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E122" s="15">
         <v>45987</v>
       </c>
       <c r="F122" s="16" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="G122" s="17">
         <v>1</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="I122" s="20"/>
     </row>
@@ -13102,19 +13222,19 @@
         <v>18</v>
       </c>
       <c r="D123" s="14" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="E123" s="15">
         <v>45987</v>
       </c>
       <c r="F123" s="16" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="G123" s="17">
         <v>1</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="I123" s="20"/>
     </row>
@@ -13130,19 +13250,19 @@
         <v>18</v>
       </c>
       <c r="D124" s="14" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="E124" s="15">
         <v>45988</v>
       </c>
       <c r="F124" s="16" t="s">
+        <v>1493</v>
+      </c>
+      <c r="G124" s="17">
+        <v>1</v>
+      </c>
+      <c r="H124" s="4" t="s">
         <v>1494</v>
-      </c>
-      <c r="G124" s="17">
-        <v>1</v>
-      </c>
-      <c r="H124" s="4" t="s">
-        <v>1495</v>
       </c>
       <c r="I124" s="20"/>
     </row>
@@ -13158,19 +13278,19 @@
         <v>18</v>
       </c>
       <c r="D125" s="14" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="E125" s="15">
         <v>45988</v>
       </c>
       <c r="F125" s="16" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="G125" s="17">
         <v>1</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="I125" s="20"/>
     </row>
@@ -13186,19 +13306,19 @@
         <v>18</v>
       </c>
       <c r="D126" s="14" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="E126" s="15">
         <v>45988</v>
       </c>
       <c r="F126" s="16" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="G126" s="17">
         <v>1</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="I126" s="20"/>
     </row>
@@ -13214,19 +13334,19 @@
         <v>18</v>
       </c>
       <c r="D127" s="14" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="E127" s="15">
         <v>45988</v>
       </c>
       <c r="F127" s="16" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="G127" s="17">
         <v>1</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="I127" s="20"/>
     </row>
@@ -13242,19 +13362,19 @@
         <v>18</v>
       </c>
       <c r="D128" s="14" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="E128" s="15">
         <v>45988</v>
       </c>
       <c r="F128" s="16" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="G128" s="17">
         <v>1</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="I128" s="20"/>
     </row>
@@ -13270,19 +13390,19 @@
         <v>18</v>
       </c>
       <c r="D129" s="14" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="E129" s="15">
         <v>45988</v>
       </c>
       <c r="F129" s="16" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="G129" s="17">
         <v>1</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="I129" s="20"/>
     </row>
@@ -13298,19 +13418,19 @@
         <v>18</v>
       </c>
       <c r="D130" s="14" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="E130" s="15">
         <v>45988</v>
       </c>
       <c r="F130" s="16" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="G130" s="17">
         <v>1</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="I130" s="20"/>
     </row>
@@ -13326,19 +13446,19 @@
         <v>18</v>
       </c>
       <c r="D131" s="14" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="E131" s="15">
         <v>45988</v>
       </c>
       <c r="F131" s="16" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="G131" s="17">
         <v>1</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="I131" s="20"/>
     </row>
@@ -13354,19 +13474,19 @@
         <v>18</v>
       </c>
       <c r="D132" s="14" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="E132" s="15">
         <v>45988</v>
       </c>
       <c r="F132" s="16" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="G132" s="17">
         <v>1</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="I132" s="20"/>
     </row>
@@ -13382,19 +13502,19 @@
         <v>18</v>
       </c>
       <c r="D133" s="14" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="E133" s="15">
         <v>45988</v>
       </c>
       <c r="F133" s="16" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="G133" s="17">
         <v>1</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="I133" s="20"/>
     </row>
@@ -13410,19 +13530,19 @@
         <v>18</v>
       </c>
       <c r="D134" s="14" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="E134" s="15">
         <v>45988</v>
       </c>
       <c r="F134" s="16" t="s">
+        <v>1529</v>
+      </c>
+      <c r="G134" s="17">
+        <v>1</v>
+      </c>
+      <c r="H134" s="4" t="s">
         <v>1530</v>
-      </c>
-      <c r="G134" s="17">
-        <v>1</v>
-      </c>
-      <c r="H134" s="4" t="s">
-        <v>1531</v>
       </c>
       <c r="I134" s="20"/>
     </row>
@@ -13438,19 +13558,19 @@
         <v>18</v>
       </c>
       <c r="D135" s="14" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="E135" s="15">
         <v>45991</v>
       </c>
       <c r="F135" s="16" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="G135" s="17">
         <v>1</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="I135" s="20"/>
     </row>
@@ -13466,19 +13586,19 @@
         <v>18</v>
       </c>
       <c r="D136" s="14" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="E136" s="15">
         <v>45991</v>
       </c>
       <c r="F136" s="16" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="G136" s="17">
         <v>1</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="I136" s="20"/>
     </row>
@@ -13494,19 +13614,19 @@
         <v>18</v>
       </c>
       <c r="D137" s="14" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="E137" s="15">
         <v>45991</v>
       </c>
       <c r="F137" s="16" t="s">
+        <v>1548</v>
+      </c>
+      <c r="G137" s="17">
+        <v>1</v>
+      </c>
+      <c r="H137" s="4" t="s">
         <v>1549</v>
-      </c>
-      <c r="G137" s="17">
-        <v>1</v>
-      </c>
-      <c r="H137" s="4" t="s">
-        <v>1550</v>
       </c>
       <c r="I137" s="20"/>
     </row>
@@ -13522,19 +13642,19 @@
         <v>18</v>
       </c>
       <c r="D138" s="14" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="E138" s="15">
         <v>45991</v>
       </c>
       <c r="F138" s="16" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="G138" s="17">
         <v>1</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="I138" s="20"/>
     </row>
@@ -13550,19 +13670,19 @@
         <v>18</v>
       </c>
       <c r="D139" s="14" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="E139" s="15">
         <v>45991</v>
       </c>
       <c r="F139" s="16" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="G139" s="17">
         <v>1</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="I139" s="20"/>
     </row>
@@ -13578,19 +13698,19 @@
         <v>18</v>
       </c>
       <c r="D140" s="14" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="E140" s="15">
         <v>45991</v>
       </c>
       <c r="F140" s="16" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="G140" s="17">
         <v>1</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="I140" s="20"/>
     </row>
@@ -13606,19 +13726,19 @@
         <v>18</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="E141" s="15">
         <v>45991</v>
       </c>
       <c r="F141" s="16" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="G141" s="17">
         <v>1</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="I141" s="20"/>
     </row>
@@ -13634,19 +13754,19 @@
         <v>18</v>
       </c>
       <c r="D142" s="14" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="E142" s="15">
         <v>45991</v>
       </c>
       <c r="F142" s="16" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G142" s="17">
         <v>1</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="I142" s="20"/>
     </row>
@@ -13662,19 +13782,19 @@
         <v>18</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E143" s="15">
         <v>45991</v>
       </c>
       <c r="F143" s="16" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="G143" s="17">
         <v>1</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="I143" s="20"/>
     </row>
@@ -13690,19 +13810,19 @@
         <v>18</v>
       </c>
       <c r="D144" s="14" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="E144" s="15">
         <v>45991</v>
       </c>
       <c r="F144" s="16" t="s">
+        <v>1533</v>
+      </c>
+      <c r="G144" s="17">
+        <v>1</v>
+      </c>
+      <c r="H144" s="4" t="s">
         <v>1534</v>
-      </c>
-      <c r="G144" s="17">
-        <v>1</v>
-      </c>
-      <c r="H144" s="4" t="s">
-        <v>1535</v>
       </c>
       <c r="I144" s="20"/>
     </row>
@@ -13718,19 +13838,19 @@
         <v>18</v>
       </c>
       <c r="D145" s="14" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="E145" s="15">
         <v>45991</v>
       </c>
       <c r="F145" s="16" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="G145" s="17">
         <v>1</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="I145" s="20"/>
     </row>
@@ -13746,19 +13866,19 @@
         <v>18</v>
       </c>
       <c r="D146" s="14" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="E146" s="15">
         <v>45991</v>
       </c>
       <c r="F146" s="16" t="s">
+        <v>1577</v>
+      </c>
+      <c r="G146" s="17">
+        <v>1</v>
+      </c>
+      <c r="H146" s="4" t="s">
         <v>1578</v>
-      </c>
-      <c r="G146" s="17">
-        <v>1</v>
-      </c>
-      <c r="H146" s="4" t="s">
-        <v>1579</v>
       </c>
       <c r="I146" s="20"/>
     </row>
@@ -13819,8 +13939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ECAD232-5CB6-49C4-964A-52B933C378F1}">
   <dimension ref="A1:K148"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13871,7 +13991,7 @@
       <c r="J2" s="28"/>
       <c r="K2" s="6">
         <f>SUMIF(F7:F353,"Elimination*",G7:G353)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -13893,7 +14013,7 @@
       <c r="J3" s="28"/>
       <c r="K3" s="6">
         <f>SUMIF(F7:F353,"NB*",G7:G353)</f>
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.25">
@@ -13918,7 +14038,7 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="26"/>
@@ -13933,7 +14053,7 @@
       <c r="J5" s="28"/>
       <c r="K5" s="8">
         <f>SUM(K2:K4)</f>
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -13976,23 +14096,21 @@
         <v>18</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="E7" s="15">
         <v>45992</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>1613</v>
+        <v>1605</v>
       </c>
       <c r="G7" s="17">
         <v>1</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>1611</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>1612</v>
-      </c>
+        <v>1604</v>
+      </c>
+      <c r="I7" s="20"/>
       <c r="J7" s="19"/>
       <c r="K7" s="4"/>
     </row>
@@ -14008,23 +14126,21 @@
         <v>18</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>1629</v>
+        <v>1617</v>
       </c>
       <c r="E8" s="15">
         <v>45993</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>1632</v>
+        <v>1619</v>
       </c>
       <c r="G8" s="17">
         <v>1</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>1630</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>1631</v>
-      </c>
+        <v>1618</v>
+      </c>
+      <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="4"/>
     </row>
@@ -14040,23 +14156,21 @@
         <v>18</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="E9" s="15">
         <v>45993</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="G9" s="17">
         <v>1</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>1596</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>1597</v>
-      </c>
+        <v>1594</v>
+      </c>
+      <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="4"/>
     </row>
@@ -14072,23 +14186,21 @@
         <v>18</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="E10" s="15">
         <v>45993</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="G10" s="17">
         <v>1</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>1599</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>1600</v>
-      </c>
+        <v>1596</v>
+      </c>
+      <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="4"/>
     </row>
@@ -14104,23 +14216,21 @@
         <v>18</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="E11" s="15">
         <v>45993</v>
       </c>
       <c r="F11" s="16" t="s">
+        <v>1583</v>
+      </c>
+      <c r="G11" s="17">
+        <v>1</v>
+      </c>
+      <c r="H11" s="18" t="s">
         <v>1584</v>
       </c>
-      <c r="G11" s="17">
-        <v>1</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>1585</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>574</v>
-      </c>
+      <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="4"/>
     </row>
@@ -14136,23 +14246,21 @@
         <v>18</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="E12" s="15">
         <v>45993</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
       <c r="G12" s="17">
         <v>1</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>1602</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>1604</v>
-      </c>
+        <v>1598</v>
+      </c>
+      <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="4"/>
     </row>
@@ -14168,23 +14276,21 @@
         <v>18</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="E13" s="15">
         <v>45993</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>1607</v>
+        <v>1601</v>
       </c>
       <c r="G13" s="17">
         <v>1</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>1605</v>
-      </c>
-      <c r="I13" s="20" t="s">
-        <v>1606</v>
-      </c>
+        <v>1600</v>
+      </c>
+      <c r="I13" s="20"/>
       <c r="J13" s="20"/>
       <c r="K13" s="4"/>
     </row>
@@ -14200,23 +14306,21 @@
         <v>18</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="E14" s="15">
         <v>45993</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>1610</v>
+        <v>1603</v>
       </c>
       <c r="G14" s="17">
         <v>1</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>1608</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>1609</v>
-      </c>
+        <v>1602</v>
+      </c>
+      <c r="I14" s="20"/>
       <c r="J14" s="20"/>
       <c r="K14" s="4"/>
     </row>
@@ -14232,23 +14336,21 @@
         <v>18</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="E15" s="15">
         <v>45993</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>1616</v>
+        <v>1607</v>
       </c>
       <c r="G15" s="17">
         <v>1</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>1614</v>
-      </c>
-      <c r="I15" s="20" t="s">
-        <v>1615</v>
-      </c>
+        <v>1606</v>
+      </c>
+      <c r="I15" s="20"/>
       <c r="J15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14263,23 +14365,21 @@
         <v>18</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="E16" s="15">
         <v>45994</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="G16" s="17">
         <v>1</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>1130</v>
-      </c>
-      <c r="I16" s="20" t="s">
-        <v>1588</v>
-      </c>
+        <v>1129</v>
+      </c>
+      <c r="I16" s="20"/>
       <c r="J16" s="20"/>
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14294,23 +14394,21 @@
         <v>18</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>1625</v>
+        <v>1614</v>
       </c>
       <c r="E17" s="15">
         <v>45994</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>1628</v>
+        <v>1616</v>
       </c>
       <c r="G17" s="17">
         <v>1</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>1626</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>1627</v>
-      </c>
+        <v>1615</v>
+      </c>
+      <c r="I17" s="20"/>
       <c r="J17" s="20"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14325,23 +14423,21 @@
         <v>18</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>1621</v>
+        <v>1611</v>
       </c>
       <c r="E18" s="15">
         <v>45994</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>1624</v>
+        <v>1613</v>
       </c>
       <c r="G18" s="17">
         <v>1</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>1622</v>
-      </c>
-      <c r="I18" s="20" t="s">
-        <v>1623</v>
-      </c>
+        <v>1612</v>
+      </c>
+      <c r="I18" s="20"/>
       <c r="J18" s="20"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14356,23 +14452,21 @@
         <v>18</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>1617</v>
+        <v>1608</v>
       </c>
       <c r="E19" s="15">
         <v>45994</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>1618</v>
+        <v>1609</v>
       </c>
       <c r="G19" s="17">
         <v>1</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>1619</v>
-      </c>
-      <c r="I19" s="20" t="s">
-        <v>1620</v>
-      </c>
+        <v>1610</v>
+      </c>
+      <c r="I19" s="20"/>
       <c r="J19" s="20"/>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14380,11 +14474,21 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
+      <c r="B20" s="13" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E20" s="15">
+        <v>45994</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>19</v>
+      </c>
       <c r="G20" s="17">
         <v>1</v>
       </c>
@@ -14397,15 +14501,27 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16"/>
+      <c r="B21" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>1640</v>
+      </c>
+      <c r="E21" s="15">
+        <v>45998</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>1641</v>
+      </c>
       <c r="G21" s="17">
         <v>1</v>
       </c>
-      <c r="H21" s="18"/>
+      <c r="H21" s="18" t="s">
+        <v>1642</v>
+      </c>
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
     </row>
@@ -14414,15 +14530,27 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="16"/>
+      <c r="B22" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>1637</v>
+      </c>
+      <c r="E22" s="15">
+        <v>45998</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>1638</v>
+      </c>
       <c r="G22" s="17">
         <v>1</v>
       </c>
-      <c r="H22" s="18"/>
+      <c r="H22" s="18" t="s">
+        <v>1639</v>
+      </c>
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
     </row>
@@ -14431,15 +14559,27 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="16"/>
+      <c r="B23" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>1622</v>
+      </c>
+      <c r="E23" s="15">
+        <v>45998</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>1623</v>
+      </c>
       <c r="G23" s="17">
         <v>1</v>
       </c>
-      <c r="H23" s="18"/>
+      <c r="H23" s="18" t="s">
+        <v>1624</v>
+      </c>
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
     </row>
@@ -14448,15 +14588,27 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="16"/>
+      <c r="B24" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>1643</v>
+      </c>
+      <c r="E24" s="15">
+        <v>45998</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>1633</v>
+      </c>
       <c r="G24" s="17">
         <v>1</v>
       </c>
-      <c r="H24" s="18"/>
+      <c r="H24" s="18" t="s">
+        <v>1634</v>
+      </c>
       <c r="I24" s="20"/>
       <c r="J24" s="20"/>
     </row>
@@ -14465,15 +14617,27 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="16"/>
+      <c r="B25" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>1644</v>
+      </c>
+      <c r="E25" s="15">
+        <v>45998</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>1635</v>
+      </c>
       <c r="G25" s="17">
         <v>1</v>
       </c>
-      <c r="H25" s="18"/>
+      <c r="H25" s="18" t="s">
+        <v>1636</v>
+      </c>
       <c r="I25" s="20"/>
       <c r="J25" s="20"/>
     </row>
@@ -14482,15 +14646,27 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="16"/>
+      <c r="B26" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>1645</v>
+      </c>
+      <c r="E26" s="15">
+        <v>45998</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>1632</v>
+      </c>
       <c r="G26" s="17">
         <v>1</v>
       </c>
-      <c r="H26" s="18"/>
+      <c r="H26" s="18" t="s">
+        <v>1631</v>
+      </c>
       <c r="I26" s="20"/>
       <c r="J26" s="20"/>
     </row>
@@ -14499,15 +14675,27 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="16"/>
+      <c r="B27" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>1646</v>
+      </c>
+      <c r="E27" s="15">
+        <v>45998</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>1627</v>
+      </c>
       <c r="G27" s="17">
         <v>1</v>
       </c>
-      <c r="H27" s="18"/>
+      <c r="H27" s="18" t="s">
+        <v>1628</v>
+      </c>
       <c r="I27" s="20"/>
       <c r="J27" s="20"/>
     </row>
@@ -14516,15 +14704,27 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="16"/>
+      <c r="B28" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>1647</v>
+      </c>
+      <c r="E28" s="15">
+        <v>45998</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>1629</v>
+      </c>
       <c r="G28" s="17">
         <v>1</v>
       </c>
-      <c r="H28" s="18"/>
+      <c r="H28" s="18" t="s">
+        <v>1630</v>
+      </c>
       <c r="I28" s="20"/>
       <c r="J28" s="20"/>
     </row>
@@ -14533,15 +14733,27 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="16"/>
+      <c r="B29" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>1648</v>
+      </c>
+      <c r="E29" s="15">
+        <v>45998</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>1626</v>
+      </c>
       <c r="G29" s="17">
         <v>1</v>
       </c>
-      <c r="H29" s="18"/>
+      <c r="H29" s="18" t="s">
+        <v>1625</v>
+      </c>
       <c r="I29" s="20"/>
       <c r="J29" s="20"/>
     </row>
@@ -14550,16 +14762,30 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="16"/>
+      <c r="B30" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>1649</v>
+      </c>
+      <c r="E30" s="15">
+        <v>45999</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>1650</v>
+      </c>
       <c r="G30" s="17">
         <v>1</v>
       </c>
-      <c r="H30" s="18"/>
-      <c r="I30" s="20"/>
+      <c r="H30" s="18" t="s">
+        <v>1651</v>
+      </c>
+      <c r="I30" s="20" t="s">
+        <v>1652</v>
+      </c>
       <c r="J30" s="4"/>
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14567,16 +14793,30 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="16"/>
+      <c r="B31" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>1653</v>
+      </c>
+      <c r="E31" s="15">
+        <v>45999</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>1656</v>
+      </c>
       <c r="G31" s="17">
         <v>1</v>
       </c>
-      <c r="H31" s="18"/>
-      <c r="I31" s="20"/>
+      <c r="H31" s="18" t="s">
+        <v>1654</v>
+      </c>
+      <c r="I31" s="20" t="s">
+        <v>1655</v>
+      </c>
       <c r="J31" s="4"/>
     </row>
     <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14584,16 +14824,30 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="16"/>
+      <c r="B32" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E32" s="15">
+        <v>46000</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>1658</v>
+      </c>
       <c r="G32" s="17">
         <v>1</v>
       </c>
-      <c r="H32" s="18"/>
-      <c r="I32" s="20"/>
+      <c r="H32" s="18" t="s">
+        <v>1659</v>
+      </c>
+      <c r="I32" s="20" t="s">
+        <v>1660</v>
+      </c>
       <c r="J32" s="4"/>
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14601,16 +14855,30 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="16"/>
+      <c r="B33" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>1661</v>
+      </c>
+      <c r="E33" s="15">
+        <v>46000</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>1664</v>
+      </c>
       <c r="G33" s="17">
         <v>1</v>
       </c>
-      <c r="H33" s="18"/>
-      <c r="I33" s="20"/>
+      <c r="H33" s="18" t="s">
+        <v>1662</v>
+      </c>
+      <c r="I33" s="20" t="s">
+        <v>1663</v>
+      </c>
       <c r="J33" s="4"/>
     </row>
     <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14618,16 +14886,30 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="16"/>
+      <c r="B34" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>1665</v>
+      </c>
+      <c r="E34" s="15">
+        <v>46000</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>1668</v>
+      </c>
       <c r="G34" s="17">
         <v>1</v>
       </c>
-      <c r="H34" s="18"/>
-      <c r="I34" s="20"/>
+      <c r="H34" s="18" t="s">
+        <v>1666</v>
+      </c>
+      <c r="I34" s="20" t="s">
+        <v>1667</v>
+      </c>
       <c r="J34" s="4"/>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14635,16 +14917,30 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="16"/>
+      <c r="B35" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>1669</v>
+      </c>
+      <c r="E35" s="15">
+        <v>46021</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>1670</v>
+      </c>
       <c r="G35" s="17">
         <v>1</v>
       </c>
-      <c r="H35" s="18"/>
-      <c r="I35" s="20"/>
+      <c r="H35" s="18" t="s">
+        <v>1671</v>
+      </c>
+      <c r="I35" s="20" t="s">
+        <v>1672</v>
+      </c>
       <c r="J35" s="4"/>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16008,7 +16304,7 @@
       </c>
       <c r="H120" s="4"/>
       <c r="I120" s="20" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -16026,7 +16322,7 @@
       </c>
       <c r="H121" s="4"/>
       <c r="I121" s="20" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -16044,7 +16340,7 @@
       </c>
       <c r="H122" s="4"/>
       <c r="I122" s="20" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -16062,7 +16358,7 @@
       </c>
       <c r="H123" s="4"/>
       <c r="I123" s="20" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -16080,7 +16376,7 @@
       </c>
       <c r="H124" s="4"/>
       <c r="I124" s="20" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -16098,7 +16394,7 @@
       </c>
       <c r="H125" s="4"/>
       <c r="I125" s="20" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -16116,7 +16412,7 @@
       </c>
       <c r="H126" s="4"/>
       <c r="I126" s="20" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -16134,7 +16430,7 @@
       </c>
       <c r="H127" s="4"/>
       <c r="I127" s="20" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -16152,7 +16448,7 @@
       </c>
       <c r="H128" s="4"/>
       <c r="I128" s="20" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -16170,7 +16466,7 @@
       </c>
       <c r="H129" s="4"/>
       <c r="I129" s="20" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -16188,7 +16484,7 @@
       </c>
       <c r="H130" s="4"/>
       <c r="I130" s="20" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -16206,7 +16502,7 @@
       </c>
       <c r="H131" s="4"/>
       <c r="I131" s="20" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -16224,7 +16520,7 @@
       </c>
       <c r="H132" s="4"/>
       <c r="I132" s="20" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -16242,7 +16538,7 @@
       </c>
       <c r="H133" s="4"/>
       <c r="I133" s="20" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -16260,7 +16556,7 @@
       </c>
       <c r="H134" s="4"/>
       <c r="I134" s="20" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -16278,7 +16574,7 @@
       </c>
       <c r="H135" s="4"/>
       <c r="I135" s="20" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -16296,7 +16592,7 @@
       </c>
       <c r="H136" s="4"/>
       <c r="I136" s="20" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -16314,7 +16610,7 @@
       </c>
       <c r="H137" s="4"/>
       <c r="I137" s="20" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -16332,7 +16628,7 @@
       </c>
       <c r="H138" s="4"/>
       <c r="I138" s="20" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -16350,7 +16646,7 @@
       </c>
       <c r="H139" s="4"/>
       <c r="I139" s="20" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -16368,7 +16664,7 @@
       </c>
       <c r="H140" s="4"/>
       <c r="I140" s="20" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -16386,7 +16682,7 @@
       </c>
       <c r="H141" s="4"/>
       <c r="I141" s="20" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -16404,7 +16700,7 @@
       </c>
       <c r="H142" s="4"/>
       <c r="I142" s="20" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -16422,7 +16718,7 @@
       </c>
       <c r="H143" s="4"/>
       <c r="I143" s="20" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -16440,7 +16736,7 @@
       </c>
       <c r="H144" s="4"/>
       <c r="I144" s="20" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -16458,7 +16754,7 @@
       </c>
       <c r="H145" s="4"/>
       <c r="I145" s="20" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -16476,7 +16772,7 @@
       </c>
       <c r="H146" s="4"/>
       <c r="I146" s="20" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -16508,9 +16804,9 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:I19">
-    <sortCondition ref="E7:E19"/>
-    <sortCondition ref="D7:D19"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:I29">
+    <sortCondition ref="E7:E29"/>
+    <sortCondition ref="D7:D29"/>
   </sortState>
   <mergeCells count="9">
     <mergeCell ref="A5:F5"/>
@@ -16537,8 +16833,8 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17963,8 +18259,8 @@
   <sheetPr codeName="Feuil3"/>
   <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19697,8 +19993,8 @@
   <sheetPr codeName="Feuil4"/>
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21160,7 +21456,7 @@
   <sheetPr codeName="Feuil5"/>
   <dimension ref="A1:K87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A60" workbookViewId="0">
       <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
@@ -23466,8 +23762,8 @@
   <sheetPr codeName="Feuil6"/>
   <dimension ref="A1:K87"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24308,7 +24604,7 @@
         <v>25</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C31" s="23" t="s">
         <v>18</v>
@@ -25253,7 +25549,7 @@
   <sheetPr codeName="Feuil7"/>
   <dimension ref="A1:K87"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -26053,7 +26349,7 @@
         <v>45859</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="G29" s="17">
         <v>1</v>
@@ -27128,8 +27424,8 @@
   <sheetPr codeName="Feuil8"/>
   <dimension ref="A1:K87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27751,7 +28047,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>923</v>
+        <v>99</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>18</v>
@@ -28062,13 +28358,13 @@
         <v>45886</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="G34" s="17">
         <v>1</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="I34" s="20"/>
       <c r="J34" s="4"/>
@@ -28118,13 +28414,13 @@
         <v>45886</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="G36" s="17">
         <v>1</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
@@ -29302,8 +29598,8 @@
   <sheetPr codeName="Feuil9"/>
   <dimension ref="A1:K126"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="H94" sqref="H94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29710,7 +30006,7 @@
         <v>18</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E16" s="15">
         <v>45901</v>
@@ -30395,7 +30691,7 @@
         <v>45907</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="G41" s="17">
         <v>1</v>
@@ -30423,7 +30719,7 @@
         <v>45907</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="G42" s="17">
         <v>1</v>
@@ -30526,19 +30822,19 @@
         <v>232</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E46" s="15">
         <v>45909</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="G46" s="17">
         <v>1</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -30580,19 +30876,19 @@
         <v>18</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E48" s="15">
         <v>45909</v>
       </c>
       <c r="F48" s="16" t="s">
+        <v>934</v>
+      </c>
+      <c r="G48" s="17">
+        <v>1</v>
+      </c>
+      <c r="H48" s="4" t="s">
         <v>935</v>
-      </c>
-      <c r="G48" s="17">
-        <v>1</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -30607,19 +30903,19 @@
         <v>18</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E49" s="15">
         <v>45910</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="G49" s="17">
         <v>1</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -30634,19 +30930,19 @@
         <v>18</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E50" s="15">
         <v>45910</v>
       </c>
       <c r="F50" s="16" t="s">
+        <v>939</v>
+      </c>
+      <c r="G50" s="17">
+        <v>1</v>
+      </c>
+      <c r="H50" s="4" t="s">
         <v>940</v>
-      </c>
-      <c r="G50" s="17">
-        <v>1</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -30661,19 +30957,19 @@
         <v>18</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E51" s="15">
         <v>45911</v>
       </c>
       <c r="F51" s="16" t="s">
+        <v>942</v>
+      </c>
+      <c r="G51" s="17">
+        <v>1</v>
+      </c>
+      <c r="H51" s="4" t="s">
         <v>943</v>
-      </c>
-      <c r="G51" s="17">
-        <v>1</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -30682,13 +30978,13 @@
         <v>46</v>
       </c>
       <c r="B52" s="15" t="s">
+        <v>955</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="14" t="s">
         <v>956</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>957</v>
       </c>
       <c r="E52" s="15">
         <v>45914</v>
@@ -30708,13 +31004,13 @@
         <v>47</v>
       </c>
       <c r="B53" s="15" t="s">
+        <v>951</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="14" t="s">
         <v>952</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>953</v>
       </c>
       <c r="E53" s="15">
         <v>45914</v>
@@ -30733,13 +31029,13 @@
         <v>48</v>
       </c>
       <c r="B54" s="15" t="s">
+        <v>953</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="14" t="s">
         <v>954</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>955</v>
       </c>
       <c r="E54" s="15">
         <v>45914</v>
@@ -30758,13 +31054,13 @@
         <v>49</v>
       </c>
       <c r="B55" s="15" t="s">
+        <v>971</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="14" t="s">
         <v>972</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>973</v>
       </c>
       <c r="E55" s="15">
         <v>45914</v>
@@ -30783,13 +31079,13 @@
         <v>50</v>
       </c>
       <c r="B56" s="15" t="s">
+        <v>979</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="14" t="s">
         <v>980</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D56" s="14" t="s">
-        <v>981</v>
       </c>
       <c r="E56" s="15">
         <v>45914</v>
@@ -30808,13 +31104,13 @@
         <v>51</v>
       </c>
       <c r="B57" s="15" t="s">
+        <v>977</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="14" t="s">
         <v>978</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D57" s="14" t="s">
-        <v>979</v>
       </c>
       <c r="E57" s="15">
         <v>45914</v>
@@ -30834,13 +31130,13 @@
         <v>52</v>
       </c>
       <c r="B58" s="15" t="s">
+        <v>969</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="14" t="s">
         <v>970</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D58" s="14" t="s">
-        <v>971</v>
       </c>
       <c r="E58" s="15">
         <v>45914</v>
@@ -30865,19 +31161,19 @@
         <v>18</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E59" s="15">
         <v>45914</v>
       </c>
       <c r="F59" s="16" t="s">
+        <v>958</v>
+      </c>
+      <c r="G59" s="17">
+        <v>1</v>
+      </c>
+      <c r="H59" s="4" t="s">
         <v>959</v>
-      </c>
-      <c r="G59" s="17">
-        <v>1</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -30886,13 +31182,13 @@
         <v>54</v>
       </c>
       <c r="B60" s="15" t="s">
+        <v>973</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="14" t="s">
         <v>974</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D60" s="14" t="s">
-        <v>975</v>
       </c>
       <c r="E60" s="15">
         <v>45914</v>
@@ -30911,13 +31207,13 @@
         <v>55</v>
       </c>
       <c r="B61" s="15" t="s">
+        <v>983</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="14" t="s">
         <v>984</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D61" s="14" t="s">
-        <v>985</v>
       </c>
       <c r="E61" s="15">
         <v>45914</v>
@@ -30936,13 +31232,13 @@
         <v>56</v>
       </c>
       <c r="B62" s="15" t="s">
+        <v>981</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="14" t="s">
         <v>982</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D62" s="14" t="s">
-        <v>983</v>
       </c>
       <c r="E62" s="15">
         <v>45914</v>
@@ -30961,13 +31257,13 @@
         <v>57</v>
       </c>
       <c r="B63" s="15" t="s">
+        <v>967</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="14" t="s">
         <v>968</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D63" s="14" t="s">
-        <v>969</v>
       </c>
       <c r="E63" s="15">
         <v>45914</v>
@@ -30986,13 +31282,13 @@
         <v>58</v>
       </c>
       <c r="B64" s="15" t="s">
+        <v>975</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="14" t="s">
         <v>976</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D64" s="14" t="s">
-        <v>977</v>
       </c>
       <c r="E64" s="15">
         <v>45914</v>
@@ -31017,19 +31313,19 @@
         <v>18</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E65" s="15">
         <v>45914</v>
       </c>
       <c r="F65" s="16" t="s">
+        <v>949</v>
+      </c>
+      <c r="G65" s="17">
+        <v>1</v>
+      </c>
+      <c r="H65" s="4" t="s">
         <v>950</v>
-      </c>
-      <c r="G65" s="17">
-        <v>1</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -31044,19 +31340,19 @@
         <v>18</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E66" s="15">
         <v>45914</v>
       </c>
       <c r="F66" s="16" t="s">
+        <v>946</v>
+      </c>
+      <c r="G66" s="17">
+        <v>1</v>
+      </c>
+      <c r="H66" s="4" t="s">
         <v>947</v>
-      </c>
-      <c r="G66" s="17">
-        <v>1</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -31065,13 +31361,13 @@
         <v>61</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C67" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E67" s="15">
         <v>45915</v>
@@ -31090,13 +31386,13 @@
         <v>62</v>
       </c>
       <c r="B68" s="15" t="s">
+        <v>991</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="14" t="s">
         <v>992</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D68" s="14" t="s">
-        <v>993</v>
       </c>
       <c r="E68" s="15">
         <v>45915</v>
@@ -31121,19 +31417,19 @@
         <v>18</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E69" s="15">
         <v>45915</v>
       </c>
       <c r="F69" s="16" t="s">
+        <v>999</v>
+      </c>
+      <c r="G69" s="17">
+        <v>1</v>
+      </c>
+      <c r="H69" s="4" t="s">
         <v>1000</v>
-      </c>
-      <c r="G69" s="17">
-        <v>1</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -31142,13 +31438,13 @@
         <v>64</v>
       </c>
       <c r="B70" s="15" t="s">
+        <v>985</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="14" t="s">
         <v>986</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D70" s="14" t="s">
-        <v>987</v>
       </c>
       <c r="E70" s="15">
         <v>45915</v>
@@ -31167,13 +31463,13 @@
         <v>65</v>
       </c>
       <c r="B71" s="15" t="s">
+        <v>987</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" s="14" t="s">
         <v>988</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D71" s="14" t="s">
-        <v>989</v>
       </c>
       <c r="E71" s="15">
         <v>45915</v>
@@ -31192,13 +31488,13 @@
         <v>66</v>
       </c>
       <c r="B72" s="13" t="s">
+        <v>989</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" s="14" t="s">
         <v>990</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D72" s="14" t="s">
-        <v>991</v>
       </c>
       <c r="E72" s="15">
         <v>45915</v>
@@ -31217,13 +31513,13 @@
         <v>67</v>
       </c>
       <c r="B73" s="15" t="s">
+        <v>993</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" s="14" t="s">
         <v>994</v>
-      </c>
-      <c r="C73" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D73" s="14" t="s">
-        <v>995</v>
       </c>
       <c r="E73" s="15">
         <v>45915</v>
@@ -31242,13 +31538,13 @@
         <v>68</v>
       </c>
       <c r="B74" s="15" t="s">
+        <v>995</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" s="14" t="s">
         <v>996</v>
-      </c>
-      <c r="C74" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D74" s="14" t="s">
-        <v>997</v>
       </c>
       <c r="E74" s="15">
         <v>45915</v>
@@ -31273,19 +31569,19 @@
         <v>18</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E75" s="15">
         <v>45915</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="G75" s="17">
         <v>1</v>
       </c>
       <c r="H75" s="18" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -31300,19 +31596,19 @@
         <v>18</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E76" s="15">
         <v>45915</v>
       </c>
       <c r="F76" s="16" t="s">
+        <v>961</v>
+      </c>
+      <c r="G76" s="17">
+        <v>1</v>
+      </c>
+      <c r="H76" s="4" t="s">
         <v>962</v>
-      </c>
-      <c r="G76" s="17">
-        <v>1</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -31321,13 +31617,13 @@
         <v>71</v>
       </c>
       <c r="B77" s="13" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77" s="14" t="s">
         <v>1027</v>
-      </c>
-      <c r="C77" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D77" s="14" t="s">
-        <v>1028</v>
       </c>
       <c r="E77" s="15">
         <v>45916</v>
@@ -31346,13 +31642,13 @@
         <v>72</v>
       </c>
       <c r="B78" s="13" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" s="14" t="s">
         <v>1033</v>
-      </c>
-      <c r="C78" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D78" s="14" t="s">
-        <v>1034</v>
       </c>
       <c r="E78" s="15">
         <v>45916</v>
@@ -31371,13 +31667,13 @@
         <v>73</v>
       </c>
       <c r="B79" s="13" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" s="14" t="s">
         <v>1029</v>
-      </c>
-      <c r="C79" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D79" s="14" t="s">
-        <v>1030</v>
       </c>
       <c r="E79" s="15">
         <v>45916</v>
@@ -31396,13 +31692,13 @@
         <v>74</v>
       </c>
       <c r="B80" s="13" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" s="14" t="s">
         <v>1031</v>
-      </c>
-      <c r="C80" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D80" s="14" t="s">
-        <v>1032</v>
       </c>
       <c r="E80" s="15">
         <v>45916</v>
@@ -31421,13 +31717,13 @@
         <v>75</v>
       </c>
       <c r="B81" s="13" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" s="14" t="s">
         <v>1035</v>
-      </c>
-      <c r="C81" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D81" s="14" t="s">
-        <v>1036</v>
       </c>
       <c r="E81" s="15">
         <v>45916</v>
@@ -31452,19 +31748,19 @@
         <v>18</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E82" s="15">
         <v>45917</v>
       </c>
       <c r="F82" s="16" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G82" s="17">
+        <v>1</v>
+      </c>
+      <c r="H82" s="4" t="s">
         <v>1004</v>
-      </c>
-      <c r="G82" s="17">
-        <v>1</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -31479,19 +31775,19 @@
         <v>18</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="E83" s="15">
         <v>45917</v>
       </c>
       <c r="F83" s="16" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G83" s="17">
+        <v>1</v>
+      </c>
+      <c r="H83" s="4" t="s">
         <v>1006</v>
-      </c>
-      <c r="G83" s="17">
-        <v>1</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>1007</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -31500,13 +31796,13 @@
         <v>78</v>
       </c>
       <c r="B84" s="13" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" s="14" t="s">
         <v>1025</v>
-      </c>
-      <c r="C84" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D84" s="14" t="s">
-        <v>1026</v>
       </c>
       <c r="E84" s="15">
         <v>45917</v>
@@ -31525,13 +31821,13 @@
         <v>79</v>
       </c>
       <c r="B85" s="13" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" s="14" t="s">
         <v>1023</v>
-      </c>
-      <c r="C85" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D85" s="14" t="s">
-        <v>1024</v>
       </c>
       <c r="E85" s="15">
         <v>45917</v>
@@ -31550,13 +31846,13 @@
         <v>80</v>
       </c>
       <c r="B86" s="13" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" s="14" t="s">
         <v>1015</v>
-      </c>
-      <c r="C86" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D86" s="14" t="s">
-        <v>1016</v>
       </c>
       <c r="E86" s="15">
         <v>45917</v>
@@ -31575,13 +31871,13 @@
         <v>81</v>
       </c>
       <c r="B87" s="13" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87" s="14" t="s">
         <v>1021</v>
-      </c>
-      <c r="C87" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D87" s="14" t="s">
-        <v>1022</v>
       </c>
       <c r="E87" s="15">
         <v>45917</v>
@@ -31600,13 +31896,13 @@
         <v>82</v>
       </c>
       <c r="B88" s="13" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88" s="14" t="s">
         <v>1017</v>
-      </c>
-      <c r="C88" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D88" s="14" t="s">
-        <v>1018</v>
       </c>
       <c r="E88" s="15">
         <v>45917</v>
@@ -31625,13 +31921,13 @@
         <v>83</v>
       </c>
       <c r="B89" s="13" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89" s="14" t="s">
         <v>1019</v>
-      </c>
-      <c r="C89" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D89" s="14" t="s">
-        <v>1020</v>
       </c>
       <c r="E89" s="15">
         <v>45917</v>
@@ -31650,13 +31946,13 @@
         <v>84</v>
       </c>
       <c r="B90" s="13" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90" s="14" t="s">
         <v>1013</v>
-      </c>
-      <c r="C90" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D90" s="14" t="s">
-        <v>1014</v>
       </c>
       <c r="E90" s="15">
         <v>45918</v>
@@ -31681,19 +31977,19 @@
         <v>18</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E91" s="15">
         <v>45918</v>
       </c>
       <c r="F91" s="16" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G91" s="17">
+        <v>1</v>
+      </c>
+      <c r="H91" s="4" t="s">
         <v>1009</v>
-      </c>
-      <c r="G91" s="17">
-        <v>1</v>
-      </c>
-      <c r="H91" s="4" t="s">
-        <v>1010</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -31702,13 +31998,13 @@
         <v>86</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C92" s="13">
         <v>30</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E92" s="15">
         <v>45918</v>
@@ -31727,25 +32023,25 @@
         <v>87</v>
       </c>
       <c r="B93" s="13" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D93" s="14" t="s">
         <v>1037</v>
-      </c>
-      <c r="C93" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D93" s="14" t="s">
-        <v>1038</v>
       </c>
       <c r="E93" s="15">
         <v>45924</v>
       </c>
       <c r="F93" s="16" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G93" s="17">
+        <v>1</v>
+      </c>
+      <c r="H93" s="4" t="s">
         <v>1039</v>
-      </c>
-      <c r="G93" s="17">
-        <v>1</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -31760,19 +32056,19 @@
         <v>18</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E94" s="15">
         <v>45926</v>
       </c>
       <c r="F94" s="16" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="G94" s="17">
         <v>1</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -31787,19 +32083,19 @@
         <v>18</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="E95" s="15">
         <v>45928</v>
       </c>
       <c r="F95" s="16" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G95" s="17">
+        <v>1</v>
+      </c>
+      <c r="H95" s="4" t="s">
         <v>1042</v>
-      </c>
-      <c r="G95" s="17">
-        <v>1</v>
-      </c>
-      <c r="H95" s="4" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -31814,19 +32110,19 @@
         <v>18</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="E96" s="15">
         <v>45930</v>
       </c>
       <c r="F96" s="16" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G96" s="17">
+        <v>1</v>
+      </c>
+      <c r="H96" s="4" t="s">
         <v>1045</v>
-      </c>
-      <c r="G96" s="17">
-        <v>1</v>
-      </c>
-      <c r="H96" s="4" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">

--- a/Gestion Stock 2025/Gestion de Stock Berrouaghia/Suivie pose Compteur 2025.xlsx
+++ b/Gestion Stock 2025/Gestion de Stock Berrouaghia/Suivie pose Compteur 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Suivie Pose Compteurs\Gestion Stock 2025\Gestion de Stock Berrouaghia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D74ED4-A81F-4AB2-A26B-80F309F5EB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76A347B-3A66-4119-81F0-C7E04678CB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3203" uniqueCount="1716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3310" uniqueCount="1770">
   <si>
     <t>Algérienne des Eaux</t>
   </si>
@@ -4720,36 +4720,24 @@
     <t>Ammad ali</t>
   </si>
   <si>
-    <t>720 aadl bt 12 n10</t>
-  </si>
-  <si>
     <t>NB(389/2025)</t>
   </si>
   <si>
     <t>Ould zmirli otmane</t>
   </si>
   <si>
-    <t>720 aadl bt 6 n36</t>
-  </si>
-  <si>
     <t>NB(672/2025)</t>
   </si>
   <si>
     <t>Boualem med</t>
   </si>
   <si>
-    <t>720 aadl bt 5 n14</t>
-  </si>
-  <si>
     <t>NB(399/2025)</t>
   </si>
   <si>
     <t>Boukhalfa med</t>
   </si>
   <si>
-    <t>720 aadl bt 12 n13</t>
-  </si>
-  <si>
     <t>NB(657/2025)</t>
   </si>
   <si>
@@ -4795,87 +4783,57 @@
     <t>Boualami toufik</t>
   </si>
   <si>
-    <t>720 aadl bt 07 n20</t>
-  </si>
-  <si>
     <t>Bassour hakim</t>
   </si>
   <si>
-    <t>720 aadl bt 07 n30</t>
-  </si>
-  <si>
     <t>NB(651/2025)</t>
   </si>
   <si>
     <t>Djouablia ramdane</t>
   </si>
   <si>
-    <t>720 aadl bt 09 n24</t>
-  </si>
-  <si>
     <t>NB(640/2025)</t>
   </si>
   <si>
     <t>Khalfaoui mohamed</t>
   </si>
   <si>
-    <t>720 aadl bt 06 n11</t>
-  </si>
-  <si>
     <t>NB(536/2025)</t>
   </si>
   <si>
     <t>Medani alaeddine</t>
   </si>
   <si>
-    <t>720 aadl bt 04 n27</t>
-  </si>
-  <si>
     <t>NB(466/2025)</t>
   </si>
   <si>
     <t>Chouih samia</t>
   </si>
   <si>
-    <t>720 aadl bt 05 n23</t>
-  </si>
-  <si>
     <t>NB(680/2025)</t>
   </si>
   <si>
     <t>Badri med</t>
   </si>
   <si>
-    <t>720 aadl bt 05 n37</t>
-  </si>
-  <si>
     <t>NB(647/2025)</t>
   </si>
   <si>
     <t>Saki med</t>
   </si>
   <si>
-    <t>720 aadl bt 13 n38</t>
-  </si>
-  <si>
     <t>NB(475/2025)</t>
   </si>
   <si>
     <t>Laidi fouad</t>
   </si>
   <si>
-    <t>720 aadl bt 16 n36</t>
-  </si>
-  <si>
     <t>NB(625/2025)</t>
   </si>
   <si>
     <t>Bouhenniche rachid</t>
   </si>
   <si>
-    <t>720 aadl bt 09 n29</t>
-  </si>
-  <si>
     <t>NB(644/2025)</t>
   </si>
   <si>
@@ -4903,9 +4861,6 @@
     <t>Arkab ali</t>
   </si>
   <si>
-    <t>720 aadl bt 13 n35</t>
-  </si>
-  <si>
     <t>2025177778</t>
   </si>
   <si>
@@ -4915,18 +4870,12 @@
     <t>Loualiche n/eddine</t>
   </si>
   <si>
-    <t>Djennane toubel n611</t>
-  </si>
-  <si>
     <t>2025117497</t>
   </si>
   <si>
     <t>Soualhi madjid</t>
   </si>
   <si>
-    <t>720 aadl bt 16 n22</t>
-  </si>
-  <si>
     <t>2025117498</t>
   </si>
   <si>
@@ -4936,9 +4885,6 @@
     <t>Kefayfi mourad</t>
   </si>
   <si>
-    <t>720 aadl bt 17 n29</t>
-  </si>
-  <si>
     <t>NB(524/2025)</t>
   </si>
   <si>
@@ -4960,12 +4906,6 @@
     <t>Kerbal noureddine</t>
   </si>
   <si>
-    <t>720 aadl bt 07 n07</t>
-  </si>
-  <si>
-    <t>720 aadl bt 18 n01</t>
-  </si>
-  <si>
     <t>2025177772</t>
   </si>
   <si>
@@ -4987,54 +4927,36 @@
     <t>Bouldoum hanachi</t>
   </si>
   <si>
-    <t>720 aadl bt 18 n02</t>
-  </si>
-  <si>
     <t>NB(442/2025)</t>
   </si>
   <si>
     <t>Boulariah yaagoub</t>
   </si>
   <si>
-    <t>720 aadl bt 19 n28</t>
-  </si>
-  <si>
     <t>NB(586/2025)</t>
   </si>
   <si>
     <t>Fellague maamar</t>
   </si>
   <si>
-    <t>720 aadl bt 7 n16</t>
-  </si>
-  <si>
     <t>NB(530/2025)</t>
   </si>
   <si>
     <t>Abderahmane mahfoud</t>
   </si>
   <si>
-    <t>720 aadl bt 7 n35</t>
-  </si>
-  <si>
     <t>NB(652/2025)</t>
   </si>
   <si>
     <t>Babi zohra</t>
   </si>
   <si>
-    <t>720 aadl bt 19 n2</t>
-  </si>
-  <si>
     <t>NB(681/2025)</t>
   </si>
   <si>
     <t>Benmohamed med omar</t>
   </si>
   <si>
-    <t>720 aadl bt 9 n32</t>
-  </si>
-  <si>
     <t>NB(577/2025)</t>
   </si>
   <si>
@@ -5045,9 +4967,6 @@
   </si>
   <si>
     <t>Makhloufi fatma</t>
-  </si>
-  <si>
-    <t>720 aadl bt 7 n6</t>
   </si>
   <si>
     <t>2025117698</t>
@@ -5287,18 +5206,12 @@
     <t>Araibia nassreddine</t>
   </si>
   <si>
-    <t>djenane tebbal</t>
-  </si>
-  <si>
     <t>2025177123</t>
   </si>
   <si>
     <t>Bourekba aek</t>
   </si>
   <si>
-    <t>720 aadl bt 15 n5</t>
-  </si>
-  <si>
     <t>NB(361/2025)</t>
   </si>
   <si>
@@ -5311,18 +5224,12 @@
     <t>Benslimane med</t>
   </si>
   <si>
-    <t>720 aadl bt 9 n20</t>
-  </si>
-  <si>
     <t>2025177125</t>
   </si>
   <si>
     <t>Mekki djamel</t>
   </si>
   <si>
-    <t>720 aadl bt 8 n9</t>
-  </si>
-  <si>
     <t>NB(700/2025)</t>
   </si>
   <si>
@@ -5332,9 +5239,6 @@
     <t>Benhizia nabil</t>
   </si>
   <si>
-    <t>720 aadl bt 11 n19</t>
-  </si>
-  <si>
     <t>NB(537/2025)</t>
   </si>
   <si>
@@ -5347,9 +5251,6 @@
     <t>Fekir wassila</t>
   </si>
   <si>
-    <t>720 aadl bt 5 n29</t>
-  </si>
-  <si>
     <t>Ecole primaire Abdelkrim nabi</t>
   </si>
   <si>
@@ -5359,9 +5260,6 @@
     <t>Benatmane ayoub</t>
   </si>
   <si>
-    <t>720 aadl bt 8 n38</t>
-  </si>
-  <si>
     <t>2025177428</t>
   </si>
   <si>
@@ -5374,9 +5272,6 @@
     <t>Arbaoui med</t>
   </si>
   <si>
-    <t>720 aadl bt 16 n9</t>
-  </si>
-  <si>
     <t>2025177425</t>
   </si>
   <si>
@@ -5386,9 +5281,6 @@
     <t>Mag benlalli farida</t>
   </si>
   <si>
-    <t>84 logts Mag n)52</t>
-  </si>
-  <si>
     <t>2025177426</t>
   </si>
   <si>
@@ -5407,9 +5299,6 @@
     <t>Ould benaissa dalila</t>
   </si>
   <si>
-    <t>720 aadl bt 11 n22</t>
-  </si>
-  <si>
     <t>2025177423</t>
   </si>
   <si>
@@ -5419,18 +5308,12 @@
     <t>Sahraoui zohra</t>
   </si>
   <si>
-    <t>720 aadl bt 15 n4</t>
-  </si>
-  <si>
     <t>2025177422</t>
   </si>
   <si>
     <t>Titraoui salim</t>
   </si>
   <si>
-    <t>720 aadl bt 1 n28</t>
-  </si>
-  <si>
     <t>NB(558/2025)</t>
   </si>
   <si>
@@ -5443,9 +5326,6 @@
     <t>Hadioui ahmed</t>
   </si>
   <si>
-    <t>720 aadl bt 8 n14</t>
-  </si>
-  <si>
     <t>2025177745</t>
   </si>
   <si>
@@ -5455,9 +5335,6 @@
     <t>Bahmed abdenasser</t>
   </si>
   <si>
-    <t>720 aadl bt 12 n37</t>
-  </si>
-  <si>
     <t>2025177743</t>
   </si>
   <si>
@@ -5467,9 +5344,6 @@
     <t>Mouidni hacene</t>
   </si>
   <si>
-    <t>abattoir</t>
-  </si>
-  <si>
     <t>2025177742</t>
   </si>
   <si>
@@ -5479,7 +5353,295 @@
     <t>Rahmine tayeb</t>
   </si>
   <si>
-    <t>Ain omrane</t>
+    <t>B16335</t>
+  </si>
+  <si>
+    <t>2025177741</t>
+  </si>
+  <si>
+    <t>2025177750</t>
+  </si>
+  <si>
+    <t>B15989</t>
+  </si>
+  <si>
+    <t>2025177749</t>
+  </si>
+  <si>
+    <t>Belhadj benaissa</t>
+  </si>
+  <si>
+    <t>NB(601/2025)</t>
+  </si>
+  <si>
+    <t>2025177748</t>
+  </si>
+  <si>
+    <t>Benmimoune keltoum</t>
+  </si>
+  <si>
+    <t>NB(591/2025)</t>
+  </si>
+  <si>
+    <t>Etablissement de réadaptation</t>
+  </si>
+  <si>
+    <t>BB0262</t>
+  </si>
+  <si>
+    <t>23986168</t>
+  </si>
+  <si>
+    <t>2025177746</t>
+  </si>
+  <si>
+    <t>2025177747</t>
+  </si>
+  <si>
+    <t>NB(432/2025)</t>
+  </si>
+  <si>
+    <t>Ali aek</t>
+  </si>
+  <si>
+    <t>720 aadl bt 18 n19</t>
+  </si>
+  <si>
+    <t>NB(396/2025)</t>
+  </si>
+  <si>
+    <t>Rabehi ahmed</t>
+  </si>
+  <si>
+    <t>720 aadl bt 18 n24</t>
+  </si>
+  <si>
+    <t>2025177452</t>
+  </si>
+  <si>
+    <t>Saidi djamel</t>
+  </si>
+  <si>
+    <t>NB(374/2025)</t>
+  </si>
+  <si>
+    <t>2025177453</t>
+  </si>
+  <si>
+    <t>Korichi tarek</t>
+  </si>
+  <si>
+    <t>NB(391/2025)</t>
+  </si>
+  <si>
+    <t>B13200</t>
+  </si>
+  <si>
+    <t>2025177454</t>
+  </si>
+  <si>
+    <t>2025177455</t>
+  </si>
+  <si>
+    <t>NB(610/2025)</t>
+  </si>
+  <si>
+    <t>Benaouda chahir</t>
+  </si>
+  <si>
+    <t>720 aadl bt 19 n32</t>
+  </si>
+  <si>
+    <t>2025177460</t>
+  </si>
+  <si>
+    <t>Kaab sid ali</t>
+  </si>
+  <si>
+    <t>720 aadl bt 7 n33</t>
+  </si>
+  <si>
+    <t>NB(662/2025)</t>
+  </si>
+  <si>
+    <t>2025118309</t>
+  </si>
+  <si>
+    <t>2025177230</t>
+  </si>
+  <si>
+    <t>Kortebi a/rahmane</t>
+  </si>
+  <si>
+    <t>720 aadl bt 3 n7</t>
+  </si>
+  <si>
+    <t>NB(728/2025)</t>
+  </si>
+  <si>
+    <t>2025177226</t>
+  </si>
+  <si>
+    <t>Boussila maamar</t>
+  </si>
+  <si>
+    <t>720 aadl bt 3 n16</t>
+  </si>
+  <si>
+    <t>NB(730/2025)</t>
+  </si>
+  <si>
+    <t>2025177456</t>
+  </si>
+  <si>
+    <t>NB(440/2025)</t>
+  </si>
+  <si>
+    <t>Khelifa aissa</t>
+  </si>
+  <si>
+    <t>720 aadl bt 10 n03</t>
+  </si>
+  <si>
+    <t>2025177458</t>
+  </si>
+  <si>
+    <t>NB(729/2025)</t>
+  </si>
+  <si>
+    <t>Abri abdekrim</t>
+  </si>
+  <si>
+    <t>720 aadl bt 3 n09</t>
+  </si>
+  <si>
+    <t>2025177459</t>
+  </si>
+  <si>
+    <t>Zerrouki aek</t>
+  </si>
+  <si>
+    <t>720 aadl bt 2 n01</t>
+  </si>
+  <si>
+    <t>NB(731/2025)</t>
+  </si>
+  <si>
+    <t>2025177457</t>
+  </si>
+  <si>
+    <t>Chaib djamila</t>
+  </si>
+  <si>
+    <t>720 aadl bt 2 n12</t>
+  </si>
+  <si>
+    <t>NB(721/2025)</t>
+  </si>
+  <si>
+    <t>2025177227</t>
+  </si>
+  <si>
+    <t>Rahal mohamed</t>
+  </si>
+  <si>
+    <t>720 aadl bt 1 n27</t>
+  </si>
+  <si>
+    <t>NB(719/2025)</t>
+  </si>
+  <si>
+    <t>2025177228</t>
+  </si>
+  <si>
+    <t>Benaissa khaled</t>
+  </si>
+  <si>
+    <t>Rue de l'ALN</t>
+  </si>
+  <si>
+    <t>NB(340/2025)</t>
+  </si>
+  <si>
+    <t>2025177229</t>
+  </si>
+  <si>
+    <t>NB(727/2025)</t>
+  </si>
+  <si>
+    <t>Messaoudi fethi</t>
+  </si>
+  <si>
+    <t>720 aadl bt 1 n24</t>
+  </si>
+  <si>
+    <t>2025177224</t>
+  </si>
+  <si>
+    <t>NB(621/2025)</t>
+  </si>
+  <si>
+    <t>Boukendakdi fethi</t>
+  </si>
+  <si>
+    <t>720 aadl bt 4 n8</t>
+  </si>
+  <si>
+    <t>2025177221</t>
+  </si>
+  <si>
+    <t>NB(664/2024)</t>
+  </si>
+  <si>
+    <t>Abdou nadia vve sakki</t>
+  </si>
+  <si>
+    <t>draa essouk</t>
+  </si>
+  <si>
+    <t>2025177225</t>
+  </si>
+  <si>
+    <t>NB(600/2025)</t>
+  </si>
+  <si>
+    <t>Boukendakdi med amine</t>
+  </si>
+  <si>
+    <t>720 aadl bt 15 n21</t>
+  </si>
+  <si>
+    <t>2025177222</t>
+  </si>
+  <si>
+    <t>NB(726/2025)</t>
+  </si>
+  <si>
+    <t>Metidji alia</t>
+  </si>
+  <si>
+    <t>720 aadl bt 1 n19</t>
+  </si>
+  <si>
+    <t>2025177223</t>
+  </si>
+  <si>
+    <t>NB(348/2025)</t>
+  </si>
+  <si>
+    <t>Belkhelfa faycal</t>
+  </si>
+  <si>
+    <t>2025177892</t>
+  </si>
+  <si>
+    <t>NB(725/2025)</t>
+  </si>
+  <si>
+    <t>Chahba mouna farouk</t>
+  </si>
+  <si>
+    <t>720 aadl bt 2 n24</t>
   </si>
 </sst>
 </file>
@@ -7837,7 +7999,7 @@
   <sheetPr codeName="Feuil10"/>
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
@@ -9925,8 +10087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:K148"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10140,7 +10302,7 @@
         <v>18</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>1142</v>
+        <v>1710</v>
       </c>
       <c r="E9" s="15">
         <v>45964</v>
@@ -12850,7 +13012,7 @@
         <v>18</v>
       </c>
       <c r="D105" s="14" t="s">
-        <v>1579</v>
+        <v>1552</v>
       </c>
       <c r="E105" s="15">
         <v>45985</v>
@@ -12878,19 +13040,19 @@
         <v>18</v>
       </c>
       <c r="D106" s="14" t="s">
-        <v>1523</v>
+        <v>1509</v>
       </c>
       <c r="E106" s="15">
         <v>45986</v>
       </c>
       <c r="F106" s="16" t="s">
-        <v>1528</v>
+        <v>1514</v>
       </c>
       <c r="G106" s="17">
         <v>1</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>1527</v>
+        <v>1513</v>
       </c>
       <c r="I106" s="20"/>
     </row>
@@ -13214,19 +13376,19 @@
         <v>18</v>
       </c>
       <c r="D118" s="14" t="s">
-        <v>1522</v>
+        <v>1508</v>
       </c>
       <c r="E118" s="15">
         <v>45987</v>
       </c>
       <c r="F118" s="16" t="s">
-        <v>1526</v>
+        <v>1512</v>
       </c>
       <c r="G118" s="17">
         <v>1</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>1525</v>
+        <v>1511</v>
       </c>
       <c r="I118" s="20"/>
     </row>
@@ -13236,13 +13398,13 @@
         <v>113</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="C119" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D119" s="14" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="E119" s="15">
         <v>45987</v>
@@ -13273,7 +13435,7 @@
         <v>45987</v>
       </c>
       <c r="F120" s="16" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="G120" s="17">
         <v>1</v>
@@ -13301,13 +13463,13 @@
         <v>45987</v>
       </c>
       <c r="F121" s="16" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="G121" s="17">
         <v>1</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="I121" s="20"/>
     </row>
@@ -13329,13 +13491,13 @@
         <v>45987</v>
       </c>
       <c r="F122" s="16" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="G122" s="17">
         <v>1</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="I122" s="20"/>
     </row>
@@ -13357,13 +13519,13 @@
         <v>45987</v>
       </c>
       <c r="F123" s="16" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="G123" s="17">
         <v>1</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="I123" s="20"/>
     </row>
@@ -13379,19 +13541,19 @@
         <v>18</v>
       </c>
       <c r="D124" s="14" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="E124" s="15">
         <v>45988</v>
       </c>
       <c r="F124" s="16" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="G124" s="17">
         <v>1</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="I124" s="20"/>
     </row>
@@ -13407,19 +13569,19 @@
         <v>18</v>
       </c>
       <c r="D125" s="14" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="E125" s="15">
         <v>45988</v>
       </c>
       <c r="F125" s="16" t="s">
-        <v>1497</v>
+        <v>1491</v>
       </c>
       <c r="G125" s="17">
         <v>1</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>1495</v>
+        <v>1490</v>
       </c>
       <c r="I125" s="20"/>
     </row>
@@ -13435,19 +13597,19 @@
         <v>18</v>
       </c>
       <c r="D126" s="14" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="E126" s="15">
         <v>45988</v>
       </c>
       <c r="F126" s="16" t="s">
-        <v>1500</v>
+        <v>1493</v>
       </c>
       <c r="G126" s="17">
         <v>1</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>1498</v>
+        <v>1492</v>
       </c>
       <c r="I126" s="20"/>
     </row>
@@ -13463,19 +13625,19 @@
         <v>18</v>
       </c>
       <c r="D127" s="14" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="E127" s="15">
         <v>45988</v>
       </c>
       <c r="F127" s="16" t="s">
-        <v>1503</v>
+        <v>1495</v>
       </c>
       <c r="G127" s="17">
         <v>1</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>1501</v>
+        <v>1494</v>
       </c>
       <c r="I127" s="20"/>
     </row>
@@ -13491,19 +13653,19 @@
         <v>18</v>
       </c>
       <c r="D128" s="14" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="E128" s="15">
         <v>45988</v>
       </c>
       <c r="F128" s="16" t="s">
-        <v>1506</v>
+        <v>1497</v>
       </c>
       <c r="G128" s="17">
         <v>1</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>1504</v>
+        <v>1496</v>
       </c>
       <c r="I128" s="20"/>
     </row>
@@ -13519,19 +13681,19 @@
         <v>18</v>
       </c>
       <c r="D129" s="14" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="E129" s="15">
         <v>45988</v>
       </c>
       <c r="F129" s="16" t="s">
-        <v>1509</v>
+        <v>1499</v>
       </c>
       <c r="G129" s="17">
         <v>1</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>1507</v>
+        <v>1498</v>
       </c>
       <c r="I129" s="20"/>
     </row>
@@ -13547,19 +13709,19 @@
         <v>18</v>
       </c>
       <c r="D130" s="14" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="E130" s="15">
         <v>45988</v>
       </c>
       <c r="F130" s="16" t="s">
-        <v>1512</v>
+        <v>1501</v>
       </c>
       <c r="G130" s="17">
         <v>1</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>1510</v>
+        <v>1500</v>
       </c>
       <c r="I130" s="20"/>
     </row>
@@ -13575,19 +13737,19 @@
         <v>18</v>
       </c>
       <c r="D131" s="14" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="E131" s="15">
         <v>45988</v>
       </c>
       <c r="F131" s="16" t="s">
-        <v>1515</v>
+        <v>1503</v>
       </c>
       <c r="G131" s="17">
         <v>1</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>1513</v>
+        <v>1502</v>
       </c>
       <c r="I131" s="20"/>
     </row>
@@ -13603,19 +13765,19 @@
         <v>18</v>
       </c>
       <c r="D132" s="14" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="E132" s="15">
         <v>45988</v>
       </c>
       <c r="F132" s="16" t="s">
-        <v>1518</v>
+        <v>1505</v>
       </c>
       <c r="G132" s="17">
         <v>1</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>1516</v>
+        <v>1504</v>
       </c>
       <c r="I132" s="20"/>
     </row>
@@ -13631,19 +13793,19 @@
         <v>18</v>
       </c>
       <c r="D133" s="14" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="E133" s="15">
         <v>45988</v>
       </c>
       <c r="F133" s="16" t="s">
-        <v>1521</v>
+        <v>1507</v>
       </c>
       <c r="G133" s="17">
         <v>1</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>1519</v>
+        <v>1506</v>
       </c>
       <c r="I133" s="20"/>
     </row>
@@ -13659,19 +13821,19 @@
         <v>18</v>
       </c>
       <c r="D134" s="14" t="s">
-        <v>1524</v>
+        <v>1510</v>
       </c>
       <c r="E134" s="15">
         <v>45988</v>
       </c>
       <c r="F134" s="16" t="s">
-        <v>1528</v>
+        <v>1514</v>
       </c>
       <c r="G134" s="17">
         <v>1</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>1529</v>
+        <v>1515</v>
       </c>
       <c r="I134" s="20"/>
     </row>
@@ -13687,19 +13849,19 @@
         <v>18</v>
       </c>
       <c r="D135" s="14" t="s">
-        <v>1535</v>
+        <v>1519</v>
       </c>
       <c r="E135" s="15">
         <v>45991</v>
       </c>
       <c r="F135" s="16" t="s">
-        <v>1539</v>
+        <v>1522</v>
       </c>
       <c r="G135" s="17">
         <v>1</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>1536</v>
+        <v>1520</v>
       </c>
       <c r="I135" s="20"/>
     </row>
@@ -13715,19 +13877,19 @@
         <v>18</v>
       </c>
       <c r="D136" s="14" t="s">
-        <v>1538</v>
+        <v>1521</v>
       </c>
       <c r="E136" s="15">
         <v>45991</v>
       </c>
       <c r="F136" s="16" t="s">
-        <v>1542</v>
+        <v>1524</v>
       </c>
       <c r="G136" s="17">
         <v>1</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>1540</v>
+        <v>1523</v>
       </c>
       <c r="I136" s="20"/>
     </row>
@@ -13743,19 +13905,19 @@
         <v>18</v>
       </c>
       <c r="D137" s="14" t="s">
-        <v>1543</v>
+        <v>1525</v>
       </c>
       <c r="E137" s="15">
         <v>45991</v>
       </c>
       <c r="F137" s="16" t="s">
-        <v>1547</v>
+        <v>1529</v>
       </c>
       <c r="G137" s="17">
         <v>1</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>1548</v>
+        <v>1530</v>
       </c>
       <c r="I137" s="20"/>
     </row>
@@ -13771,19 +13933,19 @@
         <v>18</v>
       </c>
       <c r="D138" s="14" t="s">
-        <v>1551</v>
+        <v>1531</v>
       </c>
       <c r="E138" s="15">
         <v>45991</v>
       </c>
       <c r="F138" s="16" t="s">
-        <v>1559</v>
+        <v>1538</v>
       </c>
       <c r="G138" s="17">
         <v>1</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>1557</v>
+        <v>1537</v>
       </c>
       <c r="I138" s="20"/>
     </row>
@@ -13799,19 +13961,19 @@
         <v>18</v>
       </c>
       <c r="D139" s="14" t="s">
-        <v>1552</v>
+        <v>1532</v>
       </c>
       <c r="E139" s="15">
         <v>45991</v>
       </c>
       <c r="F139" s="16" t="s">
-        <v>1562</v>
+        <v>1540</v>
       </c>
       <c r="G139" s="17">
         <v>1</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>1560</v>
+        <v>1539</v>
       </c>
       <c r="I139" s="20"/>
     </row>
@@ -13827,19 +13989,19 @@
         <v>18</v>
       </c>
       <c r="D140" s="14" t="s">
-        <v>1553</v>
+        <v>1533</v>
       </c>
       <c r="E140" s="15">
         <v>45991</v>
       </c>
       <c r="F140" s="16" t="s">
-        <v>1565</v>
+        <v>1542</v>
       </c>
       <c r="G140" s="17">
         <v>1</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>1563</v>
+        <v>1541</v>
       </c>
       <c r="I140" s="20"/>
     </row>
@@ -13855,19 +14017,19 @@
         <v>18</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>1554</v>
+        <v>1534</v>
       </c>
       <c r="E141" s="15">
         <v>45991</v>
       </c>
       <c r="F141" s="16" t="s">
-        <v>1568</v>
+        <v>1544</v>
       </c>
       <c r="G141" s="17">
         <v>1</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>1566</v>
+        <v>1543</v>
       </c>
       <c r="I141" s="20"/>
     </row>
@@ -13883,19 +14045,19 @@
         <v>18</v>
       </c>
       <c r="D142" s="14" t="s">
-        <v>1555</v>
+        <v>1535</v>
       </c>
       <c r="E142" s="15">
         <v>45991</v>
       </c>
       <c r="F142" s="16" t="s">
-        <v>1571</v>
+        <v>1546</v>
       </c>
       <c r="G142" s="17">
         <v>1</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>1569</v>
+        <v>1545</v>
       </c>
       <c r="I142" s="20"/>
     </row>
@@ -13911,19 +14073,19 @@
         <v>18</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>1556</v>
+        <v>1536</v>
       </c>
       <c r="E143" s="15">
         <v>45991</v>
       </c>
       <c r="F143" s="16" t="s">
-        <v>1574</v>
+        <v>1548</v>
       </c>
       <c r="G143" s="17">
         <v>1</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>1572</v>
+        <v>1547</v>
       </c>
       <c r="I143" s="20"/>
     </row>
@@ -13939,19 +14101,19 @@
         <v>18</v>
       </c>
       <c r="D144" s="14" t="s">
-        <v>1531</v>
+        <v>1516</v>
       </c>
       <c r="E144" s="15">
         <v>45991</v>
       </c>
       <c r="F144" s="16" t="s">
-        <v>1532</v>
+        <v>1517</v>
       </c>
       <c r="G144" s="17">
         <v>1</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>1533</v>
+        <v>1518</v>
       </c>
       <c r="I144" s="20"/>
     </row>
@@ -13967,19 +14129,19 @@
         <v>18</v>
       </c>
       <c r="D145" s="14" t="s">
-        <v>1546</v>
+        <v>1528</v>
       </c>
       <c r="E145" s="15">
         <v>45991</v>
       </c>
       <c r="F145" s="16" t="s">
-        <v>1545</v>
+        <v>1527</v>
       </c>
       <c r="G145" s="17">
         <v>1</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>1544</v>
+        <v>1526</v>
       </c>
       <c r="I145" s="20"/>
     </row>
@@ -13995,19 +14157,19 @@
         <v>18</v>
       </c>
       <c r="D146" s="14" t="s">
-        <v>1575</v>
+        <v>1549</v>
       </c>
       <c r="E146" s="15">
         <v>45991</v>
       </c>
       <c r="F146" s="16" t="s">
-        <v>1576</v>
+        <v>1550</v>
       </c>
       <c r="G146" s="17">
         <v>1</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>1577</v>
+        <v>1551</v>
       </c>
       <c r="I146" s="20"/>
     </row>
@@ -14068,8 +14230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ECAD232-5CB6-49C4-964A-52B933C378F1}">
   <dimension ref="A1:K148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B41" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14120,7 +14282,7 @@
       <c r="J2" s="28"/>
       <c r="K2" s="6">
         <f>SUMIF(F7:F353,"Elimination*",G7:G353)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -14142,7 +14304,7 @@
       <c r="J3" s="28"/>
       <c r="K3" s="6">
         <f>SUMIF(F7:F353,"NB*",G7:G353)</f>
-        <v>39</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.25">
@@ -14167,7 +14329,7 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>1580</v>
+        <v>1553</v>
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="26"/>
@@ -14182,7 +14344,7 @@
       <c r="J5" s="28"/>
       <c r="K5" s="8">
         <f>SUM(K2:K4)</f>
-        <v>40</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -14225,19 +14387,19 @@
         <v>18</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>1591</v>
+        <v>1564</v>
       </c>
       <c r="E7" s="15">
         <v>45992</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>1604</v>
+        <v>1577</v>
       </c>
       <c r="G7" s="17">
         <v>1</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>1603</v>
+        <v>1576</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="19"/>
@@ -14255,19 +14417,19 @@
         <v>18</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>1616</v>
+        <v>1589</v>
       </c>
       <c r="E8" s="15">
         <v>45993</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>1618</v>
+        <v>1591</v>
       </c>
       <c r="G8" s="17">
         <v>1</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>1617</v>
+        <v>1590</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
@@ -14285,19 +14447,19 @@
         <v>18</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>1586</v>
+        <v>1559</v>
       </c>
       <c r="E9" s="15">
         <v>45993</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>1594</v>
+        <v>1567</v>
       </c>
       <c r="G9" s="17">
         <v>1</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>1593</v>
+        <v>1566</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
@@ -14315,19 +14477,19 @@
         <v>18</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>1587</v>
+        <v>1560</v>
       </c>
       <c r="E10" s="15">
         <v>45993</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>1596</v>
+        <v>1569</v>
       </c>
       <c r="G10" s="17">
         <v>1</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>1595</v>
+        <v>1568</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
@@ -14345,19 +14507,19 @@
         <v>18</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>1581</v>
+        <v>1554</v>
       </c>
       <c r="E11" s="15">
         <v>45993</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>1582</v>
+        <v>1555</v>
       </c>
       <c r="G11" s="17">
         <v>1</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>1583</v>
+        <v>1556</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
@@ -14375,19 +14537,19 @@
         <v>18</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>1588</v>
+        <v>1561</v>
       </c>
       <c r="E12" s="15">
         <v>45993</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>1598</v>
+        <v>1571</v>
       </c>
       <c r="G12" s="17">
         <v>1</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>1597</v>
+        <v>1570</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
@@ -14405,19 +14567,19 @@
         <v>18</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>1589</v>
+        <v>1562</v>
       </c>
       <c r="E13" s="15">
         <v>45993</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>1600</v>
+        <v>1573</v>
       </c>
       <c r="G13" s="17">
         <v>1</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>1599</v>
+        <v>1572</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
@@ -14435,19 +14597,19 @@
         <v>18</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>1590</v>
+        <v>1563</v>
       </c>
       <c r="E14" s="15">
         <v>45993</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>1602</v>
+        <v>1575</v>
       </c>
       <c r="G14" s="17">
         <v>1</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>1601</v>
+        <v>1574</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
@@ -14465,19 +14627,19 @@
         <v>18</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>1592</v>
+        <v>1565</v>
       </c>
       <c r="E15" s="15">
         <v>45993</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>1606</v>
+        <v>1579</v>
       </c>
       <c r="G15" s="17">
         <v>1</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>1605</v>
+        <v>1578</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
@@ -14494,13 +14656,13 @@
         <v>18</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>1584</v>
+        <v>1557</v>
       </c>
       <c r="E16" s="15">
         <v>45994</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>1585</v>
+        <v>1558</v>
       </c>
       <c r="G16" s="17">
         <v>1</v>
@@ -14523,19 +14685,19 @@
         <v>18</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>1613</v>
+        <v>1586</v>
       </c>
       <c r="E17" s="15">
         <v>45994</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>1615</v>
+        <v>1588</v>
       </c>
       <c r="G17" s="17">
         <v>1</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>1614</v>
+        <v>1587</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
@@ -14552,19 +14714,19 @@
         <v>18</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>1610</v>
+        <v>1583</v>
       </c>
       <c r="E18" s="15">
         <v>45994</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>1612</v>
+        <v>1585</v>
       </c>
       <c r="G18" s="17">
         <v>1</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>1611</v>
+        <v>1584</v>
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
@@ -14581,19 +14743,19 @@
         <v>18</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>1607</v>
+        <v>1580</v>
       </c>
       <c r="E19" s="15">
         <v>45994</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>1608</v>
+        <v>1581</v>
       </c>
       <c r="G19" s="17">
         <v>1</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>1609</v>
+        <v>1582</v>
       </c>
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
@@ -14604,13 +14766,13 @@
         <v>14</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>1619</v>
+        <v>1592</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>1620</v>
+        <v>1593</v>
       </c>
       <c r="E20" s="15">
         <v>45994</v>
@@ -14637,19 +14799,19 @@
         <v>18</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>1639</v>
+        <v>1612</v>
       </c>
       <c r="E21" s="15">
         <v>45998</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>1640</v>
+        <v>1613</v>
       </c>
       <c r="G21" s="17">
         <v>1</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>1641</v>
+        <v>1614</v>
       </c>
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
@@ -14666,19 +14828,19 @@
         <v>18</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>1636</v>
+        <v>1609</v>
       </c>
       <c r="E22" s="15">
         <v>45998</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>1637</v>
+        <v>1610</v>
       </c>
       <c r="G22" s="17">
         <v>1</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>1638</v>
+        <v>1611</v>
       </c>
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
@@ -14695,19 +14857,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>1621</v>
+        <v>1594</v>
       </c>
       <c r="E23" s="15">
         <v>45998</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>1622</v>
+        <v>1595</v>
       </c>
       <c r="G23" s="17">
         <v>1</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>1623</v>
+        <v>1596</v>
       </c>
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
@@ -14724,19 +14886,19 @@
         <v>18</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>1642</v>
+        <v>1615</v>
       </c>
       <c r="E24" s="15">
         <v>45998</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>1632</v>
+        <v>1605</v>
       </c>
       <c r="G24" s="17">
         <v>1</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>1633</v>
+        <v>1606</v>
       </c>
       <c r="I24" s="20"/>
       <c r="J24" s="20"/>
@@ -14753,19 +14915,19 @@
         <v>18</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>1643</v>
+        <v>1616</v>
       </c>
       <c r="E25" s="15">
         <v>45998</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>1634</v>
+        <v>1607</v>
       </c>
       <c r="G25" s="17">
         <v>1</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>1635</v>
+        <v>1608</v>
       </c>
       <c r="I25" s="20"/>
       <c r="J25" s="20"/>
@@ -14782,19 +14944,19 @@
         <v>18</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>1644</v>
+        <v>1617</v>
       </c>
       <c r="E26" s="15">
         <v>45998</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>1631</v>
+        <v>1604</v>
       </c>
       <c r="G26" s="17">
         <v>1</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>1630</v>
+        <v>1603</v>
       </c>
       <c r="I26" s="20"/>
       <c r="J26" s="20"/>
@@ -14811,19 +14973,19 @@
         <v>18</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>1645</v>
+        <v>1618</v>
       </c>
       <c r="E27" s="15">
         <v>45998</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>1626</v>
+        <v>1599</v>
       </c>
       <c r="G27" s="17">
         <v>1</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>1627</v>
+        <v>1600</v>
       </c>
       <c r="I27" s="20"/>
       <c r="J27" s="20"/>
@@ -14840,19 +15002,19 @@
         <v>18</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>1646</v>
+        <v>1619</v>
       </c>
       <c r="E28" s="15">
         <v>45998</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>1628</v>
+        <v>1601</v>
       </c>
       <c r="G28" s="17">
         <v>1</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>1629</v>
+        <v>1602</v>
       </c>
       <c r="I28" s="20"/>
       <c r="J28" s="20"/>
@@ -14869,19 +15031,19 @@
         <v>18</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>1647</v>
+        <v>1620</v>
       </c>
       <c r="E29" s="15">
         <v>45998</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>1625</v>
+        <v>1598</v>
       </c>
       <c r="G29" s="17">
         <v>1</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>1624</v>
+        <v>1597</v>
       </c>
       <c r="I29" s="20"/>
       <c r="J29" s="20"/>
@@ -14898,23 +15060,21 @@
         <v>18</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>1652</v>
+        <v>1624</v>
       </c>
       <c r="E30" s="15">
         <v>45999</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>1655</v>
+        <v>1626</v>
       </c>
       <c r="G30" s="17">
         <v>1</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>1653</v>
-      </c>
-      <c r="I30" s="20" t="s">
-        <v>1654</v>
-      </c>
+        <v>1625</v>
+      </c>
+      <c r="I30" s="20"/>
       <c r="J30" s="4"/>
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14929,23 +15089,21 @@
         <v>18</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>1648</v>
+        <v>1621</v>
       </c>
       <c r="E31" s="15">
         <v>45999</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>1649</v>
+        <v>1622</v>
       </c>
       <c r="G31" s="17">
         <v>1</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>1650</v>
-      </c>
-      <c r="I31" s="20" t="s">
-        <v>1651</v>
-      </c>
+        <v>1623</v>
+      </c>
+      <c r="I31" s="20"/>
       <c r="J31" s="4"/>
     </row>
     <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14960,23 +15118,21 @@
         <v>18</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>1656</v>
+        <v>1627</v>
       </c>
       <c r="E32" s="15">
         <v>46000</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>1657</v>
+        <v>1628</v>
       </c>
       <c r="G32" s="17">
         <v>1</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>1658</v>
-      </c>
-      <c r="I32" s="20" t="s">
-        <v>1659</v>
-      </c>
+        <v>1629</v>
+      </c>
+      <c r="I32" s="20"/>
       <c r="J32" s="4"/>
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14991,23 +15147,21 @@
         <v>18</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>1660</v>
+        <v>1630</v>
       </c>
       <c r="E33" s="15">
         <v>46000</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>1663</v>
+        <v>1632</v>
       </c>
       <c r="G33" s="17">
         <v>1</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>1661</v>
-      </c>
-      <c r="I33" s="20" t="s">
-        <v>1662</v>
-      </c>
+        <v>1631</v>
+      </c>
+      <c r="I33" s="20"/>
       <c r="J33" s="4"/>
     </row>
     <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15022,23 +15176,21 @@
         <v>18</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>1664</v>
+        <v>1633</v>
       </c>
       <c r="E34" s="15">
         <v>46000</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>1667</v>
+        <v>1635</v>
       </c>
       <c r="G34" s="17">
         <v>1</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>1665</v>
-      </c>
-      <c r="I34" s="20" t="s">
-        <v>1666</v>
-      </c>
+        <v>1634</v>
+      </c>
+      <c r="I34" s="20"/>
       <c r="J34" s="4"/>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15053,23 +15205,21 @@
         <v>18</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>1673</v>
+        <v>1640</v>
       </c>
       <c r="E35" s="15">
         <v>46001</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>1677</v>
+        <v>1643</v>
       </c>
       <c r="G35" s="17">
         <v>1</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>1674</v>
-      </c>
-      <c r="I35" s="20" t="s">
-        <v>1675</v>
-      </c>
+        <v>1641</v>
+      </c>
+      <c r="I35" s="20"/>
       <c r="J35" s="4"/>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15084,23 +15234,21 @@
         <v>18</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>1668</v>
+        <v>1636</v>
       </c>
       <c r="E36" s="15">
         <v>46001</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>1669</v>
+        <v>1637</v>
       </c>
       <c r="G36" s="17">
         <v>1</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>1670</v>
-      </c>
-      <c r="I36" s="20" t="s">
-        <v>1671</v>
-      </c>
+        <v>1638</v>
+      </c>
+      <c r="I36" s="20"/>
       <c r="J36" s="4"/>
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15115,23 +15263,21 @@
         <v>18</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>1676</v>
+        <v>1642</v>
       </c>
       <c r="E37" s="15">
         <v>46001</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>1678</v>
+        <v>1644</v>
       </c>
       <c r="G37" s="17">
         <v>1</v>
       </c>
       <c r="H37" s="18" t="s">
-        <v>1679</v>
-      </c>
-      <c r="I37" s="20" t="s">
-        <v>1680</v>
-      </c>
+        <v>1645</v>
+      </c>
+      <c r="I37" s="20"/>
       <c r="J37" s="4"/>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15146,23 +15292,21 @@
         <v>18</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>1696</v>
+        <v>1661</v>
       </c>
       <c r="E38" s="15">
         <v>46005</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>1699</v>
+        <v>1662</v>
       </c>
       <c r="G38" s="17">
         <v>1</v>
       </c>
       <c r="H38" s="18" t="s">
-        <v>1697</v>
-      </c>
-      <c r="I38" s="20" t="s">
-        <v>1698</v>
-      </c>
+        <v>1663</v>
+      </c>
+      <c r="I38" s="20"/>
       <c r="J38" s="4"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -15177,23 +15321,21 @@
         <v>18</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>1692</v>
+        <v>1658</v>
       </c>
       <c r="E39" s="15">
         <v>46005</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>1693</v>
+        <v>1660</v>
       </c>
       <c r="G39" s="17">
         <v>1</v>
       </c>
       <c r="H39" s="18" t="s">
-        <v>1694</v>
-      </c>
-      <c r="I39" s="20" t="s">
-        <v>1695</v>
-      </c>
+        <v>1659</v>
+      </c>
+      <c r="I39" s="20"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
@@ -15207,23 +15349,21 @@
         <v>18</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>1688</v>
+        <v>1655</v>
       </c>
       <c r="E40" s="15">
         <v>46005</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>1689</v>
+        <v>1656</v>
       </c>
       <c r="G40" s="17">
         <v>1</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>1690</v>
-      </c>
-      <c r="I40" s="20" t="s">
-        <v>1691</v>
-      </c>
+        <v>1657</v>
+      </c>
+      <c r="I40" s="20"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
@@ -15231,29 +15371,27 @@
         <v>35</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>1681</v>
+        <v>1652</v>
       </c>
       <c r="E41" s="15">
         <v>46005</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>1682</v>
+        <v>1653</v>
       </c>
       <c r="G41" s="17">
         <v>1</v>
       </c>
       <c r="H41" s="18" t="s">
-        <v>1683</v>
-      </c>
-      <c r="I41" s="20" t="s">
-        <v>1684</v>
-      </c>
+        <v>1654</v>
+      </c>
+      <c r="I41" s="20"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
@@ -15261,29 +15399,27 @@
         <v>36</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="C42" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>1685</v>
+        <v>1646</v>
       </c>
       <c r="E42" s="15">
         <v>46005</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>1686</v>
+        <v>1647</v>
       </c>
       <c r="G42" s="17">
         <v>1</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>1687</v>
-      </c>
-      <c r="I42" s="20" t="s">
-        <v>1651</v>
-      </c>
+        <v>1648</v>
+      </c>
+      <c r="I42" s="20"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
@@ -15297,23 +15433,21 @@
         <v>18</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>1700</v>
+        <v>1649</v>
       </c>
       <c r="E43" s="15">
         <v>46005</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>1701</v>
+        <v>1650</v>
       </c>
       <c r="G43" s="17">
         <v>1</v>
       </c>
       <c r="H43" s="18" t="s">
-        <v>1702</v>
-      </c>
-      <c r="I43" s="20" t="s">
-        <v>1703</v>
-      </c>
+        <v>1651</v>
+      </c>
+      <c r="I43" s="20"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
@@ -15327,23 +15461,21 @@
         <v>18</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>1704</v>
+        <v>1667</v>
       </c>
       <c r="E44" s="15">
         <v>46007</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>1705</v>
+        <v>1668</v>
       </c>
       <c r="G44" s="17">
         <v>1</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>1706</v>
-      </c>
-      <c r="I44" s="20" t="s">
-        <v>1707</v>
-      </c>
+        <v>1669</v>
+      </c>
+      <c r="I44" s="20"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
@@ -15357,23 +15489,21 @@
         <v>18</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>1708</v>
+        <v>1664</v>
       </c>
       <c r="E45" s="15">
         <v>46007</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>1709</v>
+        <v>1665</v>
       </c>
       <c r="G45" s="17">
         <v>1</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>1710</v>
-      </c>
-      <c r="I45" s="20" t="s">
-        <v>1711</v>
-      </c>
+        <v>1666</v>
+      </c>
+      <c r="I45" s="20"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
@@ -15381,44 +15511,52 @@
         <v>40</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>319</v>
+        <v>1673</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>1712</v>
+        <v>1674</v>
       </c>
       <c r="E46" s="15">
         <v>46008</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>1713</v>
+        <v>22</v>
       </c>
       <c r="G46" s="17">
         <v>1</v>
       </c>
-      <c r="H46" s="18" t="s">
-        <v>1714</v>
-      </c>
-      <c r="I46" s="20" t="s">
-        <v>1715</v>
-      </c>
+      <c r="H46" s="18"/>
+      <c r="I46" s="20"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="16"/>
+      <c r="B47" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>1670</v>
+      </c>
+      <c r="E47" s="15">
+        <v>46008</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>1671</v>
+      </c>
       <c r="G47" s="17">
         <v>1</v>
       </c>
-      <c r="H47" s="18"/>
+      <c r="H47" s="18" t="s">
+        <v>1672</v>
+      </c>
       <c r="I47" s="20"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -15426,15 +15564,27 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="16"/>
+      <c r="B48" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>1680</v>
+      </c>
+      <c r="E48" s="15">
+        <v>46008</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>1682</v>
+      </c>
       <c r="G48" s="17">
         <v>1</v>
       </c>
-      <c r="H48" s="18"/>
+      <c r="H48" s="18" t="s">
+        <v>1681</v>
+      </c>
       <c r="I48" s="20"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -15442,15 +15592,27 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="16"/>
+      <c r="B49" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E49" s="15">
+        <v>46008</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>1679</v>
+      </c>
       <c r="G49" s="17">
         <v>1</v>
       </c>
-      <c r="H49" s="18"/>
+      <c r="H49" s="18" t="s">
+        <v>1678</v>
+      </c>
       <c r="I49" s="20"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -15458,11 +15620,21 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="16"/>
+      <c r="B50" s="13" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E50" s="15">
+        <v>46008</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="G50" s="17">
         <v>1</v>
       </c>
@@ -15474,11 +15646,21 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="16"/>
+      <c r="B51" s="13" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C51" s="13">
+        <v>100</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>1685</v>
+      </c>
+      <c r="E51" s="15">
+        <v>46008</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>19</v>
+      </c>
       <c r="G51" s="17">
         <v>1</v>
       </c>
@@ -15490,15 +15672,27 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="16"/>
+      <c r="B52" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="E52" s="15">
+        <v>46012</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>1699</v>
+      </c>
       <c r="G52" s="17">
         <v>1</v>
       </c>
-      <c r="H52" s="18"/>
+      <c r="H52" s="18" t="s">
+        <v>1698</v>
+      </c>
       <c r="I52" s="20"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -15506,15 +15700,27 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="16"/>
+      <c r="B53" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E53" s="15">
+        <v>46012</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>1696</v>
+      </c>
       <c r="G53" s="17">
         <v>1</v>
       </c>
-      <c r="H53" s="18"/>
+      <c r="H53" s="18" t="s">
+        <v>1695</v>
+      </c>
       <c r="I53" s="20"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -15522,11 +15728,21 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="16"/>
+      <c r="B54" s="13" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>1701</v>
+      </c>
+      <c r="E54" s="15">
+        <v>46012</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>19</v>
+      </c>
       <c r="G54" s="17">
         <v>1</v>
       </c>
@@ -15538,304 +15754,570 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="16"/>
+      <c r="B55" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>1702</v>
+      </c>
+      <c r="E55" s="15">
+        <v>46012</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>1703</v>
+      </c>
       <c r="G55" s="17">
         <v>1</v>
       </c>
-      <c r="H55" s="18"/>
-      <c r="I55" s="20"/>
+      <c r="H55" s="18" t="s">
+        <v>1704</v>
+      </c>
+      <c r="I55" s="20" t="s">
+        <v>1705</v>
+      </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="12">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="16"/>
+      <c r="B56" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>1706</v>
+      </c>
+      <c r="E56" s="15">
+        <v>46012</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>1709</v>
+      </c>
       <c r="G56" s="17">
         <v>1</v>
       </c>
-      <c r="H56" s="18"/>
-      <c r="I56" s="20"/>
+      <c r="H56" s="18" t="s">
+        <v>1707</v>
+      </c>
+      <c r="I56" s="20" t="s">
+        <v>1708</v>
+      </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="12">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="16"/>
+      <c r="B57" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E57" s="15">
+        <v>46012</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>1688</v>
+      </c>
       <c r="G57" s="17">
         <v>1</v>
       </c>
-      <c r="H57" s="18"/>
-      <c r="I57" s="20"/>
+      <c r="H57" s="18" t="s">
+        <v>1689</v>
+      </c>
+      <c r="I57" s="20" t="s">
+        <v>1690</v>
+      </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="12">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="16"/>
+      <c r="B58" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E58" s="15">
+        <v>46012</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>1691</v>
+      </c>
       <c r="G58" s="17">
         <v>1</v>
       </c>
-      <c r="H58" s="18"/>
-      <c r="I58" s="20"/>
+      <c r="H58" s="18" t="s">
+        <v>1692</v>
+      </c>
+      <c r="I58" s="20" t="s">
+        <v>1693</v>
+      </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="12">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="16"/>
+      <c r="B59" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>1715</v>
+      </c>
+      <c r="E59" s="15">
+        <v>46013</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>1718</v>
+      </c>
       <c r="G59" s="17">
         <v>1</v>
       </c>
-      <c r="H59" s="18"/>
-      <c r="I59" s="20"/>
+      <c r="H59" s="18" t="s">
+        <v>1716</v>
+      </c>
+      <c r="I59" s="20" t="s">
+        <v>1717</v>
+      </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="12">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="16"/>
+      <c r="B60" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>1735</v>
+      </c>
+      <c r="E60" s="15">
+        <v>46013</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>1738</v>
+      </c>
       <c r="G60" s="17">
         <v>1</v>
       </c>
-      <c r="H60" s="18"/>
-      <c r="I60" s="20"/>
+      <c r="H60" s="4" t="s">
+        <v>1736</v>
+      </c>
+      <c r="I60" s="20" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="12">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="16"/>
+      <c r="B61" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E61" s="15">
+        <v>46013</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>1742</v>
+      </c>
       <c r="G61" s="17">
         <v>1</v>
       </c>
-      <c r="H61" s="4"/>
-      <c r="I61" s="20"/>
+      <c r="H61" s="4" t="s">
+        <v>1740</v>
+      </c>
+      <c r="I61" s="20" t="s">
+        <v>1741</v>
+      </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="12">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="16"/>
+      <c r="B62" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>1743</v>
+      </c>
+      <c r="E62" s="15">
+        <v>46013</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>1744</v>
+      </c>
       <c r="G62" s="17">
         <v>1</v>
       </c>
-      <c r="H62" s="4"/>
-      <c r="I62" s="20"/>
+      <c r="H62" s="4" t="s">
+        <v>1745</v>
+      </c>
+      <c r="I62" s="20" t="s">
+        <v>1746</v>
+      </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="12">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="16"/>
+      <c r="B63" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>1711</v>
+      </c>
+      <c r="E63" s="15">
+        <v>46013</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>1714</v>
+      </c>
       <c r="G63" s="17">
         <v>1</v>
       </c>
-      <c r="H63" s="4"/>
-      <c r="I63" s="20"/>
+      <c r="H63" s="18" t="s">
+        <v>1712</v>
+      </c>
+      <c r="I63" s="20" t="s">
+        <v>1713</v>
+      </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="12">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="16"/>
+      <c r="B64" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>1719</v>
+      </c>
+      <c r="E64" s="15">
+        <v>46013</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>1720</v>
+      </c>
       <c r="G64" s="17">
         <v>1</v>
       </c>
-      <c r="H64" s="4"/>
-      <c r="I64" s="20"/>
+      <c r="H64" s="4" t="s">
+        <v>1721</v>
+      </c>
+      <c r="I64" s="20" t="s">
+        <v>1722</v>
+      </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="12">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="16"/>
+      <c r="B65" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>1731</v>
+      </c>
+      <c r="E65" s="15">
+        <v>46013</v>
+      </c>
+      <c r="F65" s="16" t="s">
+        <v>1734</v>
+      </c>
       <c r="G65" s="17">
         <v>1</v>
       </c>
-      <c r="H65" s="4"/>
-      <c r="I65" s="20"/>
+      <c r="H65" s="4" t="s">
+        <v>1732</v>
+      </c>
+      <c r="I65" s="20" t="s">
+        <v>1733</v>
+      </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="12">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B66" s="13"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="16"/>
+      <c r="B66" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>1723</v>
+      </c>
+      <c r="E66" s="15">
+        <v>46013</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>1724</v>
+      </c>
       <c r="G66" s="17">
         <v>1</v>
       </c>
-      <c r="H66" s="4"/>
-      <c r="I66" s="20"/>
+      <c r="H66" s="4" t="s">
+        <v>1725</v>
+      </c>
+      <c r="I66" s="20" t="s">
+        <v>1726</v>
+      </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="12">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="16"/>
+      <c r="B67" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>1727</v>
+      </c>
+      <c r="E67" s="15">
+        <v>46013</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>1730</v>
+      </c>
       <c r="G67" s="17">
         <v>1</v>
       </c>
-      <c r="H67" s="4"/>
-      <c r="I67" s="20"/>
+      <c r="H67" s="4" t="s">
+        <v>1728</v>
+      </c>
+      <c r="I67" s="20" t="s">
+        <v>1729</v>
+      </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="12">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="16"/>
+      <c r="B68" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>1751</v>
+      </c>
+      <c r="E68" s="15">
+        <v>46014</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>1752</v>
+      </c>
       <c r="G68" s="17">
         <v>1</v>
       </c>
-      <c r="H68" s="4"/>
-      <c r="I68" s="20"/>
+      <c r="H68" s="4" t="s">
+        <v>1753</v>
+      </c>
+      <c r="I68" s="20" t="s">
+        <v>1754</v>
+      </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="12">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="16"/>
+      <c r="B69" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>1759</v>
+      </c>
+      <c r="E69" s="15">
+        <v>46014</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>1760</v>
+      </c>
       <c r="G69" s="17">
         <v>1</v>
       </c>
-      <c r="H69" s="4"/>
-      <c r="I69" s="20"/>
+      <c r="H69" s="4" t="s">
+        <v>1761</v>
+      </c>
+      <c r="I69" s="20" t="s">
+        <v>1762</v>
+      </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="12">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="16"/>
+      <c r="B70" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>1763</v>
+      </c>
+      <c r="E70" s="15">
+        <v>46014</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>1764</v>
+      </c>
       <c r="G70" s="17">
         <v>1</v>
       </c>
-      <c r="H70" s="18"/>
-      <c r="I70" s="20"/>
+      <c r="H70" s="4" t="s">
+        <v>1765</v>
+      </c>
+      <c r="I70" s="20" t="s">
+        <v>1741</v>
+      </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="12">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B71" s="13"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="16"/>
+      <c r="B71" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>1747</v>
+      </c>
+      <c r="E71" s="15">
+        <v>46014</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>1748</v>
+      </c>
       <c r="G71" s="17">
         <v>1</v>
       </c>
-      <c r="H71" s="4"/>
-      <c r="I71" s="20"/>
+      <c r="H71" s="4" t="s">
+        <v>1749</v>
+      </c>
+      <c r="I71" s="20" t="s">
+        <v>1750</v>
+      </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="12">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="B72" s="13"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="16"/>
+      <c r="B72" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>1755</v>
+      </c>
+      <c r="E72" s="15">
+        <v>46014</v>
+      </c>
+      <c r="F72" s="16" t="s">
+        <v>1756</v>
+      </c>
       <c r="G72" s="17">
         <v>1</v>
       </c>
-      <c r="H72" s="4"/>
-      <c r="I72" s="20"/>
+      <c r="H72" s="4" t="s">
+        <v>1757</v>
+      </c>
+      <c r="I72" s="20" t="s">
+        <v>1758</v>
+      </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="12">
         <f t="shared" ref="A73:A136" si="1">+A72+1</f>
         <v>67</v>
       </c>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="16"/>
+      <c r="B73" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>1766</v>
+      </c>
+      <c r="E73" s="15">
+        <v>46015</v>
+      </c>
+      <c r="F73" s="16" t="s">
+        <v>1767</v>
+      </c>
       <c r="G73" s="17">
         <v>1</v>
       </c>
-      <c r="H73" s="4"/>
-      <c r="I73" s="20"/>
+      <c r="H73" s="4" t="s">
+        <v>1768</v>
+      </c>
+      <c r="I73" s="20" t="s">
+        <v>1769</v>
+      </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="12">
@@ -15894,7 +16376,9 @@
       <c r="C77" s="13"/>
       <c r="D77" s="14"/>
       <c r="E77" s="15"/>
-      <c r="F77" s="16"/>
+      <c r="F77" s="16" t="s">
+        <v>169</v>
+      </c>
       <c r="G77" s="17">
         <v>1</v>
       </c>
@@ -16586,9 +17070,7 @@
         <v>1</v>
       </c>
       <c r="H120" s="4"/>
-      <c r="I120" s="20" t="s">
-        <v>1469</v>
-      </c>
+      <c r="I120" s="20"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="12">
@@ -16604,9 +17086,7 @@
         <v>1</v>
       </c>
       <c r="H121" s="4"/>
-      <c r="I121" s="20" t="s">
-        <v>1472</v>
-      </c>
+      <c r="I121" s="20"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="12">
@@ -16622,9 +17102,7 @@
         <v>1</v>
       </c>
       <c r="H122" s="4"/>
-      <c r="I122" s="20" t="s">
-        <v>1475</v>
-      </c>
+      <c r="I122" s="20"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="12">
@@ -16640,9 +17118,7 @@
         <v>1</v>
       </c>
       <c r="H123" s="4"/>
-      <c r="I123" s="20" t="s">
-        <v>1478</v>
-      </c>
+      <c r="I123" s="20"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="12">
@@ -16658,9 +17134,7 @@
         <v>1</v>
       </c>
       <c r="H124" s="4"/>
-      <c r="I124" s="20" t="s">
-        <v>1494</v>
-      </c>
+      <c r="I124" s="20"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="12">
@@ -16676,9 +17150,7 @@
         <v>1</v>
       </c>
       <c r="H125" s="4"/>
-      <c r="I125" s="20" t="s">
-        <v>1496</v>
-      </c>
+      <c r="I125" s="20"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="12">
@@ -16694,9 +17166,7 @@
         <v>1</v>
       </c>
       <c r="H126" s="4"/>
-      <c r="I126" s="20" t="s">
-        <v>1499</v>
-      </c>
+      <c r="I126" s="20"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="12">
@@ -16712,9 +17182,7 @@
         <v>1</v>
       </c>
       <c r="H127" s="4"/>
-      <c r="I127" s="20" t="s">
-        <v>1502</v>
-      </c>
+      <c r="I127" s="20"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="12">
@@ -16730,9 +17198,7 @@
         <v>1</v>
       </c>
       <c r="H128" s="4"/>
-      <c r="I128" s="20" t="s">
-        <v>1505</v>
-      </c>
+      <c r="I128" s="20"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="12">
@@ -16748,9 +17214,7 @@
         <v>1</v>
       </c>
       <c r="H129" s="4"/>
-      <c r="I129" s="20" t="s">
-        <v>1508</v>
-      </c>
+      <c r="I129" s="20"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="12">
@@ -16766,9 +17230,7 @@
         <v>1</v>
       </c>
       <c r="H130" s="4"/>
-      <c r="I130" s="20" t="s">
-        <v>1511</v>
-      </c>
+      <c r="I130" s="20"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="12">
@@ -16784,9 +17246,7 @@
         <v>1</v>
       </c>
       <c r="H131" s="4"/>
-      <c r="I131" s="20" t="s">
-        <v>1514</v>
-      </c>
+      <c r="I131" s="20"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="12">
@@ -16802,9 +17262,7 @@
         <v>1</v>
       </c>
       <c r="H132" s="4"/>
-      <c r="I132" s="20" t="s">
-        <v>1517</v>
-      </c>
+      <c r="I132" s="20"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="12">
@@ -16820,9 +17278,7 @@
         <v>1</v>
       </c>
       <c r="H133" s="4"/>
-      <c r="I133" s="20" t="s">
-        <v>1520</v>
-      </c>
+      <c r="I133" s="20"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="12">
@@ -16838,9 +17294,7 @@
         <v>1</v>
       </c>
       <c r="H134" s="4"/>
-      <c r="I134" s="20" t="s">
-        <v>1530</v>
-      </c>
+      <c r="I134" s="20"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="12">
@@ -16856,9 +17310,7 @@
         <v>1</v>
       </c>
       <c r="H135" s="4"/>
-      <c r="I135" s="20" t="s">
-        <v>1537</v>
-      </c>
+      <c r="I135" s="20"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="12">
@@ -16874,9 +17326,7 @@
         <v>1</v>
       </c>
       <c r="H136" s="4"/>
-      <c r="I136" s="20" t="s">
-        <v>1541</v>
-      </c>
+      <c r="I136" s="20"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="12">
@@ -16892,9 +17342,7 @@
         <v>1</v>
       </c>
       <c r="H137" s="4"/>
-      <c r="I137" s="20" t="s">
-        <v>1550</v>
-      </c>
+      <c r="I137" s="20"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="12">
@@ -16910,9 +17358,7 @@
         <v>1</v>
       </c>
       <c r="H138" s="4"/>
-      <c r="I138" s="20" t="s">
-        <v>1558</v>
-      </c>
+      <c r="I138" s="20"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="12">
@@ -16928,9 +17374,7 @@
         <v>1</v>
       </c>
       <c r="H139" s="4"/>
-      <c r="I139" s="20" t="s">
-        <v>1561</v>
-      </c>
+      <c r="I139" s="20"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="12">
@@ -16946,9 +17390,7 @@
         <v>1</v>
       </c>
       <c r="H140" s="4"/>
-      <c r="I140" s="20" t="s">
-        <v>1564</v>
-      </c>
+      <c r="I140" s="20"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="12">
@@ -16964,9 +17406,7 @@
         <v>1</v>
       </c>
       <c r="H141" s="4"/>
-      <c r="I141" s="20" t="s">
-        <v>1567</v>
-      </c>
+      <c r="I141" s="20"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="12">
@@ -16982,9 +17422,7 @@
         <v>1</v>
       </c>
       <c r="H142" s="4"/>
-      <c r="I142" s="20" t="s">
-        <v>1570</v>
-      </c>
+      <c r="I142" s="20"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="12">
@@ -17000,9 +17438,7 @@
         <v>1</v>
       </c>
       <c r="H143" s="4"/>
-      <c r="I143" s="20" t="s">
-        <v>1573</v>
-      </c>
+      <c r="I143" s="20"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="12">
@@ -17018,9 +17454,7 @@
         <v>1</v>
       </c>
       <c r="H144" s="4"/>
-      <c r="I144" s="20" t="s">
-        <v>1534</v>
-      </c>
+      <c r="I144" s="20"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="12">
@@ -17036,9 +17470,7 @@
         <v>1</v>
       </c>
       <c r="H145" s="4"/>
-      <c r="I145" s="20" t="s">
-        <v>1549</v>
-      </c>
+      <c r="I145" s="20"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="12">
@@ -17054,9 +17486,7 @@
         <v>1</v>
       </c>
       <c r="H146" s="4"/>
-      <c r="I146" s="20" t="s">
-        <v>1578</v>
-      </c>
+      <c r="I146" s="20"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="12">
@@ -17087,9 +17517,9 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:I42">
-    <sortCondition ref="E7:E42"/>
-    <sortCondition ref="D7:D42"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:I72">
+    <sortCondition ref="E7:E72"/>
+    <sortCondition ref="D7:D72"/>
   </sortState>
   <mergeCells count="9">
     <mergeCell ref="A5:F5"/>
@@ -20532,7 +20962,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>1672</v>
+        <v>1639</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
@@ -29881,8 +30311,8 @@
   <sheetPr codeName="Feuil9"/>
   <dimension ref="A1:K126"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="H94" sqref="H94"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30871,7 +31301,9 @@
       <c r="G37" s="17">
         <v>1</v>
       </c>
-      <c r="H37" s="4"/>
+      <c r="H37" s="4" t="s">
+        <v>1683</v>
+      </c>
       <c r="J37" s="4"/>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/Gestion Stock 2025/Gestion de Stock Berrouaghia/Suivie pose Compteur 2025.xlsx
+++ b/Gestion Stock 2025/Gestion de Stock Berrouaghia/Suivie pose Compteur 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Suivie Pose Compteurs\Gestion Stock 2025\Gestion de Stock Berrouaghia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76A347B-3A66-4119-81F0-C7E04678CB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F7D09D-E838-4B06-8D65-95FA0DA65A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3310" uniqueCount="1770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3371" uniqueCount="1804">
   <si>
     <t>Algérienne des Eaux</t>
   </si>
@@ -5404,18 +5404,12 @@
     <t>Ali aek</t>
   </si>
   <si>
-    <t>720 aadl bt 18 n19</t>
-  </si>
-  <si>
     <t>NB(396/2025)</t>
   </si>
   <si>
     <t>Rabehi ahmed</t>
   </si>
   <si>
-    <t>720 aadl bt 18 n24</t>
-  </si>
-  <si>
     <t>2025177452</t>
   </si>
   <si>
@@ -5449,18 +5443,12 @@
     <t>Benaouda chahir</t>
   </si>
   <si>
-    <t>720 aadl bt 19 n32</t>
-  </si>
-  <si>
     <t>2025177460</t>
   </si>
   <si>
     <t>Kaab sid ali</t>
   </si>
   <si>
-    <t>720 aadl bt 7 n33</t>
-  </si>
-  <si>
     <t>NB(662/2025)</t>
   </si>
   <si>
@@ -5473,9 +5461,6 @@
     <t>Kortebi a/rahmane</t>
   </si>
   <si>
-    <t>720 aadl bt 3 n7</t>
-  </si>
-  <si>
     <t>NB(728/2025)</t>
   </si>
   <si>
@@ -5485,9 +5470,6 @@
     <t>Boussila maamar</t>
   </si>
   <si>
-    <t>720 aadl bt 3 n16</t>
-  </si>
-  <si>
     <t>NB(730/2025)</t>
   </si>
   <si>
@@ -5500,9 +5482,6 @@
     <t>Khelifa aissa</t>
   </si>
   <si>
-    <t>720 aadl bt 10 n03</t>
-  </si>
-  <si>
     <t>2025177458</t>
   </si>
   <si>
@@ -5512,18 +5491,12 @@
     <t>Abri abdekrim</t>
   </si>
   <si>
-    <t>720 aadl bt 3 n09</t>
-  </si>
-  <si>
     <t>2025177459</t>
   </si>
   <si>
     <t>Zerrouki aek</t>
   </si>
   <si>
-    <t>720 aadl bt 2 n01</t>
-  </si>
-  <si>
     <t>NB(731/2025)</t>
   </si>
   <si>
@@ -5533,9 +5506,6 @@
     <t>Chaib djamila</t>
   </si>
   <si>
-    <t>720 aadl bt 2 n12</t>
-  </si>
-  <si>
     <t>NB(721/2025)</t>
   </si>
   <si>
@@ -5545,9 +5515,6 @@
     <t>Rahal mohamed</t>
   </si>
   <si>
-    <t>720 aadl bt 1 n27</t>
-  </si>
-  <si>
     <t>NB(719/2025)</t>
   </si>
   <si>
@@ -5557,9 +5524,6 @@
     <t>Benaissa khaled</t>
   </si>
   <si>
-    <t>Rue de l'ALN</t>
-  </si>
-  <si>
     <t>NB(340/2025)</t>
   </si>
   <si>
@@ -5572,9 +5536,6 @@
     <t>Messaoudi fethi</t>
   </si>
   <si>
-    <t>720 aadl bt 1 n24</t>
-  </si>
-  <si>
     <t>2025177224</t>
   </si>
   <si>
@@ -5584,9 +5545,6 @@
     <t>Boukendakdi fethi</t>
   </si>
   <si>
-    <t>720 aadl bt 4 n8</t>
-  </si>
-  <si>
     <t>2025177221</t>
   </si>
   <si>
@@ -5596,9 +5554,6 @@
     <t>Abdou nadia vve sakki</t>
   </si>
   <si>
-    <t>draa essouk</t>
-  </si>
-  <si>
     <t>2025177225</t>
   </si>
   <si>
@@ -5608,9 +5563,6 @@
     <t>Boukendakdi med amine</t>
   </si>
   <si>
-    <t>720 aadl bt 15 n21</t>
-  </si>
-  <si>
     <t>2025177222</t>
   </si>
   <si>
@@ -5620,9 +5572,6 @@
     <t>Metidji alia</t>
   </si>
   <si>
-    <t>720 aadl bt 1 n19</t>
-  </si>
-  <si>
     <t>2025177223</t>
   </si>
   <si>
@@ -5641,7 +5590,160 @@
     <t>Chahba mouna farouk</t>
   </si>
   <si>
-    <t>720 aadl bt 2 n24</t>
+    <t>B41165</t>
+  </si>
+  <si>
+    <t>2025177895</t>
+  </si>
+  <si>
+    <t>2025177898</t>
+  </si>
+  <si>
+    <t>B14256</t>
+  </si>
+  <si>
+    <t>Frarsa billel</t>
+  </si>
+  <si>
+    <t>500 aadl bt 35 n22</t>
+  </si>
+  <si>
+    <t>2025177900</t>
+  </si>
+  <si>
+    <t>NB(282/2025)</t>
+  </si>
+  <si>
+    <t>cite 40 logts bt8 n)28</t>
+  </si>
+  <si>
+    <t>Fast food guergour aicha</t>
+  </si>
+  <si>
+    <t>2025177893</t>
+  </si>
+  <si>
+    <t>Benzekkour rachid</t>
+  </si>
+  <si>
+    <t>NB(724/2025)</t>
+  </si>
+  <si>
+    <t>2025177894</t>
+  </si>
+  <si>
+    <t>Bousalem f/zohra</t>
+  </si>
+  <si>
+    <t>NB(734/2025)</t>
+  </si>
+  <si>
+    <t>2025177110</t>
+  </si>
+  <si>
+    <t>Mazari aek</t>
+  </si>
+  <si>
+    <t>NB(735/2025)</t>
+  </si>
+  <si>
+    <t>2025177899</t>
+  </si>
+  <si>
+    <t>Rahmani mounir</t>
+  </si>
+  <si>
+    <t>NB(513/2025)</t>
+  </si>
+  <si>
+    <t>2025177891</t>
+  </si>
+  <si>
+    <t>Bahmed brahim</t>
+  </si>
+  <si>
+    <t>NB(533/2025)</t>
+  </si>
+  <si>
+    <t>2025177896</t>
+  </si>
+  <si>
+    <t>Kadri ismail</t>
+  </si>
+  <si>
+    <t>NB(732/2025)</t>
+  </si>
+  <si>
+    <t>2025177897</t>
+  </si>
+  <si>
+    <t>Saker samia</t>
+  </si>
+  <si>
+    <t>NB(669/2025)</t>
+  </si>
+  <si>
+    <t>NB(232/2025)</t>
+  </si>
+  <si>
+    <t>2025177107</t>
+  </si>
+  <si>
+    <t>NB(422/2025)</t>
+  </si>
+  <si>
+    <t>Saidani el hassan</t>
+  </si>
+  <si>
+    <t>720 aadl bt 10 n1</t>
+  </si>
+  <si>
+    <t>2025177105</t>
+  </si>
+  <si>
+    <t>NB(576/2025)</t>
+  </si>
+  <si>
+    <t>Belkheir ahmed</t>
+  </si>
+  <si>
+    <t>720 aadl bt 4 n22</t>
+  </si>
+  <si>
+    <t>2025177108</t>
+  </si>
+  <si>
+    <t>Zarga djemia</t>
+  </si>
+  <si>
+    <t>720 aadl bt 3 n21</t>
+  </si>
+  <si>
+    <t>NB(743/2025)</t>
+  </si>
+  <si>
+    <t>2025177106</t>
+  </si>
+  <si>
+    <t>Badri saad</t>
+  </si>
+  <si>
+    <t>720 aadl bt 6 n28</t>
+  </si>
+  <si>
+    <t>NB(741/2025)</t>
+  </si>
+  <si>
+    <t>2025177109</t>
+  </si>
+  <si>
+    <t>NB(742/2025)</t>
+  </si>
+  <si>
+    <t>Khadraoui abdennour</t>
+  </si>
+  <si>
+    <t>720 aadl bt 11 n27</t>
   </si>
 </sst>
 </file>
@@ -10087,7 +10189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:K148"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A132" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -10302,7 +10404,7 @@
         <v>18</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
       <c r="E9" s="15">
         <v>45964</v>
@@ -14230,8 +14332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ECAD232-5CB6-49C4-964A-52B933C378F1}">
   <dimension ref="A1:K148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="K71" sqref="K71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14282,7 +14384,7 @@
       <c r="J2" s="28"/>
       <c r="K2" s="6">
         <f>SUMIF(F7:F353,"Elimination*",G7:G353)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -14304,7 +14406,7 @@
       <c r="J3" s="28"/>
       <c r="K3" s="6">
         <f>SUMIF(F7:F353,"NB*",G7:G353)</f>
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.25">
@@ -14344,7 +14446,7 @@
       <c r="J5" s="28"/>
       <c r="K5" s="8">
         <f>SUM(K2:K4)</f>
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -15679,19 +15781,19 @@
         <v>18</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="E52" s="15">
         <v>46012</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="G52" s="17">
         <v>1</v>
       </c>
       <c r="H52" s="18" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="I52" s="20"/>
     </row>
@@ -15707,19 +15809,19 @@
         <v>18</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="E53" s="15">
         <v>46012</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="G53" s="17">
         <v>1</v>
       </c>
       <c r="H53" s="18" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="I53" s="20"/>
     </row>
@@ -15729,13 +15831,13 @@
         <v>48</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="C54" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="E54" s="15">
         <v>46012</v>
@@ -15761,23 +15863,21 @@
         <v>18</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="E55" s="15">
         <v>46012</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="G55" s="17">
         <v>1</v>
       </c>
       <c r="H55" s="18" t="s">
-        <v>1704</v>
-      </c>
-      <c r="I55" s="20" t="s">
-        <v>1705</v>
-      </c>
+        <v>1702</v>
+      </c>
+      <c r="I55" s="20"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="12">
@@ -15791,23 +15891,21 @@
         <v>18</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="E56" s="15">
         <v>46012</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
       <c r="G56" s="17">
         <v>1</v>
       </c>
       <c r="H56" s="18" t="s">
-        <v>1707</v>
-      </c>
-      <c r="I56" s="20" t="s">
-        <v>1708</v>
-      </c>
+        <v>1704</v>
+      </c>
+      <c r="I56" s="20"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="12">
@@ -15835,9 +15933,7 @@
       <c r="H57" s="18" t="s">
         <v>1689</v>
       </c>
-      <c r="I57" s="20" t="s">
-        <v>1690</v>
-      </c>
+      <c r="I57" s="20"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="12">
@@ -15857,17 +15953,15 @@
         <v>46012</v>
       </c>
       <c r="F58" s="16" t="s">
+        <v>1690</v>
+      </c>
+      <c r="G58" s="17">
+        <v>1</v>
+      </c>
+      <c r="H58" s="18" t="s">
         <v>1691</v>
       </c>
-      <c r="G58" s="17">
-        <v>1</v>
-      </c>
-      <c r="H58" s="18" t="s">
-        <v>1692</v>
-      </c>
-      <c r="I58" s="20" t="s">
-        <v>1693</v>
-      </c>
+      <c r="I58" s="20"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="12">
@@ -15881,23 +15975,21 @@
         <v>18</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>1715</v>
+        <v>1710</v>
       </c>
       <c r="E59" s="15">
         <v>46013</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>1718</v>
+        <v>1712</v>
       </c>
       <c r="G59" s="17">
         <v>1</v>
       </c>
       <c r="H59" s="18" t="s">
-        <v>1716</v>
-      </c>
-      <c r="I59" s="20" t="s">
-        <v>1717</v>
-      </c>
+        <v>1711</v>
+      </c>
+      <c r="I59" s="20"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="12">
@@ -15911,23 +16003,21 @@
         <v>18</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>1735</v>
+        <v>1725</v>
       </c>
       <c r="E60" s="15">
         <v>46013</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>1738</v>
+        <v>1727</v>
       </c>
       <c r="G60" s="17">
         <v>1</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>1736</v>
-      </c>
-      <c r="I60" s="20" t="s">
-        <v>1737</v>
-      </c>
+        <v>1726</v>
+      </c>
+      <c r="I60" s="20"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="12">
@@ -15941,23 +16031,21 @@
         <v>18</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>1739</v>
+        <v>1728</v>
       </c>
       <c r="E61" s="15">
         <v>46013</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>1742</v>
+        <v>1730</v>
       </c>
       <c r="G61" s="17">
         <v>1</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>1740</v>
-      </c>
-      <c r="I61" s="20" t="s">
-        <v>1741</v>
-      </c>
+        <v>1729</v>
+      </c>
+      <c r="I61" s="20"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="12">
@@ -15971,23 +16059,21 @@
         <v>18</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>1743</v>
+        <v>1731</v>
       </c>
       <c r="E62" s="15">
         <v>46013</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>1744</v>
+        <v>1732</v>
       </c>
       <c r="G62" s="17">
         <v>1</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>1745</v>
-      </c>
-      <c r="I62" s="20" t="s">
-        <v>1746</v>
-      </c>
+        <v>1733</v>
+      </c>
+      <c r="I62" s="20"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="12">
@@ -16001,23 +16087,21 @@
         <v>18</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="E63" s="15">
         <v>46013</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>1714</v>
+        <v>1709</v>
       </c>
       <c r="G63" s="17">
         <v>1</v>
       </c>
       <c r="H63" s="18" t="s">
-        <v>1712</v>
-      </c>
-      <c r="I63" s="20" t="s">
-        <v>1713</v>
-      </c>
+        <v>1708</v>
+      </c>
+      <c r="I63" s="20"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="12">
@@ -16031,23 +16115,21 @@
         <v>18</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>1719</v>
+        <v>1713</v>
       </c>
       <c r="E64" s="15">
         <v>46013</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>1720</v>
+        <v>1714</v>
       </c>
       <c r="G64" s="17">
         <v>1</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>1721</v>
-      </c>
-      <c r="I64" s="20" t="s">
-        <v>1722</v>
-      </c>
+        <v>1715</v>
+      </c>
+      <c r="I64" s="20"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="12">
@@ -16061,23 +16143,21 @@
         <v>18</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>1731</v>
+        <v>1722</v>
       </c>
       <c r="E65" s="15">
         <v>46013</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>1734</v>
+        <v>1724</v>
       </c>
       <c r="G65" s="17">
         <v>1</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>1732</v>
-      </c>
-      <c r="I65" s="20" t="s">
-        <v>1733</v>
-      </c>
+        <v>1723</v>
+      </c>
+      <c r="I65" s="20"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="12">
@@ -16091,23 +16171,21 @@
         <v>18</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>1723</v>
+        <v>1716</v>
       </c>
       <c r="E66" s="15">
         <v>46013</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>1724</v>
+        <v>1717</v>
       </c>
       <c r="G66" s="17">
         <v>1</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>1725</v>
-      </c>
-      <c r="I66" s="20" t="s">
-        <v>1726</v>
-      </c>
+        <v>1718</v>
+      </c>
+      <c r="I66" s="20"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="12">
@@ -16121,23 +16199,21 @@
         <v>18</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>1727</v>
+        <v>1719</v>
       </c>
       <c r="E67" s="15">
         <v>46013</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>1730</v>
+        <v>1721</v>
       </c>
       <c r="G67" s="17">
         <v>1</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>1728</v>
-      </c>
-      <c r="I67" s="20" t="s">
-        <v>1729</v>
-      </c>
+        <v>1720</v>
+      </c>
+      <c r="I67" s="20"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="12">
@@ -16151,23 +16227,21 @@
         <v>18</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>1751</v>
+        <v>1737</v>
       </c>
       <c r="E68" s="15">
         <v>46014</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>1752</v>
+        <v>1738</v>
       </c>
       <c r="G68" s="17">
         <v>1</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>1753</v>
-      </c>
-      <c r="I68" s="20" t="s">
-        <v>1754</v>
-      </c>
+        <v>1739</v>
+      </c>
+      <c r="I68" s="20"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="12">
@@ -16181,23 +16255,21 @@
         <v>18</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>1759</v>
+        <v>1743</v>
       </c>
       <c r="E69" s="15">
         <v>46014</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>1760</v>
+        <v>1744</v>
       </c>
       <c r="G69" s="17">
         <v>1</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>1761</v>
-      </c>
-      <c r="I69" s="20" t="s">
-        <v>1762</v>
-      </c>
+        <v>1745</v>
+      </c>
+      <c r="I69" s="20"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="12">
@@ -16211,23 +16283,21 @@
         <v>18</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>1763</v>
+        <v>1746</v>
       </c>
       <c r="E70" s="15">
         <v>46014</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>1764</v>
+        <v>1747</v>
       </c>
       <c r="G70" s="17">
         <v>1</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>1765</v>
-      </c>
-      <c r="I70" s="20" t="s">
-        <v>1741</v>
-      </c>
+        <v>1748</v>
+      </c>
+      <c r="I70" s="20"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="12">
@@ -16241,23 +16311,21 @@
         <v>18</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>1747</v>
+        <v>1734</v>
       </c>
       <c r="E71" s="15">
         <v>46014</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>1748</v>
+        <v>1735</v>
       </c>
       <c r="G71" s="17">
         <v>1</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>1749</v>
-      </c>
-      <c r="I71" s="20" t="s">
-        <v>1750</v>
-      </c>
+        <v>1736</v>
+      </c>
+      <c r="I71" s="20"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="12">
@@ -16271,23 +16339,21 @@
         <v>18</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>1755</v>
+        <v>1740</v>
       </c>
       <c r="E72" s="15">
         <v>46014</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>1756</v>
+        <v>1741</v>
       </c>
       <c r="G72" s="17">
         <v>1</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>1757</v>
-      </c>
-      <c r="I72" s="20" t="s">
-        <v>1758</v>
-      </c>
+        <v>1742</v>
+      </c>
+      <c r="I72" s="20"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="12">
@@ -16301,38 +16367,48 @@
         <v>18</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>1766</v>
+        <v>1768</v>
       </c>
       <c r="E73" s="15">
         <v>46015</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>1767</v>
+        <v>1770</v>
       </c>
       <c r="G73" s="17">
         <v>1</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>1768</v>
-      </c>
-      <c r="I73" s="20" t="s">
         <v>1769</v>
       </c>
+      <c r="I73" s="20"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="12">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="B74" s="13"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="16"/>
+      <c r="B74" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>1774</v>
+      </c>
+      <c r="E74" s="15">
+        <v>46015</v>
+      </c>
+      <c r="F74" s="16" t="s">
+        <v>1776</v>
+      </c>
       <c r="G74" s="17">
         <v>1</v>
       </c>
-      <c r="H74" s="4"/>
+      <c r="H74" s="4" t="s">
+        <v>1775</v>
+      </c>
       <c r="I74" s="20"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -16340,15 +16416,27 @@
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="16"/>
+      <c r="B75" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" s="14" t="s">
+        <v>1749</v>
+      </c>
+      <c r="E75" s="15">
+        <v>46015</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>1750</v>
+      </c>
       <c r="G75" s="17">
         <v>1</v>
       </c>
-      <c r="H75" s="4"/>
+      <c r="H75" s="4" t="s">
+        <v>1751</v>
+      </c>
       <c r="I75" s="20"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -16356,15 +16444,27 @@
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="16"/>
+      <c r="B76" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>1762</v>
+      </c>
+      <c r="E76" s="15">
+        <v>46015</v>
+      </c>
+      <c r="F76" s="16" t="s">
+        <v>1764</v>
+      </c>
       <c r="G76" s="17">
         <v>1</v>
       </c>
-      <c r="H76" s="4"/>
+      <c r="H76" s="4" t="s">
+        <v>1763</v>
+      </c>
       <c r="I76" s="20"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -16372,17 +16472,27 @@
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="15"/>
+      <c r="B77" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77" s="14" t="s">
+        <v>1765</v>
+      </c>
+      <c r="E77" s="15">
+        <v>46015</v>
+      </c>
       <c r="F77" s="16" t="s">
-        <v>169</v>
+        <v>1767</v>
       </c>
       <c r="G77" s="17">
         <v>1</v>
       </c>
-      <c r="H77" s="4"/>
+      <c r="H77" s="4" t="s">
+        <v>1766</v>
+      </c>
       <c r="I77" s="20"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -16390,11 +16500,21 @@
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="16"/>
+      <c r="B78" s="13" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" s="14" t="s">
+        <v>1753</v>
+      </c>
+      <c r="E78" s="15">
+        <v>46015</v>
+      </c>
+      <c r="F78" s="16" t="s">
+        <v>19</v>
+      </c>
       <c r="G78" s="17">
         <v>1</v>
       </c>
@@ -16406,15 +16526,27 @@
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="B79" s="13"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="16"/>
+      <c r="B79" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>1777</v>
+      </c>
+      <c r="E79" s="15">
+        <v>46015</v>
+      </c>
+      <c r="F79" s="16" t="s">
+        <v>1779</v>
+      </c>
       <c r="G79" s="17">
         <v>1</v>
       </c>
-      <c r="H79" s="4"/>
+      <c r="H79" s="4" t="s">
+        <v>1778</v>
+      </c>
       <c r="I79" s="20"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -16422,15 +16554,27 @@
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="B80" s="13"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="16"/>
+      <c r="B80" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>1780</v>
+      </c>
+      <c r="E80" s="15">
+        <v>46015</v>
+      </c>
+      <c r="F80" s="16" t="s">
+        <v>1782</v>
+      </c>
       <c r="G80" s="17">
         <v>1</v>
       </c>
-      <c r="H80" s="4"/>
+      <c r="H80" s="4" t="s">
+        <v>1781</v>
+      </c>
       <c r="I80" s="20"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -16438,15 +16582,27 @@
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="B81" s="13"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="16"/>
+      <c r="B81" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>1771</v>
+      </c>
+      <c r="E81" s="15">
+        <v>46015</v>
+      </c>
+      <c r="F81" s="16" t="s">
+        <v>1773</v>
+      </c>
       <c r="G81" s="17">
         <v>1</v>
       </c>
-      <c r="H81" s="4"/>
+      <c r="H81" s="4" t="s">
+        <v>1772</v>
+      </c>
       <c r="I81" s="20"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -16454,112 +16610,210 @@
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="B82" s="13"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="16"/>
+      <c r="B82" s="13" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>1754</v>
+      </c>
+      <c r="E82" s="15">
+        <v>46016</v>
+      </c>
+      <c r="F82" s="16" t="s">
+        <v>1783</v>
+      </c>
       <c r="G82" s="17">
         <v>1</v>
       </c>
-      <c r="H82" s="4"/>
-      <c r="I82" s="20"/>
+      <c r="H82" s="4" t="s">
+        <v>1756</v>
+      </c>
+      <c r="I82" s="20" t="s">
+        <v>1757</v>
+      </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="12">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="B83" s="13"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="16"/>
+      <c r="B83" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E83" s="15">
+        <v>46016</v>
+      </c>
+      <c r="F83" s="16" t="s">
+        <v>1759</v>
+      </c>
       <c r="G83" s="17">
         <v>1</v>
       </c>
-      <c r="H83" s="4"/>
-      <c r="I83" s="20"/>
+      <c r="H83" s="4" t="s">
+        <v>1761</v>
+      </c>
+      <c r="I83" s="20" t="s">
+        <v>1760</v>
+      </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="12">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="16"/>
+      <c r="B84" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>1788</v>
+      </c>
+      <c r="E84" s="15">
+        <v>46019</v>
+      </c>
+      <c r="F84" s="16" t="s">
+        <v>1789</v>
+      </c>
       <c r="G84" s="17">
         <v>1</v>
       </c>
-      <c r="H84" s="4"/>
-      <c r="I84" s="20"/>
+      <c r="H84" s="4" t="s">
+        <v>1790</v>
+      </c>
+      <c r="I84" s="20" t="s">
+        <v>1791</v>
+      </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="12">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="B85" s="13"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="16"/>
+      <c r="B85" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>1796</v>
+      </c>
+      <c r="E85" s="15">
+        <v>46019</v>
+      </c>
+      <c r="F85" s="16" t="s">
+        <v>1799</v>
+      </c>
       <c r="G85" s="17">
         <v>1</v>
       </c>
-      <c r="H85" s="4"/>
-      <c r="I85" s="20"/>
+      <c r="H85" s="4" t="s">
+        <v>1797</v>
+      </c>
+      <c r="I85" s="20" t="s">
+        <v>1798</v>
+      </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="12">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="16"/>
+      <c r="B86" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" s="14" t="s">
+        <v>1784</v>
+      </c>
+      <c r="E86" s="15">
+        <v>46019</v>
+      </c>
+      <c r="F86" s="16" t="s">
+        <v>1785</v>
+      </c>
       <c r="G86" s="17">
         <v>1</v>
       </c>
-      <c r="H86" s="4"/>
-      <c r="I86" s="20"/>
+      <c r="H86" s="4" t="s">
+        <v>1786</v>
+      </c>
+      <c r="I86" s="20" t="s">
+        <v>1787</v>
+      </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="12">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="15"/>
-      <c r="F87" s="16"/>
+      <c r="B87" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87" s="14" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E87" s="15">
+        <v>46019</v>
+      </c>
+      <c r="F87" s="16" t="s">
+        <v>1795</v>
+      </c>
       <c r="G87" s="17">
         <v>1</v>
       </c>
-      <c r="H87" s="4"/>
-      <c r="I87" s="20"/>
+      <c r="H87" s="4" t="s">
+        <v>1793</v>
+      </c>
+      <c r="I87" s="20" t="s">
+        <v>1794</v>
+      </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="12">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="B88" s="13"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="16"/>
+      <c r="B88" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88" s="14" t="s">
+        <v>1800</v>
+      </c>
+      <c r="E88" s="15">
+        <v>46019</v>
+      </c>
+      <c r="F88" s="16" t="s">
+        <v>1801</v>
+      </c>
       <c r="G88" s="17">
         <v>1</v>
       </c>
-      <c r="H88" s="4"/>
-      <c r="I88" s="20"/>
+      <c r="H88" s="4" t="s">
+        <v>1802</v>
+      </c>
+      <c r="I88" s="20" t="s">
+        <v>1803</v>
+      </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="12">
@@ -17517,9 +17771,9 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:I72">
-    <sortCondition ref="E7:E72"/>
-    <sortCondition ref="D7:D72"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:I88">
+    <sortCondition ref="E7:E88"/>
+    <sortCondition ref="D7:D88"/>
   </sortState>
   <mergeCells count="9">
     <mergeCell ref="A5:F5"/>

--- a/Gestion Stock 2025/Gestion de Stock Berrouaghia/Suivie pose Compteur 2025.xlsx
+++ b/Gestion Stock 2025/Gestion de Stock Berrouaghia/Suivie pose Compteur 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Suivie Pose Compteurs\Gestion Stock 2025\Gestion de Stock Berrouaghia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F7D09D-E838-4B06-8D65-95FA0DA65A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13B5667-C7FD-4FCF-B263-6362D1DC0155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3371" uniqueCount="1804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3394" uniqueCount="1815">
   <si>
     <t>Algérienne des Eaux</t>
   </si>
@@ -5605,18 +5605,12 @@
     <t>Frarsa billel</t>
   </si>
   <si>
-    <t>500 aadl bt 35 n22</t>
-  </si>
-  <si>
     <t>2025177900</t>
   </si>
   <si>
     <t>NB(282/2025)</t>
   </si>
   <si>
-    <t>cite 40 logts bt8 n)28</t>
-  </si>
-  <si>
     <t>Fast food guergour aicha</t>
   </si>
   <si>
@@ -5695,9 +5689,6 @@
     <t>Saidani el hassan</t>
   </si>
   <si>
-    <t>720 aadl bt 10 n1</t>
-  </si>
-  <si>
     <t>2025177105</t>
   </si>
   <si>
@@ -5707,18 +5698,12 @@
     <t>Belkheir ahmed</t>
   </si>
   <si>
-    <t>720 aadl bt 4 n22</t>
-  </si>
-  <si>
     <t>2025177108</t>
   </si>
   <si>
     <t>Zarga djemia</t>
   </si>
   <si>
-    <t>720 aadl bt 3 n21</t>
-  </si>
-  <si>
     <t>NB(743/2025)</t>
   </si>
   <si>
@@ -5728,9 +5713,6 @@
     <t>Badri saad</t>
   </si>
   <si>
-    <t>720 aadl bt 6 n28</t>
-  </si>
-  <si>
     <t>NB(741/2025)</t>
   </si>
   <si>
@@ -5743,7 +5725,58 @@
     <t>Khadraoui abdennour</t>
   </si>
   <si>
-    <t>720 aadl bt 11 n27</t>
+    <t>2025177101</t>
+  </si>
+  <si>
+    <t>NB(678/2025)</t>
+  </si>
+  <si>
+    <t>Kouismi farouk</t>
+  </si>
+  <si>
+    <t>2025177102</t>
+  </si>
+  <si>
+    <t>Sabour benaissa</t>
+  </si>
+  <si>
+    <t>NB(612/2025)</t>
+  </si>
+  <si>
+    <t>2025177103</t>
+  </si>
+  <si>
+    <t>NB(739/2025)</t>
+  </si>
+  <si>
+    <t>Khimeche aissa</t>
+  </si>
+  <si>
+    <t>2025177104</t>
+  </si>
+  <si>
+    <t>NB(754/2025)</t>
+  </si>
+  <si>
+    <t>Hachelaf farid</t>
+  </si>
+  <si>
+    <t>2025177956</t>
+  </si>
+  <si>
+    <t>NB(634/2025)</t>
+  </si>
+  <si>
+    <t>Esselimani fatma</t>
+  </si>
+  <si>
+    <t>2025177451</t>
+  </si>
+  <si>
+    <t>NB(717/2025)</t>
+  </si>
+  <si>
+    <t>Makhloufi mourad</t>
   </si>
 </sst>
 </file>
@@ -14332,8 +14365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ECAD232-5CB6-49C4-964A-52B933C378F1}">
   <dimension ref="A1:K148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="K71" sqref="K71"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="I95" sqref="I95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14406,7 +14439,7 @@
       <c r="J3" s="28"/>
       <c r="K3" s="6">
         <f>SUMIF(F7:F353,"NB*",G7:G353)</f>
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.25">
@@ -14446,7 +14479,7 @@
       <c r="J5" s="28"/>
       <c r="K5" s="8">
         <f>SUM(K2:K4)</f>
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -15781,19 +15814,19 @@
         <v>18</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>1692</v>
+        <v>1812</v>
       </c>
       <c r="E52" s="15">
         <v>46012</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>1697</v>
+        <v>1813</v>
       </c>
       <c r="G52" s="17">
         <v>1</v>
       </c>
-      <c r="H52" s="18" t="s">
-        <v>1696</v>
+      <c r="H52" s="4" t="s">
+        <v>1814</v>
       </c>
       <c r="I52" s="20"/>
     </row>
@@ -15809,19 +15842,19 @@
         <v>18</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="E53" s="15">
         <v>46012</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>1694</v>
+        <v>1697</v>
       </c>
       <c r="G53" s="17">
         <v>1</v>
       </c>
       <c r="H53" s="18" t="s">
-        <v>1693</v>
+        <v>1696</v>
       </c>
       <c r="I53" s="20"/>
     </row>
@@ -15831,24 +15864,26 @@
         <v>48</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>1698</v>
+        <v>20</v>
       </c>
       <c r="C54" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
       <c r="E54" s="15">
         <v>46012</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>19</v>
+        <v>1694</v>
       </c>
       <c r="G54" s="17">
         <v>1</v>
       </c>
-      <c r="H54" s="18"/>
+      <c r="H54" s="18" t="s">
+        <v>1693</v>
+      </c>
       <c r="I54" s="20"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -15857,26 +15892,24 @@
         <v>49</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>20</v>
+        <v>1698</v>
       </c>
       <c r="C55" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="E55" s="15">
         <v>46012</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>1701</v>
+        <v>19</v>
       </c>
       <c r="G55" s="17">
         <v>1</v>
       </c>
-      <c r="H55" s="18" t="s">
-        <v>1702</v>
-      </c>
+      <c r="H55" s="18"/>
       <c r="I55" s="20"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -15891,19 +15924,19 @@
         <v>18</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
       <c r="E56" s="15">
         <v>46012</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>1705</v>
+        <v>1701</v>
       </c>
       <c r="G56" s="17">
         <v>1</v>
       </c>
       <c r="H56" s="18" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="I56" s="20"/>
     </row>
@@ -15919,19 +15952,19 @@
         <v>18</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>1686</v>
+        <v>1703</v>
       </c>
       <c r="E57" s="15">
         <v>46012</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>1688</v>
+        <v>1705</v>
       </c>
       <c r="G57" s="17">
         <v>1</v>
       </c>
       <c r="H57" s="18" t="s">
-        <v>1689</v>
+        <v>1704</v>
       </c>
       <c r="I57" s="20"/>
     </row>
@@ -15947,19 +15980,19 @@
         <v>18</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="E58" s="15">
         <v>46012</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="G58" s="17">
         <v>1</v>
       </c>
       <c r="H58" s="18" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="I58" s="20"/>
     </row>
@@ -15975,19 +16008,19 @@
         <v>18</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>1710</v>
+        <v>1687</v>
       </c>
       <c r="E59" s="15">
-        <v>46013</v>
+        <v>46012</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>1712</v>
+        <v>1690</v>
       </c>
       <c r="G59" s="17">
         <v>1</v>
       </c>
       <c r="H59" s="18" t="s">
-        <v>1711</v>
+        <v>1691</v>
       </c>
       <c r="I59" s="20"/>
     </row>
@@ -16003,19 +16036,19 @@
         <v>18</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>1725</v>
+        <v>1710</v>
       </c>
       <c r="E60" s="15">
         <v>46013</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>1727</v>
+        <v>1712</v>
       </c>
       <c r="G60" s="17">
         <v>1</v>
       </c>
-      <c r="H60" s="4" t="s">
-        <v>1726</v>
+      <c r="H60" s="18" t="s">
+        <v>1711</v>
       </c>
       <c r="I60" s="20"/>
     </row>
@@ -16031,19 +16064,19 @@
         <v>18</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
       <c r="E61" s="15">
         <v>46013</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
       <c r="G61" s="17">
         <v>1</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>1729</v>
+        <v>1726</v>
       </c>
       <c r="I61" s="20"/>
     </row>
@@ -16059,19 +16092,19 @@
         <v>18</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="E62" s="15">
         <v>46013</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="G62" s="17">
         <v>1</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>1733</v>
+        <v>1729</v>
       </c>
       <c r="I62" s="20"/>
     </row>
@@ -16087,19 +16120,19 @@
         <v>18</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>1707</v>
+        <v>1731</v>
       </c>
       <c r="E63" s="15">
         <v>46013</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>1709</v>
+        <v>1732</v>
       </c>
       <c r="G63" s="17">
         <v>1</v>
       </c>
-      <c r="H63" s="18" t="s">
-        <v>1708</v>
+      <c r="H63" s="4" t="s">
+        <v>1733</v>
       </c>
       <c r="I63" s="20"/>
     </row>
@@ -16115,19 +16148,19 @@
         <v>18</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>1713</v>
+        <v>1707</v>
       </c>
       <c r="E64" s="15">
         <v>46013</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>1714</v>
+        <v>1709</v>
       </c>
       <c r="G64" s="17">
         <v>1</v>
       </c>
-      <c r="H64" s="4" t="s">
-        <v>1715</v>
+      <c r="H64" s="18" t="s">
+        <v>1708</v>
       </c>
       <c r="I64" s="20"/>
     </row>
@@ -16143,19 +16176,19 @@
         <v>18</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>1722</v>
+        <v>1713</v>
       </c>
       <c r="E65" s="15">
         <v>46013</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>1724</v>
+        <v>1714</v>
       </c>
       <c r="G65" s="17">
         <v>1</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>1723</v>
+        <v>1715</v>
       </c>
       <c r="I65" s="20"/>
     </row>
@@ -16171,19 +16204,19 @@
         <v>18</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>1716</v>
+        <v>1722</v>
       </c>
       <c r="E66" s="15">
         <v>46013</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>1717</v>
+        <v>1724</v>
       </c>
       <c r="G66" s="17">
         <v>1</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>1718</v>
+        <v>1723</v>
       </c>
       <c r="I66" s="20"/>
     </row>
@@ -16199,19 +16232,19 @@
         <v>18</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="E67" s="15">
         <v>46013</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
       <c r="G67" s="17">
         <v>1</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="I67" s="20"/>
     </row>
@@ -16227,19 +16260,19 @@
         <v>18</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>1737</v>
+        <v>1719</v>
       </c>
       <c r="E68" s="15">
-        <v>46014</v>
+        <v>46013</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>1738</v>
+        <v>1721</v>
       </c>
       <c r="G68" s="17">
         <v>1</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>1739</v>
+        <v>1720</v>
       </c>
       <c r="I68" s="20"/>
     </row>
@@ -16255,19 +16288,19 @@
         <v>18</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>1743</v>
+        <v>1737</v>
       </c>
       <c r="E69" s="15">
         <v>46014</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>1744</v>
+        <v>1738</v>
       </c>
       <c r="G69" s="17">
         <v>1</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>1745</v>
+        <v>1739</v>
       </c>
       <c r="I69" s="20"/>
     </row>
@@ -16283,19 +16316,19 @@
         <v>18</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>1746</v>
+        <v>1743</v>
       </c>
       <c r="E70" s="15">
         <v>46014</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>1747</v>
+        <v>1744</v>
       </c>
       <c r="G70" s="17">
         <v>1</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>1748</v>
+        <v>1745</v>
       </c>
       <c r="I70" s="20"/>
     </row>
@@ -16311,19 +16344,19 @@
         <v>18</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>1734</v>
+        <v>1746</v>
       </c>
       <c r="E71" s="15">
         <v>46014</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>1735</v>
+        <v>1747</v>
       </c>
       <c r="G71" s="17">
         <v>1</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>1736</v>
+        <v>1748</v>
       </c>
       <c r="I71" s="20"/>
     </row>
@@ -16339,19 +16372,19 @@
         <v>18</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
       <c r="E72" s="15">
         <v>46014</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="G72" s="17">
         <v>1</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="I72" s="20"/>
     </row>
@@ -16367,19 +16400,19 @@
         <v>18</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>1768</v>
+        <v>1740</v>
       </c>
       <c r="E73" s="15">
-        <v>46015</v>
+        <v>46014</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>1770</v>
+        <v>1741</v>
       </c>
       <c r="G73" s="17">
         <v>1</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>1769</v>
+        <v>1742</v>
       </c>
       <c r="I73" s="20"/>
     </row>
@@ -16395,19 +16428,19 @@
         <v>18</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>1774</v>
+        <v>1766</v>
       </c>
       <c r="E74" s="15">
         <v>46015</v>
       </c>
       <c r="F74" s="16" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="G74" s="17">
         <v>1</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>1775</v>
+        <v>1767</v>
       </c>
       <c r="I74" s="20"/>
     </row>
@@ -16423,19 +16456,19 @@
         <v>18</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>1749</v>
+        <v>1772</v>
       </c>
       <c r="E75" s="15">
         <v>46015</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>1750</v>
+        <v>1774</v>
       </c>
       <c r="G75" s="17">
         <v>1</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>1751</v>
+        <v>1773</v>
       </c>
       <c r="I75" s="20"/>
     </row>
@@ -16451,19 +16484,19 @@
         <v>18</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>1762</v>
+        <v>1749</v>
       </c>
       <c r="E76" s="15">
         <v>46015</v>
       </c>
       <c r="F76" s="16" t="s">
-        <v>1764</v>
+        <v>1750</v>
       </c>
       <c r="G76" s="17">
         <v>1</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>1763</v>
+        <v>1751</v>
       </c>
       <c r="I76" s="20"/>
     </row>
@@ -16479,19 +16512,19 @@
         <v>18</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>1765</v>
+        <v>1760</v>
       </c>
       <c r="E77" s="15">
         <v>46015</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>1767</v>
+        <v>1762</v>
       </c>
       <c r="G77" s="17">
         <v>1</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>1766</v>
+        <v>1761</v>
       </c>
       <c r="I77" s="20"/>
     </row>
@@ -16501,24 +16534,26 @@
         <v>72</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>1752</v>
+        <v>20</v>
       </c>
       <c r="C78" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>1753</v>
+        <v>1763</v>
       </c>
       <c r="E78" s="15">
         <v>46015</v>
       </c>
       <c r="F78" s="16" t="s">
-        <v>19</v>
+        <v>1765</v>
       </c>
       <c r="G78" s="17">
         <v>1</v>
       </c>
-      <c r="H78" s="4"/>
+      <c r="H78" s="4" t="s">
+        <v>1764</v>
+      </c>
       <c r="I78" s="20"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -16527,26 +16562,24 @@
         <v>73</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>20</v>
+        <v>1752</v>
       </c>
       <c r="C79" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>1777</v>
+        <v>1753</v>
       </c>
       <c r="E79" s="15">
         <v>46015</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>1779</v>
+        <v>19</v>
       </c>
       <c r="G79" s="17">
         <v>1</v>
       </c>
-      <c r="H79" s="4" t="s">
-        <v>1778</v>
-      </c>
+      <c r="H79" s="4"/>
       <c r="I79" s="20"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -16561,19 +16594,19 @@
         <v>18</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>1780</v>
+        <v>1775</v>
       </c>
       <c r="E80" s="15">
         <v>46015</v>
       </c>
       <c r="F80" s="16" t="s">
-        <v>1782</v>
+        <v>1777</v>
       </c>
       <c r="G80" s="17">
         <v>1</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>1781</v>
+        <v>1776</v>
       </c>
       <c r="I80" s="20"/>
     </row>
@@ -16589,19 +16622,19 @@
         <v>18</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
       <c r="E81" s="15">
         <v>46015</v>
       </c>
       <c r="F81" s="16" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
       <c r="G81" s="17">
         <v>1</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>1772</v>
+        <v>1779</v>
       </c>
       <c r="I81" s="20"/>
     </row>
@@ -16611,29 +16644,27 @@
         <v>76</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>1755</v>
+        <v>20</v>
       </c>
       <c r="C82" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>1754</v>
+        <v>1769</v>
       </c>
       <c r="E82" s="15">
-        <v>46016</v>
+        <v>46015</v>
       </c>
       <c r="F82" s="16" t="s">
-        <v>1783</v>
+        <v>1771</v>
       </c>
       <c r="G82" s="17">
         <v>1</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>1756</v>
-      </c>
-      <c r="I82" s="20" t="s">
-        <v>1757</v>
-      </c>
+        <v>1770</v>
+      </c>
+      <c r="I82" s="20"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="12">
@@ -16641,29 +16672,27 @@
         <v>77</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>99</v>
+        <v>1755</v>
       </c>
       <c r="C83" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
       <c r="E83" s="15">
         <v>46016</v>
       </c>
       <c r="F83" s="16" t="s">
-        <v>1759</v>
+        <v>1781</v>
       </c>
       <c r="G83" s="17">
         <v>1</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>1761</v>
-      </c>
-      <c r="I83" s="20" t="s">
-        <v>1760</v>
-      </c>
+        <v>1756</v>
+      </c>
+      <c r="I83" s="20"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="12">
@@ -16671,29 +16700,27 @@
         <v>78</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="C84" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>1788</v>
+        <v>1757</v>
       </c>
       <c r="E84" s="15">
-        <v>46019</v>
+        <v>46016</v>
       </c>
       <c r="F84" s="16" t="s">
-        <v>1789</v>
+        <v>1758</v>
       </c>
       <c r="G84" s="17">
         <v>1</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>1790</v>
-      </c>
-      <c r="I84" s="20" t="s">
-        <v>1791</v>
-      </c>
+        <v>1759</v>
+      </c>
+      <c r="I84" s="20"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="12">
@@ -16707,23 +16734,21 @@
         <v>18</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>1796</v>
+        <v>1785</v>
       </c>
       <c r="E85" s="15">
         <v>46019</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>1799</v>
+        <v>1786</v>
       </c>
       <c r="G85" s="17">
         <v>1</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>1797</v>
-      </c>
-      <c r="I85" s="20" t="s">
-        <v>1798</v>
-      </c>
+        <v>1787</v>
+      </c>
+      <c r="I85" s="20"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="12">
@@ -16737,23 +16762,21 @@
         <v>18</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>1784</v>
+        <v>1791</v>
       </c>
       <c r="E86" s="15">
         <v>46019</v>
       </c>
       <c r="F86" s="16" t="s">
-        <v>1785</v>
+        <v>1793</v>
       </c>
       <c r="G86" s="17">
         <v>1</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>1786</v>
-      </c>
-      <c r="I86" s="20" t="s">
-        <v>1787</v>
-      </c>
+        <v>1792</v>
+      </c>
+      <c r="I86" s="20"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="12">
@@ -16767,23 +16790,21 @@
         <v>18</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>1792</v>
+        <v>1782</v>
       </c>
       <c r="E87" s="15">
         <v>46019</v>
       </c>
       <c r="F87" s="16" t="s">
-        <v>1795</v>
+        <v>1783</v>
       </c>
       <c r="G87" s="17">
         <v>1</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>1793</v>
-      </c>
-      <c r="I87" s="20" t="s">
-        <v>1794</v>
-      </c>
+        <v>1784</v>
+      </c>
+      <c r="I87" s="20"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="12">
@@ -16797,38 +16818,48 @@
         <v>18</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
       <c r="E88" s="15">
         <v>46019</v>
       </c>
       <c r="F88" s="16" t="s">
-        <v>1801</v>
+        <v>1790</v>
       </c>
       <c r="G88" s="17">
         <v>1</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>1802</v>
-      </c>
-      <c r="I88" s="20" t="s">
-        <v>1803</v>
-      </c>
+        <v>1789</v>
+      </c>
+      <c r="I88" s="20"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="12">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="B89" s="13"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="15"/>
-      <c r="F89" s="16"/>
+      <c r="B89" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89" s="14" t="s">
+        <v>1794</v>
+      </c>
+      <c r="E89" s="15">
+        <v>46019</v>
+      </c>
+      <c r="F89" s="16" t="s">
+        <v>1795</v>
+      </c>
       <c r="G89" s="17">
         <v>1</v>
       </c>
-      <c r="H89" s="4"/>
+      <c r="H89" s="4" t="s">
+        <v>1796</v>
+      </c>
       <c r="I89" s="20"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -16836,15 +16867,27 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="B90" s="13"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="16"/>
+      <c r="B90" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90" s="14" t="s">
+        <v>1797</v>
+      </c>
+      <c r="E90" s="15">
+        <v>46020</v>
+      </c>
+      <c r="F90" s="16" t="s">
+        <v>1798</v>
+      </c>
       <c r="G90" s="17">
         <v>1</v>
       </c>
-      <c r="H90" s="4"/>
+      <c r="H90" s="4" t="s">
+        <v>1799</v>
+      </c>
       <c r="I90" s="20"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -16852,15 +16895,27 @@
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="B91" s="13"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="15"/>
-      <c r="F91" s="16"/>
+      <c r="B91" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D91" s="14" t="s">
+        <v>1800</v>
+      </c>
+      <c r="E91" s="15">
+        <v>46020</v>
+      </c>
+      <c r="F91" s="16" t="s">
+        <v>1802</v>
+      </c>
       <c r="G91" s="17">
         <v>1</v>
       </c>
-      <c r="H91" s="4"/>
+      <c r="H91" s="4" t="s">
+        <v>1801</v>
+      </c>
       <c r="I91" s="20"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -16868,15 +16923,27 @@
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="B92" s="13"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="15"/>
-      <c r="F92" s="16"/>
+      <c r="B92" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D92" s="14" t="s">
+        <v>1803</v>
+      </c>
+      <c r="E92" s="15">
+        <v>46020</v>
+      </c>
+      <c r="F92" s="16" t="s">
+        <v>1804</v>
+      </c>
       <c r="G92" s="17">
         <v>1</v>
       </c>
-      <c r="H92" s="4"/>
+      <c r="H92" s="4" t="s">
+        <v>1805</v>
+      </c>
       <c r="I92" s="20"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -16884,15 +16951,27 @@
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="B93" s="13"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="15"/>
-      <c r="F93" s="16"/>
+      <c r="B93" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D93" s="14" t="s">
+        <v>1806</v>
+      </c>
+      <c r="E93" s="15">
+        <v>46020</v>
+      </c>
+      <c r="F93" s="16" t="s">
+        <v>1807</v>
+      </c>
       <c r="G93" s="17">
         <v>1</v>
       </c>
-      <c r="H93" s="4"/>
+      <c r="H93" s="4" t="s">
+        <v>1808</v>
+      </c>
       <c r="I93" s="20"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -16900,15 +16979,27 @@
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="B94" s="13"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="15"/>
-      <c r="F94" s="16"/>
+      <c r="B94" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D94" s="14" t="s">
+        <v>1809</v>
+      </c>
+      <c r="E94" s="15">
+        <v>46020</v>
+      </c>
+      <c r="F94" s="16" t="s">
+        <v>1810</v>
+      </c>
       <c r="G94" s="17">
         <v>1</v>
       </c>
-      <c r="H94" s="4"/>
+      <c r="H94" s="4" t="s">
+        <v>1811</v>
+      </c>
       <c r="I94" s="20"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -17771,9 +17862,9 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:I88">
-    <sortCondition ref="E7:E88"/>
-    <sortCondition ref="D7:D88"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:I94">
+    <sortCondition ref="E7:E94"/>
+    <sortCondition ref="D7:D94"/>
   </sortState>
   <mergeCells count="9">
     <mergeCell ref="A5:F5"/>

--- a/Gestion Stock 2025/Gestion de Stock Berrouaghia/Suivie pose Compteur 2025.xlsx
+++ b/Gestion Stock 2025/Gestion de Stock Berrouaghia/Suivie pose Compteur 2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Suivie Pose Compteurs\Gestion Stock 2025\Gestion de Stock Berrouaghia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13B5667-C7FD-4FCF-B263-6362D1DC0155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C8BA07-D443-4BAD-8CF0-E249C048C664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janvier 2025" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3394" uniqueCount="1815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3394" uniqueCount="1816">
   <si>
     <t>Algérienne des Eaux</t>
   </si>
@@ -5777,6 +5777,9 @@
   </si>
   <si>
     <t>Makhloufi mourad</t>
+  </si>
+  <si>
+    <t>NB(264/2024)</t>
   </si>
 </sst>
 </file>
@@ -14365,7 +14368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ECAD232-5CB6-49C4-964A-52B933C378F1}">
   <dimension ref="A1:K148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+    <sheetView topLeftCell="A59" workbookViewId="0">
       <selection activeCell="I95" sqref="I95"/>
     </sheetView>
   </sheetViews>
@@ -26607,8 +26610,8 @@
   <sheetPr codeName="Feuil7"/>
   <dimension ref="A1:K87"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26797,7 +26800,7 @@
         <v>45840</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>22</v>
+        <v>1815</v>
       </c>
       <c r="G8" s="17">
         <v>1</v>
